--- a/var/plan.xlsx
+++ b/var/plan.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1499" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1499" uniqueCount="282">
   <si>
     <t xml:space="preserve">PLAN COMPTABLE DGB CONSTRUCTION 2020</t>
   </si>
@@ -47,9 +47,6 @@
   </si>
   <si>
     <t xml:space="preserve">N° DE COMPTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EX. </t>
   </si>
   <si>
     <t xml:space="preserve">MO</t>
@@ -2381,9 +2378,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1160280</xdr:colOff>
+      <xdr:colOff>1159560</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>64800</xdr:rowOff>
+      <xdr:rowOff>64080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2392,8 +2389,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5319360" y="536400"/>
-          <a:ext cx="793080" cy="366480"/>
+          <a:off x="5318640" y="536400"/>
+          <a:ext cx="792360" cy="365760"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -2432,9 +2429,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1170000</xdr:colOff>
+      <xdr:colOff>1169280</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>64800</xdr:rowOff>
+      <xdr:rowOff>64080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2443,8 +2440,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5329080" y="917280"/>
-          <a:ext cx="793080" cy="366480"/>
+          <a:off x="5328360" y="917280"/>
+          <a:ext cx="792360" cy="365760"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -2483,9 +2480,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1189800</xdr:colOff>
+      <xdr:colOff>1189080</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>74520</xdr:rowOff>
+      <xdr:rowOff>73800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2494,8 +2491,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5348880" y="1308240"/>
-          <a:ext cx="793080" cy="366480"/>
+          <a:off x="5348160" y="1308240"/>
+          <a:ext cx="792360" cy="365760"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -2534,9 +2531,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1180080</xdr:colOff>
+      <xdr:colOff>1179360</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>74880</xdr:rowOff>
+      <xdr:rowOff>74160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2545,8 +2542,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5339160" y="1689480"/>
-          <a:ext cx="793080" cy="366480"/>
+          <a:off x="5338440" y="1689480"/>
+          <a:ext cx="792360" cy="365760"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -2585,9 +2582,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1180080</xdr:colOff>
+      <xdr:colOff>1179360</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>64800</xdr:rowOff>
+      <xdr:rowOff>64080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2596,8 +2593,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5339160" y="2060280"/>
-          <a:ext cx="793080" cy="366480"/>
+          <a:off x="5338440" y="2060280"/>
+          <a:ext cx="792360" cy="365760"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -2636,9 +2633,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1180080</xdr:colOff>
+      <xdr:colOff>1179360</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>74520</xdr:rowOff>
+      <xdr:rowOff>73800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2647,8 +2644,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5339160" y="2451240"/>
-          <a:ext cx="793080" cy="366480"/>
+          <a:off x="5338440" y="2451240"/>
+          <a:ext cx="792360" cy="365760"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -2687,9 +2684,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1189800</xdr:colOff>
+      <xdr:colOff>1189080</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>64800</xdr:rowOff>
+      <xdr:rowOff>64080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2698,8 +2695,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5348880" y="2822400"/>
-          <a:ext cx="793080" cy="366480"/>
+          <a:off x="5348160" y="2822400"/>
+          <a:ext cx="792360" cy="365760"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -2738,9 +2735,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1189800</xdr:colOff>
+      <xdr:colOff>1189080</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>2880</xdr:rowOff>
+      <xdr:rowOff>2160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2749,8 +2746,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5348880" y="3213360"/>
-          <a:ext cx="793080" cy="294480"/>
+          <a:off x="5348160" y="3213360"/>
+          <a:ext cx="792360" cy="293760"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -2789,9 +2786,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1189800</xdr:colOff>
+      <xdr:colOff>1189080</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>54720</xdr:rowOff>
+      <xdr:rowOff>54000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2800,8 +2797,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5348880" y="3574440"/>
-          <a:ext cx="793080" cy="366480"/>
+          <a:off x="5348160" y="3574440"/>
+          <a:ext cx="792360" cy="365760"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -2840,9 +2837,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1162440</xdr:colOff>
+      <xdr:colOff>1161720</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>375840</xdr:rowOff>
+      <xdr:rowOff>375120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2851,8 +2848,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5369040" y="4346280"/>
-          <a:ext cx="745560" cy="296640"/>
+          <a:off x="5368320" y="4346280"/>
+          <a:ext cx="744840" cy="295920"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -2891,9 +2888,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1209960</xdr:colOff>
+      <xdr:colOff>1209240</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>64800</xdr:rowOff>
+      <xdr:rowOff>64080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2902,8 +2899,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5369040" y="3965400"/>
-          <a:ext cx="793080" cy="366480"/>
+          <a:off x="5368320" y="3965400"/>
+          <a:ext cx="792360" cy="365760"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -2942,9 +2939,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1188720</xdr:colOff>
+      <xdr:colOff>1188000</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>8640</xdr:rowOff>
+      <xdr:rowOff>7920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2953,8 +2950,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5395320" y="4736520"/>
-          <a:ext cx="745560" cy="301320"/>
+          <a:off x="5394600" y="4736520"/>
+          <a:ext cx="744840" cy="300600"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -2993,9 +2990,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1188720</xdr:colOff>
+      <xdr:colOff>1188000</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>340920</xdr:rowOff>
+      <xdr:rowOff>340200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3004,8 +3001,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5395320" y="5073480"/>
-          <a:ext cx="745560" cy="296640"/>
+          <a:off x="5394600" y="5073480"/>
+          <a:ext cx="744840" cy="295920"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -3045,11 +3042,11 @@
   </sheetPr>
   <dimension ref="A1:L96"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="C9" colorId="64" zoomScale="100" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F31" activeCellId="0" sqref="F31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="55.86"/>
@@ -3094,7 +3091,7 @@
         <v>3</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>5</v>
@@ -3106,7 +3103,7 @@
         <v>3</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L2" s="10" t="s">
         <v>5</v>
@@ -3114,35 +3111,35 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>7</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>8</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="14" t="n">
         <v>604922</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3" s="16"/>
       <c r="G3" s="17"/>
       <c r="H3" s="18"/>
       <c r="I3" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="0" t="s">
         <v>10</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="11"/>
       <c r="B4" s="19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="20"/>
       <c r="D4" s="21" t="n">
@@ -3150,26 +3147,26 @@
       </c>
       <c r="E4" s="15"/>
       <c r="F4" s="19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G4" s="22"/>
       <c r="H4" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="J4" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="0" t="s">
+      <c r="L4" s="0" t="s">
         <v>16</v>
-      </c>
-      <c r="L4" s="0" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="11"/>
       <c r="B5" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="20"/>
       <c r="D5" s="21" t="n">
@@ -3177,28 +3174,28 @@
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="H5" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="23" t="s">
+      <c r="I5" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="24" t="s">
+      <c r="J5" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="0" t="s">
+      <c r="L5" s="0" t="s">
         <v>23</v>
-      </c>
-      <c r="L5" s="0" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="11"/>
       <c r="B6" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="20"/>
       <c r="D6" s="21" t="n">
@@ -3206,40 +3203,40 @@
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="H6" s="23" t="s">
         <v>27</v>
-      </c>
-      <c r="H6" s="23" t="s">
-        <v>28</v>
       </c>
       <c r="I6" s="24"/>
       <c r="J6" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" s="0" t="s">
         <v>29</v>
-      </c>
-      <c r="L6" s="0" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="11"/>
       <c r="B7" s="25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="20"/>
       <c r="D7" s="26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="28" t="s">
+      <c r="H7" s="29" t="s">
         <v>32</v>
-      </c>
-      <c r="H7" s="29" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3249,7 +3246,7 @@
       <c r="D8" s="32"/>
       <c r="E8" s="15"/>
       <c r="F8" s="33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G8" s="34"/>
       <c r="H8" s="35" t="n">
@@ -3258,20 +3255,20 @@
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="14" t="n">
         <v>601030</v>
       </c>
       <c r="E9" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="37" t="s">
         <v>36</v>
-      </c>
-      <c r="F9" s="37" t="s">
-        <v>37</v>
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="18" t="n">
@@ -3280,10 +3277,10 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="14" t="n">
@@ -3291,13 +3288,13 @@
       </c>
       <c r="E10" s="15"/>
       <c r="F10" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="22" t="s">
+      <c r="H10" s="23" t="s">
         <v>40</v>
-      </c>
-      <c r="H10" s="23" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3307,7 +3304,7 @@
       <c r="D11" s="21"/>
       <c r="E11" s="15"/>
       <c r="F11" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G11" s="22"/>
       <c r="H11" s="23" t="n">
@@ -3321,10 +3318,10 @@
       <c r="D12" s="32"/>
       <c r="E12" s="15"/>
       <c r="F12" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="28" t="s">
         <v>43</v>
-      </c>
-      <c r="G12" s="28" t="s">
-        <v>44</v>
       </c>
       <c r="H12" s="29" t="n">
         <v>611441</v>
@@ -3332,30 +3329,30 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="12" t="s">
         <v>45</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>46</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="G13" s="28" t="s">
+      <c r="H13" s="29" t="s">
         <v>49</v>
-      </c>
-      <c r="H13" s="29" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="11"/>
       <c r="B14" s="38" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C14" s="39"/>
       <c r="D14" s="40" t="n">
@@ -3363,10 +3360,10 @@
       </c>
       <c r="E14" s="15"/>
       <c r="F14" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="22" t="s">
         <v>52</v>
-      </c>
-      <c r="G14" s="22" t="s">
-        <v>53</v>
       </c>
       <c r="H14" s="23" t="n">
         <v>611442</v>
@@ -3375,7 +3372,7 @@
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="11"/>
       <c r="B15" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C15" s="20"/>
       <c r="D15" s="21" t="n">
@@ -3383,19 +3380,19 @@
       </c>
       <c r="E15" s="15"/>
       <c r="F15" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="G15" s="22" t="s">
+      <c r="H15" s="23" t="s">
         <v>56</v>
-      </c>
-      <c r="H15" s="23" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="11"/>
       <c r="B16" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C16" s="20"/>
       <c r="D16" s="21" t="n">
@@ -3403,10 +3400,10 @@
       </c>
       <c r="E16" s="15"/>
       <c r="F16" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" s="22" t="s">
         <v>59</v>
-      </c>
-      <c r="G16" s="22" t="s">
-        <v>60</v>
       </c>
       <c r="H16" s="23" t="n">
         <v>611439</v>
@@ -3419,10 +3416,10 @@
       <c r="D17" s="21"/>
       <c r="E17" s="15"/>
       <c r="F17" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" s="41" t="s">
         <v>61</v>
-      </c>
-      <c r="G17" s="41" t="s">
-        <v>62</v>
       </c>
       <c r="H17" s="23" t="n">
         <v>611440</v>
@@ -3431,7 +3428,7 @@
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="11"/>
       <c r="B18" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C18" s="20"/>
       <c r="D18" s="21" t="n">
@@ -3439,26 +3436,26 @@
       </c>
       <c r="E18" s="15"/>
       <c r="F18" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="G18" s="34" t="s">
+      <c r="H18" s="35" t="s">
         <v>65</v>
-      </c>
-      <c r="H18" s="35" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="11"/>
       <c r="B19" s="42" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C19" s="43"/>
       <c r="D19" s="44" t="n">
         <v>601950</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F19" s="16"/>
       <c r="G19" s="45"/>
@@ -3466,30 +3463,30 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="12" t="s">
         <v>69</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>70</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E20" s="15"/>
       <c r="F20" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="G20" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="G20" s="22" t="s">
+      <c r="H20" s="23" t="s">
         <v>73</v>
-      </c>
-      <c r="H20" s="23" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="46"/>
       <c r="B21" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C21" s="20"/>
       <c r="D21" s="21" t="n">
@@ -3497,10 +3494,10 @@
       </c>
       <c r="E21" s="15"/>
       <c r="F21" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="G21" s="34" t="s">
         <v>76</v>
-      </c>
-      <c r="G21" s="34" t="s">
-        <v>77</v>
       </c>
       <c r="H21" s="35" t="n">
         <v>612000</v>
@@ -3509,17 +3506,17 @@
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="46"/>
       <c r="B22" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C22" s="20"/>
       <c r="D22" s="21" t="n">
         <v>215510</v>
       </c>
       <c r="E22" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22" s="37" t="s">
         <v>79</v>
-      </c>
-      <c r="F22" s="37" t="s">
-        <v>80</v>
       </c>
       <c r="G22" s="45"/>
       <c r="H22" s="18" t="n">
@@ -3529,19 +3526,19 @@
     <row r="23" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="46"/>
       <c r="B23" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C23" s="20"/>
       <c r="D23" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E23" s="15"/>
       <c r="F23" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G23" s="22"/>
       <c r="H23" s="47" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3551,7 +3548,7 @@
       <c r="D24" s="21"/>
       <c r="E24" s="15"/>
       <c r="F24" s="30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G24" s="48"/>
       <c r="H24" s="49" t="n">
@@ -3561,7 +3558,7 @@
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="46"/>
       <c r="B25" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C25" s="20"/>
       <c r="D25" s="21" t="n">
@@ -3569,10 +3566,10 @@
       </c>
       <c r="E25" s="15"/>
       <c r="F25" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="G25" s="34" t="s">
         <v>87</v>
-      </c>
-      <c r="G25" s="34" t="s">
-        <v>88</v>
       </c>
       <c r="H25" s="35" t="n">
         <v>645700</v>
@@ -3581,17 +3578,17 @@
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="46"/>
       <c r="B26" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C26" s="20"/>
       <c r="D26" s="21" t="n">
         <v>613111</v>
       </c>
       <c r="E26" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="F26" s="16" t="s">
         <v>90</v>
-      </c>
-      <c r="F26" s="16" t="s">
-        <v>91</v>
       </c>
       <c r="G26" s="45"/>
       <c r="H26" s="18" t="n">
@@ -3601,7 +3598,7 @@
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="46"/>
       <c r="B27" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C27" s="20"/>
       <c r="D27" s="21" t="n">
@@ -3609,7 +3606,7 @@
       </c>
       <c r="E27" s="15"/>
       <c r="F27" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G27" s="22"/>
       <c r="H27" s="50" t="n">
@@ -3619,20 +3616,20 @@
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="46"/>
       <c r="B28" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="D28" s="21" t="s">
         <v>95</v>
-      </c>
-      <c r="D28" s="21" t="s">
-        <v>96</v>
       </c>
       <c r="E28" s="15"/>
       <c r="F28" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="G28" s="22" t="s">
         <v>97</v>
-      </c>
-      <c r="G28" s="22" t="s">
-        <v>98</v>
       </c>
       <c r="H28" s="50" t="n">
         <v>626100</v>
@@ -3641,7 +3638,7 @@
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="46"/>
       <c r="B29" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C29" s="20"/>
       <c r="D29" s="21" t="n">
@@ -3649,10 +3646,10 @@
       </c>
       <c r="E29" s="15"/>
       <c r="F29" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="G29" s="22" t="s">
         <v>100</v>
-      </c>
-      <c r="G29" s="22" t="s">
-        <v>101</v>
       </c>
       <c r="H29" s="23" t="n">
         <v>613102</v>
@@ -3661,7 +3658,7 @@
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="46"/>
       <c r="B30" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C30" s="20"/>
       <c r="D30" s="51" t="n">
@@ -3669,7 +3666,7 @@
       </c>
       <c r="E30" s="15"/>
       <c r="F30" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G30" s="22"/>
       <c r="H30" s="23" t="n">
@@ -3679,11 +3676,11 @@
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="46"/>
       <c r="B31" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C31" s="20"/>
       <c r="D31" s="51" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E31" s="15"/>
       <c r="F31" s="19"/>
@@ -3693,18 +3690,18 @@
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="46"/>
       <c r="B32" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C32" s="20"/>
       <c r="D32" s="51" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E32" s="15"/>
       <c r="F32" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="G32" s="52" t="s">
         <v>108</v>
-      </c>
-      <c r="G32" s="52" t="s">
-        <v>109</v>
       </c>
       <c r="H32" s="53" t="n">
         <v>623100</v>
@@ -3712,30 +3709,30 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="B33" s="12" t="s">
         <v>110</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>111</v>
       </c>
       <c r="C33" s="13"/>
       <c r="D33" s="14" t="n">
         <v>608800</v>
       </c>
       <c r="E33" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="F33" s="19" t="s">
         <v>112</v>
-      </c>
-      <c r="F33" s="19" t="s">
-        <v>113</v>
       </c>
       <c r="G33" s="22"/>
       <c r="H33" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="46"/>
       <c r="B34" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C34" s="20"/>
       <c r="D34" s="21" t="n">
@@ -3743,17 +3740,17 @@
       </c>
       <c r="E34" s="54"/>
       <c r="F34" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G34" s="22"/>
       <c r="H34" s="23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="46"/>
       <c r="B35" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C35" s="20"/>
       <c r="D35" s="21" t="n">
@@ -3761,47 +3758,47 @@
       </c>
       <c r="E35" s="54"/>
       <c r="F35" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G35" s="22"/>
       <c r="H35" s="23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="46"/>
       <c r="B36" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="C36" s="55" t="s">
         <v>120</v>
-      </c>
-      <c r="C36" s="55" t="s">
-        <v>121</v>
       </c>
       <c r="D36" s="21" t="n">
         <v>608990</v>
       </c>
       <c r="E36" s="54"/>
       <c r="F36" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G36" s="22"/>
       <c r="H36" s="23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="46"/>
       <c r="B37" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C37" s="55" t="s">
         <v>124</v>
-      </c>
-      <c r="C37" s="55" t="s">
-        <v>125</v>
       </c>
       <c r="D37" s="21" t="n">
         <v>608991</v>
       </c>
       <c r="E37" s="54"/>
       <c r="F37" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G37" s="22"/>
       <c r="H37" s="23" t="n">
@@ -3820,20 +3817,20 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C39" s="13"/>
       <c r="D39" s="56" t="n">
         <v>611420</v>
       </c>
       <c r="E39" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F39" s="57" t="s">
         <v>128</v>
-      </c>
-      <c r="F39" s="57" t="s">
-        <v>129</v>
       </c>
       <c r="G39" s="22"/>
       <c r="H39" s="23" t="n">
@@ -3843,17 +3840,17 @@
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="15"/>
       <c r="B40" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="C40" s="55" t="s">
         <v>130</v>
-      </c>
-      <c r="C40" s="55" t="s">
-        <v>131</v>
       </c>
       <c r="D40" s="58" t="n">
         <v>611423</v>
       </c>
       <c r="E40" s="15"/>
       <c r="F40" s="59" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G40" s="60"/>
       <c r="H40" s="50" t="n">
@@ -3863,7 +3860,7 @@
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="15"/>
       <c r="B41" s="61" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C41" s="20"/>
       <c r="D41" s="58" t="n">
@@ -3871,7 +3868,7 @@
       </c>
       <c r="E41" s="15"/>
       <c r="F41" s="62" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G41" s="63"/>
       <c r="H41" s="64" t="n">
@@ -3881,14 +3878,14 @@
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="15"/>
       <c r="B42" s="61" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C42" s="20"/>
       <c r="D42" s="65" t="n">
         <v>611430</v>
       </c>
       <c r="E42" s="66" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F42" s="67"/>
       <c r="G42" s="67"/>
@@ -3899,7 +3896,7 @@
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="15"/>
       <c r="B43" s="61" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C43" s="20"/>
       <c r="D43" s="58" t="n">
@@ -3909,7 +3906,7 @@
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="15"/>
       <c r="B44" s="61" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C44" s="20"/>
       <c r="D44" s="58" t="n">
@@ -3919,7 +3916,7 @@
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="15"/>
       <c r="B45" s="61" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C45" s="20"/>
       <c r="D45" s="58" t="n">
@@ -3929,7 +3926,7 @@
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="15"/>
       <c r="B46" s="61" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C46" s="20"/>
       <c r="D46" s="58" t="n">
@@ -3939,7 +3936,7 @@
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="15"/>
       <c r="B47" s="61" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C47" s="20"/>
       <c r="D47" s="58" t="n">
@@ -3949,7 +3946,7 @@
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="15"/>
       <c r="B48" s="61" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C48" s="20"/>
       <c r="D48" s="58" t="n">
@@ -3959,7 +3956,7 @@
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="15"/>
       <c r="B49" s="61" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C49" s="20"/>
       <c r="D49" s="58" t="n">
@@ -3969,7 +3966,7 @@
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="15"/>
       <c r="B50" s="69" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C50" s="43"/>
       <c r="D50" s="70" t="n">
@@ -3979,7 +3976,7 @@
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="15"/>
       <c r="B51" s="69" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C51" s="43"/>
       <c r="D51" s="70" t="n">
@@ -3989,24 +3986,24 @@
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="15"/>
       <c r="B52" s="33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C52" s="71" t="s">
+        <v>145</v>
+      </c>
+      <c r="D52" s="72" t="s">
         <v>146</v>
-      </c>
-      <c r="D52" s="72" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B53" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="C53" s="13" t="s">
         <v>148</v>
-      </c>
-      <c r="C53" s="13" t="s">
-        <v>149</v>
       </c>
       <c r="D53" s="56" t="n">
         <v>611436</v>
@@ -4015,10 +4012,10 @@
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="15"/>
       <c r="B54" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="C54" s="73" t="s">
         <v>150</v>
-      </c>
-      <c r="C54" s="73" t="s">
-        <v>151</v>
       </c>
       <c r="D54" s="74" t="n">
         <v>613110</v>
@@ -4027,7 +4024,7 @@
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="15"/>
       <c r="B55" s="19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C55" s="55"/>
       <c r="D55" s="58" t="n">
@@ -4037,17 +4034,17 @@
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="15"/>
       <c r="B56" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C56" s="55"/>
       <c r="D56" s="58" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="15"/>
       <c r="B57" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C57" s="55"/>
       <c r="D57" s="58" t="n">
@@ -4057,7 +4054,7 @@
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="15"/>
       <c r="B58" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C58" s="55"/>
       <c r="D58" s="58" t="n">
@@ -4067,7 +4064,7 @@
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="15"/>
       <c r="B59" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C59" s="55"/>
       <c r="D59" s="58" t="n">
@@ -4077,27 +4074,27 @@
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="15"/>
       <c r="B60" s="30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C60" s="31"/>
       <c r="D60" s="75" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="15"/>
       <c r="B61" s="76" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C61" s="77"/>
       <c r="D61" s="78" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="15"/>
       <c r="B62" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C62" s="22"/>
       <c r="D62" s="58" t="n">
@@ -4107,10 +4104,10 @@
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="15"/>
       <c r="B63" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="C63" s="34" t="s">
         <v>160</v>
-      </c>
-      <c r="C63" s="34" t="s">
-        <v>161</v>
       </c>
       <c r="D63" s="79" t="n">
         <v>613513</v>
@@ -4118,7 +4115,7 @@
     </row>
     <row r="64" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B64" s="80"/>
       <c r="C64" s="81"/>
@@ -4128,7 +4125,7 @@
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B65" s="12"/>
       <c r="C65" s="83"/>
@@ -4155,7 +4152,7 @@
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="11"/>
       <c r="B68" s="57" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C68" s="84"/>
       <c r="D68" s="58" t="n">
@@ -4170,7 +4167,7 @@
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="66" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B70" s="67"/>
       <c r="C70" s="67"/>
@@ -4271,7 +4268,7 @@
       <selection pane="topLeft" activeCell="J47" activeCellId="0" sqref="J47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="95" width="12.43"/>
@@ -4286,7 +4283,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="55.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="96" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B1" s="96"/>
       <c r="C1" s="96"/>
@@ -4320,38 +4317,38 @@
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="3" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="97" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B3" s="97"/>
       <c r="C3" s="97"/>
       <c r="D3" s="97"/>
       <c r="E3" s="98"/>
       <c r="F3" s="97" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G3" s="97"/>
       <c r="H3" s="97"/>
       <c r="I3" s="97"/>
       <c r="K3" s="97" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L3" s="97"/>
       <c r="M3" s="97"/>
       <c r="N3" s="97"/>
       <c r="P3" s="97" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q3" s="97"/>
       <c r="R3" s="97"/>
       <c r="S3" s="97"/>
       <c r="U3" s="97" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="V3" s="97"/>
       <c r="W3" s="97"/>
       <c r="X3" s="97"/>
       <c r="Z3" s="97" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AA3" s="97"/>
       <c r="AB3" s="97"/>
@@ -4359,1216 +4356,1216 @@
     </row>
     <row r="4" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="99" t="s">
+        <v>172</v>
+      </c>
+      <c r="B4" s="100" t="s">
         <v>173</v>
       </c>
-      <c r="B4" s="100" t="s">
+      <c r="C4" s="100" t="s">
         <v>174</v>
       </c>
-      <c r="C4" s="100" t="s">
+      <c r="D4" s="101" t="s">
         <v>175</v>
-      </c>
-      <c r="D4" s="101" t="s">
-        <v>176</v>
       </c>
       <c r="E4" s="102"/>
       <c r="F4" s="99" t="s">
+        <v>172</v>
+      </c>
+      <c r="G4" s="100" t="s">
         <v>173</v>
       </c>
-      <c r="G4" s="100" t="s">
+      <c r="H4" s="100" t="s">
         <v>174</v>
       </c>
-      <c r="H4" s="100" t="s">
+      <c r="I4" s="103" t="s">
         <v>175</v>
       </c>
-      <c r="I4" s="103" t="s">
-        <v>176</v>
-      </c>
       <c r="K4" s="99" t="s">
+        <v>172</v>
+      </c>
+      <c r="L4" s="100" t="s">
         <v>173</v>
       </c>
-      <c r="L4" s="100" t="s">
+      <c r="M4" s="100" t="s">
         <v>174</v>
       </c>
-      <c r="M4" s="100" t="s">
+      <c r="N4" s="103" t="s">
         <v>175</v>
       </c>
-      <c r="N4" s="103" t="s">
-        <v>176</v>
-      </c>
       <c r="P4" s="99" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q4" s="100" t="s">
         <v>173</v>
       </c>
-      <c r="Q4" s="100" t="s">
+      <c r="R4" s="100" t="s">
         <v>174</v>
       </c>
-      <c r="R4" s="100" t="s">
+      <c r="S4" s="103" t="s">
         <v>175</v>
       </c>
-      <c r="S4" s="103" t="s">
-        <v>176</v>
-      </c>
       <c r="U4" s="99" t="s">
+        <v>172</v>
+      </c>
+      <c r="V4" s="100" t="s">
         <v>173</v>
       </c>
-      <c r="V4" s="100" t="s">
+      <c r="W4" s="100" t="s">
         <v>174</v>
       </c>
-      <c r="W4" s="100" t="s">
+      <c r="X4" s="103" t="s">
         <v>175</v>
       </c>
-      <c r="X4" s="103" t="s">
-        <v>176</v>
-      </c>
       <c r="Z4" s="99" t="s">
+        <v>172</v>
+      </c>
+      <c r="AA4" s="100" t="s">
         <v>173</v>
       </c>
-      <c r="AA4" s="100" t="s">
+      <c r="AB4" s="100" t="s">
         <v>174</v>
       </c>
-      <c r="AB4" s="100" t="s">
+      <c r="AC4" s="103" t="s">
         <v>175</v>
-      </c>
-      <c r="AC4" s="103" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="B5" s="104" t="s">
         <v>177</v>
-      </c>
-      <c r="B5" s="104" t="s">
-        <v>178</v>
       </c>
       <c r="C5" s="22"/>
       <c r="D5" s="105" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E5" s="106"/>
       <c r="F5" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="G5" s="104" t="s">
         <v>177</v>
-      </c>
-      <c r="G5" s="104" t="s">
-        <v>178</v>
       </c>
       <c r="H5" s="22"/>
       <c r="I5" s="105" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K5" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="L5" s="104" t="s">
         <v>177</v>
-      </c>
-      <c r="L5" s="104" t="s">
-        <v>178</v>
       </c>
       <c r="M5" s="22"/>
       <c r="N5" s="105" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="P5" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q5" s="104" t="s">
         <v>177</v>
-      </c>
-      <c r="Q5" s="104" t="s">
-        <v>178</v>
       </c>
       <c r="R5" s="22"/>
       <c r="S5" s="105" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="U5" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="V5" s="104" t="s">
         <v>177</v>
-      </c>
-      <c r="V5" s="104" t="s">
-        <v>178</v>
       </c>
       <c r="W5" s="22"/>
       <c r="X5" s="28"/>
       <c r="Z5" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="AA5" s="104" t="s">
         <v>177</v>
-      </c>
-      <c r="AA5" s="104" t="s">
-        <v>178</v>
       </c>
       <c r="AB5" s="22"/>
       <c r="AC5" s="28"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="B6" s="104" t="s">
         <v>180</v>
-      </c>
-      <c r="B6" s="104" t="s">
-        <v>181</v>
       </c>
       <c r="C6" s="22"/>
       <c r="D6" s="107"/>
       <c r="E6" s="106"/>
       <c r="F6" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="G6" s="104" t="s">
         <v>180</v>
-      </c>
-      <c r="G6" s="104" t="s">
-        <v>181</v>
       </c>
       <c r="H6" s="22"/>
       <c r="I6" s="107"/>
       <c r="K6" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="L6" s="104" t="s">
         <v>180</v>
-      </c>
-      <c r="L6" s="104" t="s">
-        <v>181</v>
       </c>
       <c r="M6" s="22"/>
       <c r="N6" s="107"/>
       <c r="P6" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q6" s="104" t="s">
         <v>180</v>
-      </c>
-      <c r="Q6" s="104" t="s">
-        <v>181</v>
       </c>
       <c r="R6" s="22"/>
       <c r="S6" s="107"/>
       <c r="U6" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="V6" s="104" t="s">
         <v>180</v>
-      </c>
-      <c r="V6" s="104" t="s">
-        <v>181</v>
       </c>
       <c r="W6" s="22"/>
       <c r="X6" s="28"/>
       <c r="Z6" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA6" s="104" t="s">
         <v>180</v>
-      </c>
-      <c r="AA6" s="104" t="s">
-        <v>181</v>
       </c>
       <c r="AB6" s="22"/>
       <c r="AC6" s="28"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="B7" s="104" t="s">
         <v>182</v>
       </c>
-      <c r="B7" s="104" t="s">
-        <v>183</v>
-      </c>
       <c r="C7" s="108" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" s="109" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E7" s="106"/>
       <c r="F7" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="G7" s="104" t="s">
         <v>182</v>
       </c>
-      <c r="G7" s="104" t="s">
+      <c r="H7" s="108" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="109" t="s">
+        <v>178</v>
+      </c>
+      <c r="K7" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="L7" s="104" t="s">
+        <v>182</v>
+      </c>
+      <c r="M7" s="108" t="s">
+        <v>28</v>
+      </c>
+      <c r="N7" s="109" t="s">
+        <v>178</v>
+      </c>
+      <c r="P7" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q7" s="104" t="s">
+        <v>182</v>
+      </c>
+      <c r="R7" s="108" t="s">
+        <v>28</v>
+      </c>
+      <c r="S7" s="110" t="s">
         <v>183</v>
       </c>
-      <c r="H7" s="108" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="K7" s="19" t="s">
+      <c r="U7" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="V7" s="104" t="s">
         <v>182</v>
       </c>
-      <c r="L7" s="104" t="s">
+      <c r="W7" s="108" t="s">
+        <v>28</v>
+      </c>
+      <c r="X7" s="110" t="s">
         <v>183</v>
       </c>
-      <c r="M7" s="108" t="s">
-        <v>29</v>
-      </c>
-      <c r="N7" s="109" t="s">
-        <v>179</v>
-      </c>
-      <c r="P7" s="19" t="s">
+      <c r="Z7" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA7" s="104" t="s">
         <v>182</v>
       </c>
-      <c r="Q7" s="104" t="s">
+      <c r="AB7" s="108" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC7" s="110" t="s">
         <v>183</v>
-      </c>
-      <c r="R7" s="108" t="s">
-        <v>29</v>
-      </c>
-      <c r="S7" s="110" t="s">
-        <v>184</v>
-      </c>
-      <c r="U7" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="V7" s="104" t="s">
-        <v>183</v>
-      </c>
-      <c r="W7" s="108" t="s">
-        <v>29</v>
-      </c>
-      <c r="X7" s="110" t="s">
-        <v>184</v>
-      </c>
-      <c r="Z7" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="AA7" s="104" t="s">
-        <v>183</v>
-      </c>
-      <c r="AB7" s="108" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC7" s="110" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="B8" s="104" t="s">
         <v>185</v>
-      </c>
-      <c r="B8" s="104" t="s">
-        <v>186</v>
       </c>
       <c r="C8" s="108"/>
       <c r="D8" s="111" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E8" s="106"/>
       <c r="F8" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="G8" s="104" t="s">
         <v>185</v>
-      </c>
-      <c r="G8" s="104" t="s">
-        <v>186</v>
       </c>
       <c r="H8" s="108"/>
       <c r="I8" s="111" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K8" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="L8" s="104" t="s">
         <v>185</v>
-      </c>
-      <c r="L8" s="104" t="s">
-        <v>186</v>
       </c>
       <c r="M8" s="108"/>
       <c r="N8" s="111" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="P8" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q8" s="104" t="s">
         <v>185</v>
-      </c>
-      <c r="Q8" s="104" t="s">
-        <v>186</v>
       </c>
       <c r="R8" s="108"/>
       <c r="S8" s="111" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="U8" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="V8" s="104" t="s">
         <v>185</v>
-      </c>
-      <c r="V8" s="104" t="s">
-        <v>186</v>
       </c>
       <c r="W8" s="108"/>
       <c r="X8" s="111" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Z8" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="AA8" s="104" t="s">
         <v>185</v>
-      </c>
-      <c r="AA8" s="104" t="s">
-        <v>186</v>
       </c>
       <c r="AB8" s="108"/>
       <c r="AC8" s="111" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="B9" s="104" t="s">
         <v>188</v>
       </c>
-      <c r="B9" s="104" t="s">
-        <v>189</v>
-      </c>
       <c r="C9" s="108" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9" s="111" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E9" s="106"/>
       <c r="F9" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="G9" s="104" t="s">
         <v>188</v>
       </c>
-      <c r="G9" s="104" t="s">
-        <v>189</v>
-      </c>
       <c r="H9" s="108" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I9" s="111" t="s">
+        <v>186</v>
+      </c>
+      <c r="K9" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="K9" s="19" t="s">
+      <c r="L9" s="104" t="s">
         <v>188</v>
       </c>
-      <c r="L9" s="104" t="s">
-        <v>189</v>
-      </c>
       <c r="M9" s="108" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N9" s="111" t="s">
+        <v>186</v>
+      </c>
+      <c r="P9" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="P9" s="19" t="s">
+      <c r="Q9" s="104" t="s">
         <v>188</v>
       </c>
-      <c r="Q9" s="104" t="s">
-        <v>189</v>
-      </c>
       <c r="R9" s="108" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S9" s="111" t="s">
+        <v>186</v>
+      </c>
+      <c r="U9" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="U9" s="19" t="s">
+      <c r="V9" s="104" t="s">
         <v>188</v>
       </c>
-      <c r="V9" s="104" t="s">
-        <v>189</v>
-      </c>
       <c r="W9" s="108" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="X9" s="111" t="s">
+        <v>186</v>
+      </c>
+      <c r="Z9" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="Z9" s="19" t="s">
+      <c r="AA9" s="104" t="s">
         <v>188</v>
       </c>
-      <c r="AA9" s="104" t="s">
-        <v>189</v>
-      </c>
       <c r="AB9" s="108" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC9" s="111" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="B10" s="104" t="s">
         <v>190</v>
       </c>
-      <c r="B10" s="104" t="s">
+      <c r="C10" s="108" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="112" t="s">
         <v>191</v>
-      </c>
-      <c r="C10" s="108" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="112" t="s">
-        <v>192</v>
       </c>
       <c r="E10" s="106"/>
       <c r="F10" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="G10" s="104" t="s">
         <v>190</v>
       </c>
-      <c r="G10" s="104" t="s">
+      <c r="H10" s="108" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="112" t="s">
         <v>191</v>
       </c>
-      <c r="H10" s="108" t="s">
-        <v>29</v>
-      </c>
-      <c r="I10" s="112" t="s">
+      <c r="K10" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="L10" s="104" t="s">
+        <v>190</v>
+      </c>
+      <c r="M10" s="108" t="s">
+        <v>28</v>
+      </c>
+      <c r="N10" s="112" t="s">
+        <v>191</v>
+      </c>
+      <c r="P10" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q10" s="104" t="s">
+        <v>190</v>
+      </c>
+      <c r="R10" s="108" t="s">
+        <v>28</v>
+      </c>
+      <c r="S10" s="112" t="s">
+        <v>191</v>
+      </c>
+      <c r="U10" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="V10" s="104" t="s">
+        <v>190</v>
+      </c>
+      <c r="W10" s="108" t="s">
+        <v>28</v>
+      </c>
+      <c r="X10" s="112" t="s">
+        <v>191</v>
+      </c>
+      <c r="Z10" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="AA10" s="104" t="s">
+        <v>190</v>
+      </c>
+      <c r="AB10" s="108" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC10" s="113" t="s">
         <v>192</v>
-      </c>
-      <c r="K10" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="L10" s="104" t="s">
-        <v>191</v>
-      </c>
-      <c r="M10" s="108" t="s">
-        <v>29</v>
-      </c>
-      <c r="N10" s="112" t="s">
-        <v>192</v>
-      </c>
-      <c r="P10" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q10" s="104" t="s">
-        <v>191</v>
-      </c>
-      <c r="R10" s="108" t="s">
-        <v>29</v>
-      </c>
-      <c r="S10" s="112" t="s">
-        <v>192</v>
-      </c>
-      <c r="U10" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="V10" s="104" t="s">
-        <v>191</v>
-      </c>
-      <c r="W10" s="108" t="s">
-        <v>29</v>
-      </c>
-      <c r="X10" s="112" t="s">
-        <v>192</v>
-      </c>
-      <c r="Z10" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="AA10" s="104" t="s">
-        <v>191</v>
-      </c>
-      <c r="AB10" s="108" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC10" s="113" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="B11" s="104" t="s">
         <v>194</v>
-      </c>
-      <c r="B11" s="104" t="s">
-        <v>195</v>
       </c>
       <c r="C11" s="108"/>
       <c r="D11" s="107"/>
       <c r="E11" s="106"/>
       <c r="F11" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="G11" s="104" t="s">
         <v>194</v>
-      </c>
-      <c r="G11" s="104" t="s">
-        <v>195</v>
       </c>
       <c r="H11" s="108"/>
       <c r="I11" s="107"/>
       <c r="K11" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="L11" s="104" t="s">
         <v>194</v>
-      </c>
-      <c r="L11" s="104" t="s">
-        <v>195</v>
       </c>
       <c r="M11" s="108"/>
       <c r="N11" s="107"/>
       <c r="P11" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q11" s="104" t="s">
         <v>194</v>
-      </c>
-      <c r="Q11" s="104" t="s">
-        <v>195</v>
       </c>
       <c r="R11" s="108"/>
       <c r="S11" s="107"/>
       <c r="U11" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="V11" s="104" t="s">
         <v>194</v>
-      </c>
-      <c r="V11" s="104" t="s">
-        <v>195</v>
       </c>
       <c r="W11" s="108"/>
       <c r="X11" s="28"/>
       <c r="Z11" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="AA11" s="104" t="s">
         <v>194</v>
-      </c>
-      <c r="AA11" s="104" t="s">
-        <v>195</v>
       </c>
       <c r="AB11" s="108"/>
       <c r="AC11" s="28"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="B12" s="104" t="s">
         <v>196</v>
       </c>
-      <c r="B12" s="104" t="s">
-        <v>197</v>
-      </c>
       <c r="C12" s="108" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D12" s="109" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E12" s="106"/>
       <c r="F12" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="G12" s="104" t="s">
         <v>196</v>
       </c>
-      <c r="G12" s="104" t="s">
-        <v>197</v>
-      </c>
       <c r="H12" s="108" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I12" s="109" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K12" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="L12" s="104" t="s">
         <v>196</v>
       </c>
-      <c r="L12" s="104" t="s">
-        <v>197</v>
-      </c>
       <c r="M12" s="108" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N12" s="109" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="P12" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q12" s="104" t="s">
         <v>196</v>
       </c>
-      <c r="Q12" s="104" t="s">
-        <v>197</v>
-      </c>
       <c r="R12" s="108" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S12" s="109" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="U12" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="V12" s="104" t="s">
         <v>196</v>
       </c>
-      <c r="V12" s="104" t="s">
-        <v>197</v>
-      </c>
       <c r="W12" s="108" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X12" s="109" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Z12" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="AA12" s="104" t="s">
         <v>196</v>
       </c>
-      <c r="AA12" s="104" t="s">
-        <v>197</v>
-      </c>
       <c r="AB12" s="108" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC12" s="109" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="B13" s="104" t="s">
         <v>198</v>
-      </c>
-      <c r="B13" s="104" t="s">
-        <v>199</v>
       </c>
       <c r="C13" s="108"/>
       <c r="D13" s="112" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E13" s="106"/>
       <c r="F13" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="G13" s="104" t="s">
         <v>198</v>
-      </c>
-      <c r="G13" s="104" t="s">
-        <v>199</v>
       </c>
       <c r="H13" s="108"/>
       <c r="I13" s="112" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K13" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="L13" s="104" t="s">
         <v>198</v>
-      </c>
-      <c r="L13" s="104" t="s">
-        <v>199</v>
       </c>
       <c r="M13" s="108"/>
       <c r="N13" s="112" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P13" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q13" s="104" t="s">
         <v>198</v>
-      </c>
-      <c r="Q13" s="104" t="s">
-        <v>199</v>
       </c>
       <c r="R13" s="108"/>
       <c r="S13" s="112" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="U13" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="V13" s="104" t="s">
         <v>198</v>
-      </c>
-      <c r="V13" s="104" t="s">
-        <v>199</v>
       </c>
       <c r="W13" s="108"/>
       <c r="X13" s="112" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Z13" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA13" s="104" t="s">
         <v>198</v>
-      </c>
-      <c r="AA13" s="104" t="s">
-        <v>199</v>
       </c>
       <c r="AB13" s="108"/>
       <c r="AC13" s="112" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="B14" s="104" t="s">
         <v>200</v>
-      </c>
-      <c r="B14" s="104" t="s">
-        <v>201</v>
       </c>
       <c r="C14" s="108"/>
       <c r="D14" s="109" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E14" s="106"/>
       <c r="F14" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="G14" s="104" t="s">
         <v>200</v>
-      </c>
-      <c r="G14" s="104" t="s">
-        <v>201</v>
       </c>
       <c r="H14" s="108"/>
       <c r="I14" s="109" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K14" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="L14" s="104" t="s">
         <v>200</v>
-      </c>
-      <c r="L14" s="104" t="s">
-        <v>201</v>
       </c>
       <c r="M14" s="108"/>
       <c r="N14" s="109" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="P14" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q14" s="104" t="s">
         <v>200</v>
-      </c>
-      <c r="Q14" s="104" t="s">
-        <v>201</v>
       </c>
       <c r="R14" s="108"/>
       <c r="S14" s="110" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="U14" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="V14" s="104" t="s">
         <v>200</v>
-      </c>
-      <c r="V14" s="104" t="s">
-        <v>201</v>
       </c>
       <c r="W14" s="108"/>
       <c r="X14" s="110" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Z14" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="AA14" s="104" t="s">
         <v>200</v>
-      </c>
-      <c r="AA14" s="104" t="s">
-        <v>201</v>
       </c>
       <c r="AB14" s="108"/>
       <c r="AC14" s="110" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="B15" s="104" t="s">
         <v>202</v>
-      </c>
-      <c r="B15" s="104" t="s">
-        <v>203</v>
       </c>
       <c r="C15" s="108"/>
       <c r="D15" s="109" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E15" s="106"/>
       <c r="F15" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="G15" s="104" t="s">
         <v>202</v>
-      </c>
-      <c r="G15" s="104" t="s">
-        <v>203</v>
       </c>
       <c r="H15" s="108"/>
       <c r="I15" s="109" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K15" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="L15" s="104" t="s">
         <v>202</v>
-      </c>
-      <c r="L15" s="104" t="s">
-        <v>203</v>
       </c>
       <c r="M15" s="108"/>
       <c r="N15" s="109" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="P15" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q15" s="104" t="s">
         <v>202</v>
-      </c>
-      <c r="Q15" s="104" t="s">
-        <v>203</v>
       </c>
       <c r="R15" s="108"/>
       <c r="S15" s="109" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="U15" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="V15" s="104" t="s">
         <v>202</v>
-      </c>
-      <c r="V15" s="104" t="s">
-        <v>203</v>
       </c>
       <c r="W15" s="108"/>
       <c r="X15" s="109" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Z15" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="AA15" s="104" t="s">
         <v>202</v>
-      </c>
-      <c r="AA15" s="104" t="s">
-        <v>203</v>
       </c>
       <c r="AB15" s="108"/>
       <c r="AC15" s="110" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="B16" s="104" t="s">
         <v>204</v>
-      </c>
-      <c r="B16" s="104" t="s">
-        <v>205</v>
       </c>
       <c r="C16" s="108"/>
       <c r="D16" s="114" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E16" s="106"/>
       <c r="F16" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="G16" s="104" t="s">
         <v>204</v>
-      </c>
-      <c r="G16" s="104" t="s">
-        <v>205</v>
       </c>
       <c r="H16" s="108"/>
       <c r="I16" s="114" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K16" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="L16" s="104" t="s">
         <v>204</v>
-      </c>
-      <c r="L16" s="104" t="s">
-        <v>205</v>
       </c>
       <c r="M16" s="108"/>
       <c r="N16" s="114" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P16" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q16" s="104" t="s">
         <v>204</v>
-      </c>
-      <c r="Q16" s="104" t="s">
-        <v>205</v>
       </c>
       <c r="R16" s="108"/>
       <c r="S16" s="114" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="U16" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="V16" s="104" t="s">
         <v>204</v>
-      </c>
-      <c r="V16" s="104" t="s">
-        <v>205</v>
       </c>
       <c r="W16" s="108"/>
       <c r="X16" s="114" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="Z16" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="AA16" s="104" t="s">
         <v>204</v>
-      </c>
-      <c r="AA16" s="104" t="s">
-        <v>205</v>
       </c>
       <c r="AB16" s="108"/>
       <c r="AC16" s="114" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="B17" s="104" t="s">
         <v>207</v>
-      </c>
-      <c r="B17" s="104" t="s">
-        <v>208</v>
       </c>
       <c r="C17" s="108"/>
       <c r="D17" s="109" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E17" s="106"/>
       <c r="F17" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="G17" s="104" t="s">
         <v>207</v>
-      </c>
-      <c r="G17" s="104" t="s">
-        <v>208</v>
       </c>
       <c r="H17" s="108"/>
       <c r="I17" s="109" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K17" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="L17" s="104" t="s">
         <v>207</v>
-      </c>
-      <c r="L17" s="104" t="s">
-        <v>208</v>
       </c>
       <c r="M17" s="108"/>
       <c r="N17" s="109" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="P17" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q17" s="104" t="s">
         <v>207</v>
-      </c>
-      <c r="Q17" s="104" t="s">
-        <v>208</v>
       </c>
       <c r="R17" s="108"/>
       <c r="S17" s="109" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="U17" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="V17" s="104" t="s">
         <v>207</v>
-      </c>
-      <c r="V17" s="104" t="s">
-        <v>208</v>
       </c>
       <c r="W17" s="108"/>
       <c r="X17" s="109" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Z17" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="AA17" s="104" t="s">
         <v>207</v>
-      </c>
-      <c r="AA17" s="104" t="s">
-        <v>208</v>
       </c>
       <c r="AB17" s="108"/>
       <c r="AC17" s="109" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="B18" s="104" t="s">
         <v>209</v>
-      </c>
-      <c r="B18" s="104" t="s">
-        <v>210</v>
       </c>
       <c r="C18" s="108"/>
       <c r="D18" s="109" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E18" s="106"/>
       <c r="F18" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="G18" s="104" t="s">
         <v>209</v>
-      </c>
-      <c r="G18" s="104" t="s">
-        <v>210</v>
       </c>
       <c r="H18" s="108"/>
       <c r="I18" s="109" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K18" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="L18" s="104" t="s">
         <v>209</v>
-      </c>
-      <c r="L18" s="104" t="s">
-        <v>210</v>
       </c>
       <c r="M18" s="108"/>
       <c r="N18" s="109" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="P18" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q18" s="104" t="s">
         <v>209</v>
-      </c>
-      <c r="Q18" s="104" t="s">
-        <v>210</v>
       </c>
       <c r="R18" s="108"/>
       <c r="S18" s="109" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="U18" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="V18" s="104" t="s">
         <v>209</v>
-      </c>
-      <c r="V18" s="104" t="s">
-        <v>210</v>
       </c>
       <c r="W18" s="108"/>
       <c r="X18" s="109" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Z18" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="AA18" s="104" t="s">
         <v>209</v>
-      </c>
-      <c r="AA18" s="104" t="s">
-        <v>210</v>
       </c>
       <c r="AB18" s="108"/>
       <c r="AC18" s="109" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="B19" s="104" t="s">
         <v>211</v>
-      </c>
-      <c r="B19" s="104" t="s">
-        <v>212</v>
       </c>
       <c r="C19" s="108"/>
       <c r="D19" s="114" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E19" s="106"/>
       <c r="F19" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="G19" s="104" t="s">
         <v>211</v>
-      </c>
-      <c r="G19" s="104" t="s">
-        <v>212</v>
       </c>
       <c r="H19" s="108"/>
       <c r="I19" s="114" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K19" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="L19" s="104" t="s">
         <v>211</v>
-      </c>
-      <c r="L19" s="104" t="s">
-        <v>212</v>
       </c>
       <c r="M19" s="108"/>
       <c r="N19" s="114" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P19" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q19" s="104" t="s">
         <v>211</v>
-      </c>
-      <c r="Q19" s="104" t="s">
-        <v>212</v>
       </c>
       <c r="R19" s="108"/>
       <c r="S19" s="114" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="U19" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="V19" s="104" t="s">
         <v>211</v>
-      </c>
-      <c r="V19" s="104" t="s">
-        <v>212</v>
       </c>
       <c r="W19" s="108"/>
       <c r="X19" s="114" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="Z19" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="AA19" s="104" t="s">
         <v>211</v>
-      </c>
-      <c r="AA19" s="104" t="s">
-        <v>212</v>
       </c>
       <c r="AB19" s="108"/>
       <c r="AC19" s="114" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="B20" s="104" t="s">
         <v>213</v>
-      </c>
-      <c r="B20" s="104" t="s">
-        <v>214</v>
       </c>
       <c r="C20" s="108"/>
       <c r="D20" s="109" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E20" s="106"/>
       <c r="F20" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="G20" s="104" t="s">
         <v>213</v>
-      </c>
-      <c r="G20" s="104" t="s">
-        <v>214</v>
       </c>
       <c r="H20" s="108"/>
       <c r="I20" s="109" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K20" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="L20" s="104" t="s">
         <v>213</v>
-      </c>
-      <c r="L20" s="104" t="s">
-        <v>214</v>
       </c>
       <c r="M20" s="108"/>
       <c r="N20" s="109" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="P20" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q20" s="104" t="s">
         <v>213</v>
-      </c>
-      <c r="Q20" s="104" t="s">
-        <v>214</v>
       </c>
       <c r="R20" s="108"/>
       <c r="S20" s="109" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="U20" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="V20" s="104" t="s">
         <v>213</v>
-      </c>
-      <c r="V20" s="104" t="s">
-        <v>214</v>
       </c>
       <c r="W20" s="108"/>
       <c r="X20" s="109" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Z20" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="AA20" s="104" t="s">
         <v>213</v>
-      </c>
-      <c r="AA20" s="104" t="s">
-        <v>214</v>
       </c>
       <c r="AB20" s="108"/>
       <c r="AC20" s="109" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="B21" s="115" t="s">
         <v>215</v>
       </c>
-      <c r="B21" s="115" t="s">
-        <v>216</v>
-      </c>
       <c r="C21" s="116" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D21" s="117" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E21" s="106"/>
       <c r="F21" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="G21" s="115" t="s">
         <v>215</v>
       </c>
-      <c r="G21" s="115" t="s">
-        <v>216</v>
-      </c>
       <c r="H21" s="116" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I21" s="117" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K21" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="L21" s="115" t="s">
         <v>215</v>
       </c>
-      <c r="L21" s="115" t="s">
-        <v>216</v>
-      </c>
       <c r="M21" s="116" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N21" s="117" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="P21" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q21" s="115" t="s">
         <v>215</v>
       </c>
-      <c r="Q21" s="115" t="s">
-        <v>216</v>
-      </c>
       <c r="R21" s="116" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S21" s="117" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="U21" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="V21" s="115" t="s">
         <v>215</v>
       </c>
-      <c r="V21" s="115" t="s">
-        <v>216</v>
-      </c>
       <c r="W21" s="116" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="X21" s="117" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Z21" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="AA21" s="115" t="s">
         <v>215</v>
       </c>
-      <c r="AA21" s="115" t="s">
-        <v>216</v>
-      </c>
       <c r="AB21" s="116" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC21" s="117" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="25" customFormat="false" ht="23.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="97" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B25" s="97"/>
       <c r="C25" s="97"/>
       <c r="D25" s="97"/>
       <c r="F25" s="97" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G25" s="97"/>
       <c r="H25" s="97"/>
       <c r="I25" s="97"/>
       <c r="K25" s="97" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L25" s="97"/>
       <c r="M25" s="97"/>
       <c r="N25" s="97"/>
       <c r="P25" s="97" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="Q25" s="97"/>
       <c r="R25" s="97"/>
       <c r="S25" s="97"/>
       <c r="U25" s="97" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="V25" s="97"/>
       <c r="W25" s="97"/>
       <c r="X25" s="97"/>
       <c r="Z25" s="97" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AA25" s="97"/>
       <c r="AB25" s="97"/>
@@ -5576,1080 +5573,1080 @@
     </row>
     <row r="26" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="99" t="s">
+        <v>172</v>
+      </c>
+      <c r="B26" s="100" t="s">
         <v>173</v>
       </c>
-      <c r="B26" s="100" t="s">
+      <c r="C26" s="100" t="s">
         <v>174</v>
       </c>
-      <c r="C26" s="100" t="s">
+      <c r="D26" s="101" t="s">
         <v>175</v>
       </c>
-      <c r="D26" s="101" t="s">
-        <v>176</v>
-      </c>
       <c r="F26" s="99" t="s">
+        <v>172</v>
+      </c>
+      <c r="G26" s="100" t="s">
         <v>173</v>
       </c>
-      <c r="G26" s="100" t="s">
+      <c r="H26" s="100" t="s">
         <v>174</v>
       </c>
-      <c r="H26" s="100" t="s">
+      <c r="I26" s="103" t="s">
         <v>175</v>
       </c>
-      <c r="I26" s="103" t="s">
-        <v>176</v>
-      </c>
       <c r="K26" s="99" t="s">
+        <v>172</v>
+      </c>
+      <c r="L26" s="100" t="s">
         <v>173</v>
       </c>
-      <c r="L26" s="100" t="s">
+      <c r="M26" s="100" t="s">
         <v>174</v>
       </c>
-      <c r="M26" s="100" t="s">
+      <c r="N26" s="103" t="s">
         <v>175</v>
       </c>
-      <c r="N26" s="103" t="s">
-        <v>176</v>
-      </c>
       <c r="P26" s="99" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q26" s="100" t="s">
         <v>173</v>
       </c>
-      <c r="Q26" s="100" t="s">
+      <c r="R26" s="100" t="s">
         <v>174</v>
       </c>
-      <c r="R26" s="100" t="s">
+      <c r="S26" s="103" t="s">
         <v>175</v>
       </c>
-      <c r="S26" s="103" t="s">
-        <v>176</v>
-      </c>
       <c r="U26" s="99" t="s">
+        <v>172</v>
+      </c>
+      <c r="V26" s="100" t="s">
         <v>173</v>
       </c>
-      <c r="V26" s="100" t="s">
+      <c r="W26" s="100" t="s">
         <v>174</v>
       </c>
-      <c r="W26" s="100" t="s">
+      <c r="X26" s="103" t="s">
         <v>175</v>
       </c>
-      <c r="X26" s="103" t="s">
-        <v>176</v>
-      </c>
       <c r="Z26" s="99" t="s">
+        <v>172</v>
+      </c>
+      <c r="AA26" s="100" t="s">
         <v>173</v>
       </c>
-      <c r="AA26" s="100" t="s">
+      <c r="AB26" s="100" t="s">
         <v>174</v>
       </c>
-      <c r="AB26" s="100" t="s">
+      <c r="AC26" s="103" t="s">
         <v>175</v>
-      </c>
-      <c r="AC26" s="103" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="B27" s="104" t="s">
         <v>177</v>
-      </c>
-      <c r="B27" s="104" t="s">
-        <v>178</v>
       </c>
       <c r="C27" s="22"/>
       <c r="D27" s="118"/>
       <c r="F27" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="G27" s="104" t="s">
         <v>177</v>
-      </c>
-      <c r="G27" s="104" t="s">
-        <v>178</v>
       </c>
       <c r="H27" s="22"/>
       <c r="I27" s="118"/>
       <c r="K27" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="L27" s="104" t="s">
         <v>177</v>
-      </c>
-      <c r="L27" s="104" t="s">
-        <v>178</v>
       </c>
       <c r="M27" s="22"/>
       <c r="N27" s="118"/>
       <c r="P27" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q27" s="104" t="s">
         <v>177</v>
-      </c>
-      <c r="Q27" s="104" t="s">
-        <v>178</v>
       </c>
       <c r="R27" s="104"/>
       <c r="S27" s="107"/>
       <c r="U27" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="V27" s="104" t="s">
         <v>177</v>
-      </c>
-      <c r="V27" s="104" t="s">
-        <v>178</v>
       </c>
       <c r="W27" s="22"/>
       <c r="X27" s="28"/>
       <c r="Z27" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="AA27" s="104" t="s">
         <v>177</v>
-      </c>
-      <c r="AA27" s="104" t="s">
-        <v>178</v>
       </c>
       <c r="AB27" s="22"/>
       <c r="AC27" s="28"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="B28" s="104" t="s">
         <v>180</v>
-      </c>
-      <c r="B28" s="104" t="s">
-        <v>181</v>
       </c>
       <c r="C28" s="22"/>
       <c r="D28" s="118"/>
       <c r="F28" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="G28" s="104" t="s">
         <v>180</v>
-      </c>
-      <c r="G28" s="104" t="s">
-        <v>181</v>
       </c>
       <c r="H28" s="22"/>
       <c r="I28" s="118"/>
       <c r="K28" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="L28" s="104" t="s">
         <v>180</v>
-      </c>
-      <c r="L28" s="104" t="s">
-        <v>181</v>
       </c>
       <c r="M28" s="22"/>
       <c r="N28" s="118"/>
       <c r="P28" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q28" s="104" t="s">
         <v>180</v>
-      </c>
-      <c r="Q28" s="104" t="s">
-        <v>181</v>
       </c>
       <c r="R28" s="104"/>
       <c r="S28" s="107"/>
       <c r="U28" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="V28" s="104" t="s">
         <v>180</v>
-      </c>
-      <c r="V28" s="104" t="s">
-        <v>181</v>
       </c>
       <c r="W28" s="22"/>
       <c r="X28" s="28"/>
       <c r="Z28" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA28" s="104" t="s">
         <v>180</v>
-      </c>
-      <c r="AA28" s="104" t="s">
-        <v>181</v>
       </c>
       <c r="AB28" s="22"/>
       <c r="AC28" s="28"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="B29" s="104" t="s">
         <v>182</v>
       </c>
-      <c r="B29" s="104" t="s">
+      <c r="C29" s="108" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="110" t="s">
         <v>183</v>
       </c>
-      <c r="C29" s="108" t="s">
-        <v>29</v>
-      </c>
-      <c r="D29" s="110" t="s">
-        <v>184</v>
-      </c>
       <c r="F29" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="G29" s="104" t="s">
         <v>182</v>
       </c>
-      <c r="G29" s="104" t="s">
+      <c r="H29" s="108" t="s">
+        <v>28</v>
+      </c>
+      <c r="I29" s="110" t="s">
         <v>183</v>
       </c>
-      <c r="H29" s="108" t="s">
-        <v>29</v>
-      </c>
-      <c r="I29" s="110" t="s">
-        <v>184</v>
-      </c>
       <c r="K29" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="L29" s="104" t="s">
         <v>182</v>
       </c>
-      <c r="L29" s="104" t="s">
+      <c r="M29" s="108" t="s">
+        <v>28</v>
+      </c>
+      <c r="N29" s="110" t="s">
         <v>183</v>
       </c>
-      <c r="M29" s="108" t="s">
-        <v>29</v>
-      </c>
-      <c r="N29" s="110" t="s">
-        <v>184</v>
-      </c>
       <c r="P29" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q29" s="104" t="s">
         <v>182</v>
       </c>
-      <c r="Q29" s="104" t="s">
+      <c r="R29" s="108" t="s">
+        <v>28</v>
+      </c>
+      <c r="S29" s="110" t="s">
         <v>183</v>
       </c>
-      <c r="R29" s="108" t="s">
-        <v>29</v>
-      </c>
-      <c r="S29" s="110" t="s">
-        <v>184</v>
-      </c>
       <c r="U29" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="V29" s="104" t="s">
         <v>182</v>
       </c>
-      <c r="V29" s="104" t="s">
-        <v>183</v>
-      </c>
       <c r="W29" s="108" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="X29" s="50"/>
       <c r="Z29" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA29" s="104" t="s">
         <v>182</v>
       </c>
-      <c r="AA29" s="104" t="s">
-        <v>183</v>
-      </c>
       <c r="AB29" s="108" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC29" s="50"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="B30" s="104" t="s">
         <v>185</v>
-      </c>
-      <c r="B30" s="104" t="s">
-        <v>186</v>
       </c>
       <c r="C30" s="108"/>
       <c r="D30" s="111" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F30" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="G30" s="104" t="s">
         <v>185</v>
-      </c>
-      <c r="G30" s="104" t="s">
-        <v>186</v>
       </c>
       <c r="H30" s="108"/>
       <c r="I30" s="111" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K30" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="L30" s="104" t="s">
         <v>185</v>
-      </c>
-      <c r="L30" s="104" t="s">
-        <v>186</v>
       </c>
       <c r="M30" s="108"/>
       <c r="N30" s="111" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="P30" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q30" s="104" t="s">
         <v>185</v>
-      </c>
-      <c r="Q30" s="104" t="s">
-        <v>186</v>
       </c>
       <c r="R30" s="108"/>
       <c r="S30" s="111" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="U30" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="V30" s="104" t="s">
         <v>185</v>
-      </c>
-      <c r="V30" s="104" t="s">
-        <v>186</v>
       </c>
       <c r="W30" s="108"/>
       <c r="X30" s="50"/>
       <c r="Z30" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="AA30" s="104" t="s">
         <v>185</v>
-      </c>
-      <c r="AA30" s="104" t="s">
-        <v>186</v>
       </c>
       <c r="AB30" s="108"/>
       <c r="AC30" s="50"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="B31" s="104" t="s">
         <v>188</v>
       </c>
-      <c r="B31" s="104" t="s">
-        <v>189</v>
-      </c>
       <c r="C31" s="108" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D31" s="111" t="s">
+        <v>186</v>
+      </c>
+      <c r="F31" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="F31" s="19" t="s">
+      <c r="G31" s="104" t="s">
         <v>188</v>
       </c>
-      <c r="G31" s="104" t="s">
-        <v>189</v>
-      </c>
       <c r="H31" s="108" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I31" s="111" t="s">
+        <v>186</v>
+      </c>
+      <c r="K31" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="K31" s="19" t="s">
+      <c r="L31" s="104" t="s">
         <v>188</v>
       </c>
-      <c r="L31" s="104" t="s">
-        <v>189</v>
-      </c>
       <c r="M31" s="108" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N31" s="111" t="s">
+        <v>186</v>
+      </c>
+      <c r="P31" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="P31" s="19" t="s">
+      <c r="Q31" s="104" t="s">
         <v>188</v>
       </c>
-      <c r="Q31" s="104" t="s">
-        <v>189</v>
-      </c>
       <c r="R31" s="108" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S31" s="111" t="s">
+        <v>186</v>
+      </c>
+      <c r="U31" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="U31" s="19" t="s">
+      <c r="V31" s="104" t="s">
         <v>188</v>
       </c>
-      <c r="V31" s="104" t="s">
-        <v>189</v>
-      </c>
       <c r="W31" s="108" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="X31" s="50"/>
       <c r="Z31" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="AA31" s="104" t="s">
         <v>188</v>
       </c>
-      <c r="AA31" s="104" t="s">
-        <v>189</v>
-      </c>
       <c r="AB31" s="108" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC31" s="50"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="B32" s="104" t="s">
         <v>190</v>
       </c>
-      <c r="B32" s="104" t="s">
-        <v>191</v>
-      </c>
       <c r="C32" s="108" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D32" s="113" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F32" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="G32" s="104" t="s">
         <v>190</v>
       </c>
-      <c r="G32" s="104" t="s">
-        <v>191</v>
-      </c>
       <c r="H32" s="108" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I32" s="113" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K32" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="L32" s="104" t="s">
         <v>190</v>
       </c>
-      <c r="L32" s="104" t="s">
-        <v>191</v>
-      </c>
       <c r="M32" s="108" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N32" s="113" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P32" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q32" s="104" t="s">
         <v>190</v>
       </c>
-      <c r="Q32" s="104" t="s">
-        <v>191</v>
-      </c>
       <c r="R32" s="108" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S32" s="113" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="U32" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="V32" s="104" t="s">
         <v>190</v>
       </c>
-      <c r="V32" s="104" t="s">
-        <v>191</v>
-      </c>
       <c r="W32" s="108" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="X32" s="50"/>
       <c r="Z32" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="AA32" s="104" t="s">
         <v>190</v>
       </c>
-      <c r="AA32" s="104" t="s">
-        <v>191</v>
-      </c>
       <c r="AB32" s="108" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC32" s="50"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="B33" s="104" t="s">
         <v>194</v>
-      </c>
-      <c r="B33" s="104" t="s">
-        <v>195</v>
       </c>
       <c r="C33" s="108"/>
       <c r="D33" s="118"/>
       <c r="F33" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="G33" s="104" t="s">
         <v>194</v>
-      </c>
-      <c r="G33" s="104" t="s">
-        <v>195</v>
       </c>
       <c r="H33" s="108"/>
       <c r="I33" s="118"/>
       <c r="K33" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="L33" s="104" t="s">
         <v>194</v>
-      </c>
-      <c r="L33" s="104" t="s">
-        <v>195</v>
       </c>
       <c r="M33" s="108"/>
       <c r="N33" s="118"/>
       <c r="P33" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q33" s="104" t="s">
         <v>194</v>
-      </c>
-      <c r="Q33" s="104" t="s">
-        <v>195</v>
       </c>
       <c r="R33" s="119"/>
       <c r="S33" s="107"/>
       <c r="U33" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="V33" s="104" t="s">
         <v>194</v>
-      </c>
-      <c r="V33" s="104" t="s">
-        <v>195</v>
       </c>
       <c r="W33" s="108"/>
       <c r="X33" s="28"/>
       <c r="Z33" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="AA33" s="104" t="s">
         <v>194</v>
-      </c>
-      <c r="AA33" s="104" t="s">
-        <v>195</v>
       </c>
       <c r="AB33" s="108"/>
       <c r="AC33" s="28"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="B34" s="104" t="s">
         <v>196</v>
       </c>
-      <c r="B34" s="104" t="s">
-        <v>197</v>
-      </c>
       <c r="C34" s="108" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D34" s="109" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F34" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="G34" s="104" t="s">
         <v>196</v>
       </c>
-      <c r="G34" s="104" t="s">
-        <v>197</v>
-      </c>
       <c r="H34" s="108" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I34" s="113" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K34" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="L34" s="104" t="s">
         <v>196</v>
       </c>
-      <c r="L34" s="104" t="s">
-        <v>197</v>
-      </c>
       <c r="M34" s="108" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N34" s="113" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P34" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q34" s="104" t="s">
         <v>196</v>
       </c>
-      <c r="Q34" s="104" t="s">
-        <v>197</v>
-      </c>
       <c r="R34" s="119" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S34" s="113" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="U34" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="V34" s="104" t="s">
         <v>196</v>
       </c>
-      <c r="V34" s="104" t="s">
-        <v>197</v>
-      </c>
       <c r="W34" s="108" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X34" s="109" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Z34" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="AA34" s="104" t="s">
         <v>196</v>
       </c>
-      <c r="AA34" s="104" t="s">
-        <v>197</v>
-      </c>
       <c r="AB34" s="108" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC34" s="109" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="B35" s="104" t="s">
         <v>198</v>
-      </c>
-      <c r="B35" s="104" t="s">
-        <v>199</v>
       </c>
       <c r="C35" s="108"/>
       <c r="D35" s="112" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F35" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="G35" s="104" t="s">
         <v>198</v>
-      </c>
-      <c r="G35" s="104" t="s">
-        <v>199</v>
       </c>
       <c r="H35" s="108"/>
       <c r="I35" s="112" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K35" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="L35" s="104" t="s">
         <v>198</v>
-      </c>
-      <c r="L35" s="104" t="s">
-        <v>199</v>
       </c>
       <c r="M35" s="108"/>
       <c r="N35" s="112" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P35" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q35" s="104" t="s">
         <v>198</v>
-      </c>
-      <c r="Q35" s="104" t="s">
-        <v>199</v>
       </c>
       <c r="R35" s="119"/>
       <c r="S35" s="113" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="U35" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="V35" s="104" t="s">
         <v>198</v>
-      </c>
-      <c r="V35" s="104" t="s">
-        <v>199</v>
       </c>
       <c r="W35" s="108"/>
       <c r="X35" s="50"/>
       <c r="Z35" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA35" s="104" t="s">
         <v>198</v>
-      </c>
-      <c r="AA35" s="104" t="s">
-        <v>199</v>
       </c>
       <c r="AB35" s="108"/>
       <c r="AC35" s="50"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="B36" s="104" t="s">
         <v>200</v>
-      </c>
-      <c r="B36" s="104" t="s">
-        <v>201</v>
       </c>
       <c r="C36" s="108"/>
       <c r="D36" s="110" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F36" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="G36" s="104" t="s">
         <v>200</v>
-      </c>
-      <c r="G36" s="104" t="s">
-        <v>201</v>
       </c>
       <c r="H36" s="108"/>
       <c r="I36" s="110" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K36" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="L36" s="104" t="s">
         <v>200</v>
-      </c>
-      <c r="L36" s="104" t="s">
-        <v>201</v>
       </c>
       <c r="M36" s="108"/>
       <c r="N36" s="110" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="P36" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q36" s="104" t="s">
         <v>200</v>
-      </c>
-      <c r="Q36" s="104" t="s">
-        <v>201</v>
       </c>
       <c r="R36" s="119"/>
       <c r="S36" s="110" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="U36" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="V36" s="104" t="s">
         <v>200</v>
-      </c>
-      <c r="V36" s="104" t="s">
-        <v>201</v>
       </c>
       <c r="W36" s="108"/>
       <c r="X36" s="50"/>
       <c r="Z36" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="AA36" s="104" t="s">
         <v>200</v>
-      </c>
-      <c r="AA36" s="104" t="s">
-        <v>201</v>
       </c>
       <c r="AB36" s="108"/>
       <c r="AC36" s="50"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="B37" s="104" t="s">
         <v>202</v>
-      </c>
-      <c r="B37" s="104" t="s">
-        <v>203</v>
       </c>
       <c r="C37" s="108"/>
       <c r="D37" s="110" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F37" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="G37" s="104" t="s">
         <v>202</v>
-      </c>
-      <c r="G37" s="104" t="s">
-        <v>203</v>
       </c>
       <c r="H37" s="108"/>
       <c r="I37" s="110" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K37" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="L37" s="104" t="s">
         <v>202</v>
-      </c>
-      <c r="L37" s="104" t="s">
-        <v>203</v>
       </c>
       <c r="M37" s="108"/>
       <c r="N37" s="110" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="P37" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q37" s="104" t="s">
         <v>202</v>
-      </c>
-      <c r="Q37" s="104" t="s">
-        <v>203</v>
       </c>
       <c r="R37" s="119"/>
       <c r="S37" s="110" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="U37" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="V37" s="104" t="s">
         <v>202</v>
-      </c>
-      <c r="V37" s="104" t="s">
-        <v>203</v>
       </c>
       <c r="W37" s="108"/>
       <c r="X37" s="50"/>
       <c r="Z37" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="AA37" s="104" t="s">
         <v>202</v>
-      </c>
-      <c r="AA37" s="104" t="s">
-        <v>203</v>
       </c>
       <c r="AB37" s="108"/>
       <c r="AC37" s="50"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="B38" s="104" t="s">
         <v>204</v>
-      </c>
-      <c r="B38" s="104" t="s">
-        <v>205</v>
       </c>
       <c r="C38" s="108"/>
       <c r="D38" s="114" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F38" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="G38" s="104" t="s">
         <v>204</v>
-      </c>
-      <c r="G38" s="104" t="s">
-        <v>205</v>
       </c>
       <c r="H38" s="108"/>
       <c r="I38" s="114" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K38" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="L38" s="104" t="s">
         <v>204</v>
-      </c>
-      <c r="L38" s="104" t="s">
-        <v>205</v>
       </c>
       <c r="M38" s="108"/>
       <c r="N38" s="112" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P38" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q38" s="104" t="s">
         <v>204</v>
-      </c>
-      <c r="Q38" s="104" t="s">
-        <v>205</v>
       </c>
       <c r="R38" s="119"/>
       <c r="S38" s="112" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="U38" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="V38" s="104" t="s">
         <v>204</v>
-      </c>
-      <c r="V38" s="104" t="s">
-        <v>205</v>
       </c>
       <c r="W38" s="108"/>
       <c r="X38" s="50"/>
       <c r="Z38" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="AA38" s="104" t="s">
         <v>204</v>
-      </c>
-      <c r="AA38" s="104" t="s">
-        <v>205</v>
       </c>
       <c r="AB38" s="108"/>
       <c r="AC38" s="50"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="B39" s="104" t="s">
         <v>207</v>
-      </c>
-      <c r="B39" s="104" t="s">
-        <v>208</v>
       </c>
       <c r="C39" s="108"/>
       <c r="D39" s="111" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F39" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="G39" s="104" t="s">
         <v>207</v>
-      </c>
-      <c r="G39" s="104" t="s">
-        <v>208</v>
       </c>
       <c r="H39" s="108"/>
       <c r="I39" s="111" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K39" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="L39" s="104" t="s">
         <v>207</v>
-      </c>
-      <c r="L39" s="104" t="s">
-        <v>208</v>
       </c>
       <c r="M39" s="108"/>
       <c r="N39" s="111" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="P39" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q39" s="104" t="s">
         <v>207</v>
-      </c>
-      <c r="Q39" s="104" t="s">
-        <v>208</v>
       </c>
       <c r="R39" s="119"/>
       <c r="S39" s="111" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="U39" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="V39" s="104" t="s">
         <v>207</v>
-      </c>
-      <c r="V39" s="104" t="s">
-        <v>208</v>
       </c>
       <c r="W39" s="108"/>
       <c r="X39" s="109" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Z39" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="AA39" s="104" t="s">
         <v>207</v>
-      </c>
-      <c r="AA39" s="104" t="s">
-        <v>208</v>
       </c>
       <c r="AB39" s="108"/>
       <c r="AC39" s="109" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="B40" s="104" t="s">
         <v>209</v>
-      </c>
-      <c r="B40" s="104" t="s">
-        <v>210</v>
       </c>
       <c r="C40" s="108"/>
       <c r="D40" s="109" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F40" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="G40" s="104" t="s">
         <v>209</v>
-      </c>
-      <c r="G40" s="104" t="s">
-        <v>210</v>
       </c>
       <c r="H40" s="108"/>
       <c r="I40" s="109" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K40" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="L40" s="104" t="s">
         <v>209</v>
-      </c>
-      <c r="L40" s="104" t="s">
-        <v>210</v>
       </c>
       <c r="M40" s="108"/>
       <c r="N40" s="110" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="P40" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q40" s="104" t="s">
         <v>209</v>
-      </c>
-      <c r="Q40" s="104" t="s">
-        <v>210</v>
       </c>
       <c r="R40" s="119"/>
       <c r="S40" s="110" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="U40" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="V40" s="104" t="s">
         <v>209</v>
-      </c>
-      <c r="V40" s="104" t="s">
-        <v>210</v>
       </c>
       <c r="W40" s="108"/>
       <c r="X40" s="50"/>
       <c r="Z40" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="AA40" s="104" t="s">
         <v>209</v>
-      </c>
-      <c r="AA40" s="104" t="s">
-        <v>210</v>
       </c>
       <c r="AB40" s="108"/>
       <c r="AC40" s="50"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="B41" s="104" t="s">
         <v>211</v>
-      </c>
-      <c r="B41" s="104" t="s">
-        <v>212</v>
       </c>
       <c r="C41" s="108"/>
       <c r="D41" s="114" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F41" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="G41" s="104" t="s">
         <v>211</v>
-      </c>
-      <c r="G41" s="104" t="s">
-        <v>212</v>
       </c>
       <c r="H41" s="108"/>
       <c r="I41" s="114" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K41" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="L41" s="104" t="s">
         <v>211</v>
-      </c>
-      <c r="L41" s="104" t="s">
-        <v>212</v>
       </c>
       <c r="M41" s="108"/>
       <c r="N41" s="114" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P41" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q41" s="104" t="s">
         <v>211</v>
-      </c>
-      <c r="Q41" s="104" t="s">
-        <v>212</v>
       </c>
       <c r="R41" s="119"/>
       <c r="S41" s="114" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="U41" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="V41" s="104" t="s">
         <v>211</v>
-      </c>
-      <c r="V41" s="104" t="s">
-        <v>212</v>
       </c>
       <c r="W41" s="108"/>
       <c r="X41" s="50"/>
       <c r="Z41" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="AA41" s="104" t="s">
         <v>211</v>
-      </c>
-      <c r="AA41" s="104" t="s">
-        <v>212</v>
       </c>
       <c r="AB41" s="108"/>
       <c r="AC41" s="50"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="19" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B42" s="104" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C42" s="108"/>
       <c r="D42" s="109" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F42" s="19" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G42" s="104" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H42" s="108"/>
       <c r="I42" s="109" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K42" s="19" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L42" s="104" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M42" s="108"/>
       <c r="N42" s="109" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="P42" s="120" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q42" s="121" t="s">
         <v>213</v>
-      </c>
-      <c r="Q42" s="121" t="s">
-        <v>214</v>
       </c>
       <c r="R42" s="121"/>
       <c r="S42" s="122" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="U42" s="120" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="V42" s="123" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="W42" s="123"/>
       <c r="X42" s="50"/>
       <c r="Z42" s="120" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AA42" s="123" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AB42" s="123"/>
       <c r="AC42" s="50"/>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="B43" s="115" t="s">
         <v>215</v>
       </c>
-      <c r="B43" s="115" t="s">
-        <v>216</v>
-      </c>
       <c r="C43" s="116" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D43" s="117" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F43" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="G43" s="115" t="s">
         <v>215</v>
       </c>
-      <c r="G43" s="115" t="s">
-        <v>216</v>
-      </c>
       <c r="H43" s="116" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I43" s="117" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K43" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="L43" s="115" t="s">
         <v>215</v>
       </c>
-      <c r="L43" s="115" t="s">
-        <v>216</v>
-      </c>
       <c r="M43" s="116" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N43" s="117" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="P43" s="120"/>
       <c r="Q43" s="121"/>
       <c r="R43" s="121"/>
       <c r="S43" s="124" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="U43" s="120"/>
       <c r="V43" s="123"/>
@@ -6677,7 +6674,7 @@
       <c r="Q44" s="121"/>
       <c r="R44" s="121"/>
       <c r="S44" s="110" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="U44" s="120"/>
       <c r="V44" s="123"/>
@@ -6702,40 +6699,40 @@
       <c r="M45" s="126"/>
       <c r="N45" s="127"/>
       <c r="P45" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q45" s="115" t="s">
         <v>215</v>
       </c>
-      <c r="Q45" s="115" t="s">
-        <v>216</v>
-      </c>
       <c r="R45" s="116" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S45" s="117" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="U45" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="V45" s="115" t="s">
         <v>215</v>
       </c>
-      <c r="V45" s="115" t="s">
-        <v>216</v>
-      </c>
       <c r="W45" s="116" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="X45" s="117" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Z45" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="AA45" s="115" t="s">
         <v>215</v>
       </c>
-      <c r="AA45" s="115" t="s">
-        <v>216</v>
-      </c>
       <c r="AB45" s="116" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC45" s="117" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6767,91 +6764,91 @@
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="128" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="129"/>
       <c r="B52" s="106" t="s">
+        <v>227</v>
+      </c>
+      <c r="C52" s="125" t="s">
         <v>228</v>
-      </c>
-      <c r="C52" s="125" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="130"/>
       <c r="B53" s="106" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C53" s="125" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="131"/>
       <c r="B54" s="106" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C54" s="125" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="132"/>
       <c r="B55" s="106" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C55" s="125" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="133"/>
       <c r="B56" s="106" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C56" s="125" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="134"/>
       <c r="B57" s="106" t="s">
+        <v>233</v>
+      </c>
+      <c r="C57" s="125" t="s">
         <v>234</v>
-      </c>
-      <c r="C57" s="125" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="135"/>
       <c r="B58" s="106" t="s">
+        <v>235</v>
+      </c>
+      <c r="C58" s="125" t="s">
         <v>236</v>
-      </c>
-      <c r="C58" s="125" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="136"/>
       <c r="B59" s="106" t="s">
+        <v>237</v>
+      </c>
+      <c r="C59" s="125" t="s">
         <v>238</v>
-      </c>
-      <c r="C59" s="125" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="137"/>
       <c r="B60" s="106" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C60" s="125" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -6897,7 +6894,7 @@
       <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="40.71"/>
@@ -6907,106 +6904,106 @@
   <sheetData>
     <row r="1" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="138" t="s">
+        <v>240</v>
+      </c>
+      <c r="B1" s="138" t="s">
         <v>241</v>
-      </c>
-      <c r="B1" s="138" t="s">
-        <v>242</v>
       </c>
       <c r="C1" s="138"/>
       <c r="D1" s="139" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="B2" s="140" t="s">
         <v>244</v>
-      </c>
-      <c r="B2" s="140" t="s">
-        <v>245</v>
       </c>
       <c r="C2" s="22"/>
       <c r="D2" s="104" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B3" s="140" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C3" s="22"/>
       <c r="D3" s="104" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="B4" s="140" t="s">
         <v>247</v>
-      </c>
-      <c r="B4" s="140" t="s">
-        <v>248</v>
       </c>
       <c r="C4" s="22"/>
       <c r="D4" s="104" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="22" t="s">
+        <v>248</v>
+      </c>
+      <c r="B5" s="140" t="s">
         <v>249</v>
-      </c>
-      <c r="B5" s="140" t="s">
-        <v>250</v>
       </c>
       <c r="C5" s="22"/>
       <c r="D5" s="104" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="B6" s="140" t="s">
         <v>251</v>
-      </c>
-      <c r="B6" s="140" t="s">
-        <v>252</v>
       </c>
       <c r="C6" s="22"/>
       <c r="D6" s="104" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="B7" s="140" t="s">
         <v>253</v>
-      </c>
-      <c r="B7" s="140" t="s">
-        <v>254</v>
       </c>
       <c r="C7" s="22"/>
       <c r="D7" s="104" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="B8" s="140" t="s">
         <v>255</v>
-      </c>
-      <c r="B8" s="140" t="s">
-        <v>256</v>
       </c>
       <c r="C8" s="22"/>
       <c r="D8" s="104" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="22" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B9" s="140" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C9" s="22"/>
       <c r="D9" s="104" t="s">
@@ -7015,62 +7012,62 @@
     </row>
     <row r="10" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="B10" s="140" t="s">
         <v>258</v>
-      </c>
-      <c r="B10" s="140" t="s">
-        <v>259</v>
       </c>
       <c r="C10" s="22"/>
       <c r="D10" s="104" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="B11" s="140" t="s">
         <v>260</v>
-      </c>
-      <c r="B11" s="140" t="s">
-        <v>261</v>
       </c>
       <c r="C11" s="22"/>
       <c r="D11" s="104" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="22" t="s">
+        <v>261</v>
+      </c>
+      <c r="B12" s="140" t="s">
         <v>262</v>
-      </c>
-      <c r="B12" s="140" t="s">
-        <v>263</v>
       </c>
       <c r="C12" s="22"/>
       <c r="D12" s="104" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="41" t="s">
+        <v>264</v>
+      </c>
+      <c r="B13" s="140" t="s">
         <v>265</v>
-      </c>
-      <c r="B13" s="140" t="s">
-        <v>266</v>
       </c>
       <c r="C13" s="22"/>
       <c r="D13" s="104" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="41" t="s">
+        <v>267</v>
+      </c>
+      <c r="B14" s="140" t="s">
         <v>268</v>
-      </c>
-      <c r="B14" s="140" t="s">
-        <v>269</v>
       </c>
       <c r="C14" s="22"/>
       <c r="D14" s="104" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -7096,7 +7093,7 @@
       <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="32.71"/>
@@ -7107,14 +7104,14 @@
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="141" t="s">
+        <v>240</v>
+      </c>
+      <c r="C2" s="142" t="s">
         <v>241</v>
-      </c>
-      <c r="C2" s="142" t="s">
-        <v>242</v>
       </c>
       <c r="D2" s="143"/>
       <c r="E2" s="144" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7125,94 +7122,94 @@
     </row>
     <row r="4" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="145" t="s">
+        <v>243</v>
+      </c>
+      <c r="C4" s="146" t="s">
         <v>244</v>
-      </c>
-      <c r="C4" s="146" t="s">
-        <v>245</v>
       </c>
       <c r="D4" s="145"/>
       <c r="E4" s="147" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C5" s="140" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="104" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="C6" s="140" t="s">
         <v>247</v>
-      </c>
-      <c r="C6" s="140" t="s">
-        <v>248</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="104" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="22" t="s">
+        <v>248</v>
+      </c>
+      <c r="C7" s="140" t="s">
         <v>249</v>
-      </c>
-      <c r="C7" s="140" t="s">
-        <v>250</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="104" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="C8" s="140" t="s">
         <v>251</v>
-      </c>
-      <c r="C8" s="140" t="s">
-        <v>252</v>
       </c>
       <c r="D8" s="22"/>
       <c r="E8" s="104" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="C9" s="140" t="s">
         <v>253</v>
-      </c>
-      <c r="C9" s="140" t="s">
-        <v>254</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="104" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="C10" s="140" t="s">
         <v>255</v>
-      </c>
-      <c r="C10" s="140" t="s">
-        <v>256</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="104" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="22" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C11" s="140" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="104" t="s">
@@ -7221,62 +7218,62 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="C12" s="140" t="s">
         <v>258</v>
-      </c>
-      <c r="C12" s="140" t="s">
-        <v>259</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="104" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="C13" s="140" t="s">
         <v>260</v>
-      </c>
-      <c r="C13" s="140" t="s">
-        <v>261</v>
       </c>
       <c r="D13" s="22"/>
       <c r="E13" s="104" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="22" t="s">
+        <v>261</v>
+      </c>
+      <c r="C14" s="140" t="s">
         <v>262</v>
-      </c>
-      <c r="C14" s="140" t="s">
-        <v>263</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="104" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="41" t="s">
+        <v>264</v>
+      </c>
+      <c r="C15" s="140" t="s">
         <v>265</v>
-      </c>
-      <c r="C15" s="140" t="s">
-        <v>266</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="104" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="41" t="s">
+        <v>267</v>
+      </c>
+      <c r="C16" s="140" t="s">
         <v>268</v>
-      </c>
-      <c r="C16" s="140" t="s">
-        <v>269</v>
       </c>
       <c r="D16" s="22"/>
       <c r="E16" s="104" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -7307,7 +7304,7 @@
       <selection pane="topLeft" activeCell="AC44" activeCellId="0" sqref="AC44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="95" width="12.43"/>
@@ -7322,7 +7319,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="55.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="96" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B1" s="96"/>
       <c r="C1" s="96"/>
@@ -7356,38 +7353,38 @@
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="3" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="97" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B3" s="97"/>
       <c r="C3" s="97"/>
       <c r="D3" s="97"/>
       <c r="E3" s="98"/>
       <c r="F3" s="97" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G3" s="97"/>
       <c r="H3" s="97"/>
       <c r="I3" s="97"/>
       <c r="K3" s="97" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L3" s="97"/>
       <c r="M3" s="97"/>
       <c r="N3" s="97"/>
       <c r="P3" s="97" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Q3" s="97"/>
       <c r="R3" s="97"/>
       <c r="S3" s="97"/>
       <c r="U3" s="97" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="V3" s="97"/>
       <c r="W3" s="97"/>
       <c r="X3" s="97"/>
       <c r="Z3" s="97" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AA3" s="97"/>
       <c r="AB3" s="97"/>
@@ -7395,996 +7392,996 @@
     </row>
     <row r="4" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="99" t="s">
+        <v>172</v>
+      </c>
+      <c r="B4" s="100" t="s">
         <v>173</v>
       </c>
-      <c r="B4" s="100" t="s">
+      <c r="C4" s="100" t="s">
         <v>174</v>
       </c>
-      <c r="C4" s="100" t="s">
+      <c r="D4" s="101" t="s">
         <v>175</v>
-      </c>
-      <c r="D4" s="101" t="s">
-        <v>176</v>
       </c>
       <c r="E4" s="102"/>
       <c r="F4" s="99" t="s">
+        <v>172</v>
+      </c>
+      <c r="G4" s="100" t="s">
         <v>173</v>
       </c>
-      <c r="G4" s="100" t="s">
+      <c r="H4" s="100" t="s">
         <v>174</v>
       </c>
-      <c r="H4" s="100" t="s">
+      <c r="I4" s="103" t="s">
         <v>175</v>
       </c>
-      <c r="I4" s="103" t="s">
-        <v>176</v>
-      </c>
       <c r="K4" s="99" t="s">
+        <v>172</v>
+      </c>
+      <c r="L4" s="100" t="s">
         <v>173</v>
       </c>
-      <c r="L4" s="100" t="s">
+      <c r="M4" s="100" t="s">
         <v>174</v>
       </c>
-      <c r="M4" s="100" t="s">
+      <c r="N4" s="103" t="s">
         <v>175</v>
       </c>
-      <c r="N4" s="103" t="s">
-        <v>176</v>
-      </c>
       <c r="P4" s="99" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q4" s="100" t="s">
         <v>173</v>
       </c>
-      <c r="Q4" s="100" t="s">
+      <c r="R4" s="100" t="s">
         <v>174</v>
       </c>
-      <c r="R4" s="100" t="s">
+      <c r="S4" s="103" t="s">
         <v>175</v>
       </c>
-      <c r="S4" s="103" t="s">
-        <v>176</v>
-      </c>
       <c r="U4" s="99" t="s">
+        <v>172</v>
+      </c>
+      <c r="V4" s="100" t="s">
         <v>173</v>
       </c>
-      <c r="V4" s="100" t="s">
+      <c r="W4" s="100" t="s">
         <v>174</v>
       </c>
-      <c r="W4" s="100" t="s">
+      <c r="X4" s="103" t="s">
         <v>175</v>
       </c>
-      <c r="X4" s="103" t="s">
-        <v>176</v>
-      </c>
       <c r="Z4" s="99" t="s">
+        <v>172</v>
+      </c>
+      <c r="AA4" s="100" t="s">
         <v>173</v>
       </c>
-      <c r="AA4" s="100" t="s">
+      <c r="AB4" s="100" t="s">
         <v>174</v>
       </c>
-      <c r="AB4" s="100" t="s">
+      <c r="AC4" s="103" t="s">
         <v>175</v>
-      </c>
-      <c r="AC4" s="103" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="B5" s="104" t="s">
         <v>177</v>
-      </c>
-      <c r="B5" s="104" t="s">
-        <v>178</v>
       </c>
       <c r="C5" s="22"/>
       <c r="D5" s="148"/>
       <c r="E5" s="106"/>
       <c r="F5" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="G5" s="104" t="s">
         <v>177</v>
-      </c>
-      <c r="G5" s="104" t="s">
-        <v>178</v>
       </c>
       <c r="H5" s="22"/>
       <c r="I5" s="148"/>
       <c r="K5" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="L5" s="104" t="s">
         <v>177</v>
-      </c>
-      <c r="L5" s="104" t="s">
-        <v>178</v>
       </c>
       <c r="M5" s="22"/>
       <c r="N5" s="148"/>
       <c r="P5" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q5" s="104" t="s">
         <v>177</v>
-      </c>
-      <c r="Q5" s="104" t="s">
-        <v>178</v>
       </c>
       <c r="R5" s="22"/>
       <c r="S5" s="148"/>
       <c r="U5" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="V5" s="104" t="s">
         <v>177</v>
-      </c>
-      <c r="V5" s="104" t="s">
-        <v>178</v>
       </c>
       <c r="W5" s="22"/>
       <c r="X5" s="149"/>
       <c r="Z5" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="AA5" s="104" t="s">
         <v>177</v>
-      </c>
-      <c r="AA5" s="104" t="s">
-        <v>178</v>
       </c>
       <c r="AB5" s="22"/>
       <c r="AC5" s="149"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="B6" s="104" t="s">
         <v>180</v>
-      </c>
-      <c r="B6" s="104" t="s">
-        <v>181</v>
       </c>
       <c r="C6" s="22"/>
       <c r="D6" s="148"/>
       <c r="E6" s="106"/>
       <c r="F6" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="G6" s="104" t="s">
         <v>180</v>
-      </c>
-      <c r="G6" s="104" t="s">
-        <v>181</v>
       </c>
       <c r="H6" s="22"/>
       <c r="I6" s="148"/>
       <c r="K6" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="L6" s="104" t="s">
         <v>182</v>
       </c>
-      <c r="L6" s="104" t="s">
-        <v>183</v>
-      </c>
       <c r="M6" s="108" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N6" s="150"/>
       <c r="P6" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q6" s="104" t="s">
         <v>182</v>
       </c>
-      <c r="Q6" s="104" t="s">
-        <v>183</v>
-      </c>
       <c r="R6" s="108" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S6" s="150"/>
       <c r="U6" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="V6" s="104" t="s">
         <v>182</v>
       </c>
-      <c r="V6" s="104" t="s">
-        <v>183</v>
-      </c>
       <c r="W6" s="108" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="X6" s="150"/>
       <c r="Z6" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA6" s="104" t="s">
         <v>182</v>
       </c>
-      <c r="AA6" s="104" t="s">
-        <v>183</v>
-      </c>
       <c r="AB6" s="108" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC6" s="150"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="B7" s="104" t="s">
         <v>182</v>
       </c>
-      <c r="B7" s="104" t="s">
-        <v>183</v>
-      </c>
       <c r="C7" s="108" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" s="150"/>
       <c r="E7" s="106"/>
       <c r="F7" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="G7" s="104" t="s">
         <v>182</v>
       </c>
-      <c r="G7" s="104" t="s">
-        <v>183</v>
-      </c>
       <c r="H7" s="108" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I7" s="150"/>
       <c r="K7" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="L7" s="104" t="s">
         <v>185</v>
-      </c>
-      <c r="L7" s="104" t="s">
-        <v>186</v>
       </c>
       <c r="M7" s="108"/>
       <c r="N7" s="150"/>
       <c r="P7" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q7" s="104" t="s">
         <v>185</v>
-      </c>
-      <c r="Q7" s="104" t="s">
-        <v>186</v>
       </c>
       <c r="R7" s="108"/>
       <c r="S7" s="150"/>
       <c r="U7" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="V7" s="104" t="s">
         <v>185</v>
-      </c>
-      <c r="V7" s="104" t="s">
-        <v>186</v>
       </c>
       <c r="W7" s="108"/>
       <c r="X7" s="150"/>
       <c r="Z7" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="AA7" s="104" t="s">
         <v>185</v>
-      </c>
-      <c r="AA7" s="104" t="s">
-        <v>186</v>
       </c>
       <c r="AB7" s="108"/>
       <c r="AC7" s="150"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="B8" s="104" t="s">
         <v>185</v>
-      </c>
-      <c r="B8" s="104" t="s">
-        <v>186</v>
       </c>
       <c r="C8" s="108"/>
       <c r="D8" s="150"/>
       <c r="E8" s="106"/>
       <c r="F8" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="G8" s="104" t="s">
         <v>185</v>
-      </c>
-      <c r="G8" s="104" t="s">
-        <v>186</v>
       </c>
       <c r="H8" s="108"/>
       <c r="I8" s="150"/>
       <c r="K8" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="L8" s="104" t="s">
         <v>188</v>
       </c>
-      <c r="L8" s="104" t="s">
-        <v>189</v>
-      </c>
       <c r="M8" s="108" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N8" s="150"/>
       <c r="P8" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q8" s="104" t="s">
         <v>188</v>
       </c>
-      <c r="Q8" s="104" t="s">
-        <v>189</v>
-      </c>
       <c r="R8" s="108" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S8" s="150"/>
       <c r="U8" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="V8" s="104" t="s">
         <v>188</v>
       </c>
-      <c r="V8" s="104" t="s">
-        <v>189</v>
-      </c>
       <c r="W8" s="108" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="X8" s="150"/>
       <c r="Z8" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="AA8" s="104" t="s">
         <v>188</v>
       </c>
-      <c r="AA8" s="104" t="s">
-        <v>189</v>
-      </c>
       <c r="AB8" s="108" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC8" s="150"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="B9" s="104" t="s">
         <v>188</v>
       </c>
-      <c r="B9" s="104" t="s">
-        <v>189</v>
-      </c>
       <c r="C9" s="108" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9" s="150"/>
       <c r="E9" s="106"/>
       <c r="F9" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="G9" s="104" t="s">
         <v>188</v>
       </c>
-      <c r="G9" s="104" t="s">
-        <v>189</v>
-      </c>
       <c r="H9" s="108" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I9" s="150"/>
       <c r="K9" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="L9" s="104" t="s">
         <v>190</v>
       </c>
-      <c r="L9" s="104" t="s">
-        <v>191</v>
-      </c>
       <c r="M9" s="108" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N9" s="150"/>
       <c r="P9" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q9" s="104" t="s">
         <v>190</v>
       </c>
-      <c r="Q9" s="104" t="s">
-        <v>191</v>
-      </c>
       <c r="R9" s="108" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S9" s="150"/>
       <c r="U9" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="V9" s="104" t="s">
         <v>190</v>
       </c>
-      <c r="V9" s="104" t="s">
-        <v>191</v>
-      </c>
       <c r="W9" s="108" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="X9" s="150"/>
       <c r="Z9" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="AA9" s="104" t="s">
         <v>190</v>
       </c>
-      <c r="AA9" s="104" t="s">
-        <v>191</v>
-      </c>
       <c r="AB9" s="108" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC9" s="150"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="B10" s="104" t="s">
         <v>190</v>
       </c>
-      <c r="B10" s="104" t="s">
-        <v>191</v>
-      </c>
       <c r="C10" s="108" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10" s="150"/>
       <c r="E10" s="106"/>
       <c r="F10" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="G10" s="104" t="s">
         <v>190</v>
       </c>
-      <c r="G10" s="104" t="s">
-        <v>191</v>
-      </c>
       <c r="H10" s="108" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I10" s="150"/>
       <c r="K10" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="L10" s="104" t="s">
         <v>194</v>
-      </c>
-      <c r="L10" s="104" t="s">
-        <v>195</v>
       </c>
       <c r="M10" s="108"/>
       <c r="N10" s="148"/>
       <c r="P10" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q10" s="104" t="s">
         <v>194</v>
-      </c>
-      <c r="Q10" s="104" t="s">
-        <v>195</v>
       </c>
       <c r="R10" s="108"/>
       <c r="S10" s="148"/>
       <c r="U10" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="V10" s="104" t="s">
         <v>194</v>
-      </c>
-      <c r="V10" s="104" t="s">
-        <v>195</v>
       </c>
       <c r="W10" s="108"/>
       <c r="X10" s="149"/>
       <c r="Z10" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="AA10" s="104" t="s">
         <v>194</v>
-      </c>
-      <c r="AA10" s="104" t="s">
-        <v>195</v>
       </c>
       <c r="AB10" s="108"/>
       <c r="AC10" s="149"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="B11" s="104" t="s">
         <v>194</v>
-      </c>
-      <c r="B11" s="104" t="s">
-        <v>195</v>
       </c>
       <c r="C11" s="108"/>
       <c r="D11" s="148"/>
       <c r="E11" s="106"/>
       <c r="F11" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="G11" s="104" t="s">
         <v>194</v>
-      </c>
-      <c r="G11" s="104" t="s">
-        <v>195</v>
       </c>
       <c r="H11" s="108"/>
       <c r="I11" s="148"/>
       <c r="K11" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="L11" s="104" t="s">
         <v>196</v>
       </c>
-      <c r="L11" s="104" t="s">
-        <v>197</v>
-      </c>
       <c r="M11" s="108" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N11" s="150"/>
       <c r="P11" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q11" s="104" t="s">
         <v>196</v>
       </c>
-      <c r="Q11" s="104" t="s">
-        <v>197</v>
-      </c>
       <c r="R11" s="108" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S11" s="150"/>
       <c r="U11" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="V11" s="104" t="s">
         <v>196</v>
       </c>
-      <c r="V11" s="104" t="s">
-        <v>197</v>
-      </c>
       <c r="W11" s="108" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X11" s="150"/>
       <c r="Z11" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="AA11" s="104" t="s">
         <v>196</v>
       </c>
-      <c r="AA11" s="104" t="s">
-        <v>197</v>
-      </c>
       <c r="AB11" s="108" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC11" s="150"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="B12" s="104" t="s">
         <v>196</v>
       </c>
-      <c r="B12" s="104" t="s">
-        <v>197</v>
-      </c>
       <c r="C12" s="108" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D12" s="150"/>
       <c r="E12" s="106"/>
       <c r="F12" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="G12" s="104" t="s">
         <v>196</v>
       </c>
-      <c r="G12" s="104" t="s">
-        <v>197</v>
-      </c>
       <c r="H12" s="108" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I12" s="150"/>
       <c r="K12" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="L12" s="104" t="s">
         <v>198</v>
-      </c>
-      <c r="L12" s="104" t="s">
-        <v>199</v>
       </c>
       <c r="M12" s="108"/>
       <c r="N12" s="150"/>
       <c r="P12" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q12" s="104" t="s">
         <v>198</v>
-      </c>
-      <c r="Q12" s="104" t="s">
-        <v>199</v>
       </c>
       <c r="R12" s="108"/>
       <c r="S12" s="150"/>
       <c r="U12" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="V12" s="104" t="s">
         <v>198</v>
-      </c>
-      <c r="V12" s="104" t="s">
-        <v>199</v>
       </c>
       <c r="W12" s="108"/>
       <c r="X12" s="150"/>
       <c r="Z12" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA12" s="104" t="s">
         <v>198</v>
-      </c>
-      <c r="AA12" s="104" t="s">
-        <v>199</v>
       </c>
       <c r="AB12" s="108"/>
       <c r="AC12" s="150"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="B13" s="104" t="s">
         <v>198</v>
-      </c>
-      <c r="B13" s="104" t="s">
-        <v>199</v>
       </c>
       <c r="C13" s="108"/>
       <c r="D13" s="150"/>
       <c r="E13" s="106"/>
       <c r="F13" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="G13" s="104" t="s">
         <v>198</v>
-      </c>
-      <c r="G13" s="104" t="s">
-        <v>199</v>
       </c>
       <c r="H13" s="108"/>
       <c r="I13" s="150"/>
       <c r="K13" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="L13" s="104" t="s">
         <v>200</v>
-      </c>
-      <c r="L13" s="104" t="s">
-        <v>201</v>
       </c>
       <c r="M13" s="108"/>
       <c r="N13" s="150"/>
       <c r="P13" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q13" s="104" t="s">
         <v>200</v>
-      </c>
-      <c r="Q13" s="104" t="s">
-        <v>201</v>
       </c>
       <c r="R13" s="108"/>
       <c r="S13" s="150"/>
       <c r="U13" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="V13" s="104" t="s">
         <v>200</v>
-      </c>
-      <c r="V13" s="104" t="s">
-        <v>201</v>
       </c>
       <c r="W13" s="108"/>
       <c r="X13" s="150"/>
       <c r="Z13" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="AA13" s="104" t="s">
         <v>200</v>
-      </c>
-      <c r="AA13" s="104" t="s">
-        <v>201</v>
       </c>
       <c r="AB13" s="108"/>
       <c r="AC13" s="150"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="B14" s="104" t="s">
         <v>200</v>
-      </c>
-      <c r="B14" s="104" t="s">
-        <v>201</v>
       </c>
       <c r="C14" s="108"/>
       <c r="D14" s="150"/>
       <c r="E14" s="106"/>
       <c r="F14" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="G14" s="104" t="s">
         <v>200</v>
-      </c>
-      <c r="G14" s="104" t="s">
-        <v>201</v>
       </c>
       <c r="H14" s="108"/>
       <c r="I14" s="150"/>
       <c r="K14" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="L14" s="104" t="s">
         <v>202</v>
-      </c>
-      <c r="L14" s="104" t="s">
-        <v>203</v>
       </c>
       <c r="M14" s="108"/>
       <c r="N14" s="150"/>
       <c r="P14" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q14" s="104" t="s">
         <v>202</v>
-      </c>
-      <c r="Q14" s="104" t="s">
-        <v>203</v>
       </c>
       <c r="R14" s="108"/>
       <c r="S14" s="150"/>
       <c r="U14" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="V14" s="104" t="s">
         <v>202</v>
-      </c>
-      <c r="V14" s="104" t="s">
-        <v>203</v>
       </c>
       <c r="W14" s="108"/>
       <c r="X14" s="150"/>
       <c r="Z14" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="AA14" s="104" t="s">
         <v>202</v>
-      </c>
-      <c r="AA14" s="104" t="s">
-        <v>203</v>
       </c>
       <c r="AB14" s="108"/>
       <c r="AC14" s="150"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="B15" s="104" t="s">
         <v>202</v>
-      </c>
-      <c r="B15" s="104" t="s">
-        <v>203</v>
       </c>
       <c r="C15" s="108"/>
       <c r="D15" s="150"/>
       <c r="E15" s="106"/>
       <c r="F15" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="G15" s="104" t="s">
         <v>202</v>
-      </c>
-      <c r="G15" s="104" t="s">
-        <v>203</v>
       </c>
       <c r="H15" s="108"/>
       <c r="I15" s="150"/>
       <c r="K15" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="L15" s="104" t="s">
         <v>204</v>
-      </c>
-      <c r="L15" s="104" t="s">
-        <v>205</v>
       </c>
       <c r="M15" s="108"/>
       <c r="N15" s="150"/>
       <c r="P15" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q15" s="104" t="s">
         <v>204</v>
-      </c>
-      <c r="Q15" s="104" t="s">
-        <v>205</v>
       </c>
       <c r="R15" s="108"/>
       <c r="S15" s="150"/>
       <c r="U15" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="V15" s="104" t="s">
         <v>204</v>
-      </c>
-      <c r="V15" s="104" t="s">
-        <v>205</v>
       </c>
       <c r="W15" s="108"/>
       <c r="X15" s="150"/>
       <c r="Z15" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="AA15" s="104" t="s">
         <v>204</v>
-      </c>
-      <c r="AA15" s="104" t="s">
-        <v>205</v>
       </c>
       <c r="AB15" s="108"/>
       <c r="AC15" s="150"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="B16" s="104" t="s">
         <v>204</v>
-      </c>
-      <c r="B16" s="104" t="s">
-        <v>205</v>
       </c>
       <c r="C16" s="108"/>
       <c r="D16" s="150"/>
       <c r="E16" s="106"/>
       <c r="F16" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="G16" s="104" t="s">
         <v>204</v>
-      </c>
-      <c r="G16" s="104" t="s">
-        <v>205</v>
       </c>
       <c r="H16" s="108"/>
       <c r="I16" s="150"/>
       <c r="K16" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="L16" s="104" t="s">
         <v>207</v>
-      </c>
-      <c r="L16" s="104" t="s">
-        <v>208</v>
       </c>
       <c r="M16" s="108"/>
       <c r="N16" s="150"/>
       <c r="P16" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q16" s="104" t="s">
         <v>207</v>
-      </c>
-      <c r="Q16" s="104" t="s">
-        <v>208</v>
       </c>
       <c r="R16" s="108"/>
       <c r="S16" s="150"/>
       <c r="U16" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="V16" s="104" t="s">
         <v>207</v>
-      </c>
-      <c r="V16" s="104" t="s">
-        <v>208</v>
       </c>
       <c r="W16" s="108"/>
       <c r="X16" s="150"/>
       <c r="Z16" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="AA16" s="104" t="s">
         <v>207</v>
-      </c>
-      <c r="AA16" s="104" t="s">
-        <v>208</v>
       </c>
       <c r="AB16" s="108"/>
       <c r="AC16" s="150"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="B17" s="104" t="s">
         <v>207</v>
-      </c>
-      <c r="B17" s="104" t="s">
-        <v>208</v>
       </c>
       <c r="C17" s="108"/>
       <c r="D17" s="150"/>
       <c r="E17" s="106"/>
       <c r="F17" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="G17" s="104" t="s">
         <v>207</v>
-      </c>
-      <c r="G17" s="104" t="s">
-        <v>208</v>
       </c>
       <c r="H17" s="108"/>
       <c r="I17" s="150"/>
       <c r="K17" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="L17" s="104" t="s">
         <v>209</v>
-      </c>
-      <c r="L17" s="104" t="s">
-        <v>210</v>
       </c>
       <c r="M17" s="108"/>
       <c r="N17" s="150"/>
       <c r="P17" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q17" s="104" t="s">
         <v>209</v>
-      </c>
-      <c r="Q17" s="104" t="s">
-        <v>210</v>
       </c>
       <c r="R17" s="108"/>
       <c r="S17" s="150"/>
       <c r="U17" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="V17" s="104" t="s">
         <v>209</v>
-      </c>
-      <c r="V17" s="104" t="s">
-        <v>210</v>
       </c>
       <c r="W17" s="108"/>
       <c r="X17" s="150"/>
       <c r="Z17" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="AA17" s="104" t="s">
         <v>209</v>
-      </c>
-      <c r="AA17" s="104" t="s">
-        <v>210</v>
       </c>
       <c r="AB17" s="108"/>
       <c r="AC17" s="150"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="B18" s="104" t="s">
         <v>209</v>
-      </c>
-      <c r="B18" s="104" t="s">
-        <v>210</v>
       </c>
       <c r="C18" s="108"/>
       <c r="D18" s="150"/>
       <c r="E18" s="106"/>
       <c r="F18" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="G18" s="104" t="s">
         <v>209</v>
-      </c>
-      <c r="G18" s="104" t="s">
-        <v>210</v>
       </c>
       <c r="H18" s="108"/>
       <c r="I18" s="150"/>
       <c r="K18" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="L18" s="104" t="s">
         <v>211</v>
-      </c>
-      <c r="L18" s="104" t="s">
-        <v>212</v>
       </c>
       <c r="M18" s="108"/>
       <c r="N18" s="150"/>
       <c r="P18" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q18" s="104" t="s">
         <v>211</v>
-      </c>
-      <c r="Q18" s="104" t="s">
-        <v>212</v>
       </c>
       <c r="R18" s="108"/>
       <c r="S18" s="150"/>
       <c r="U18" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="V18" s="104" t="s">
         <v>211</v>
-      </c>
-      <c r="V18" s="104" t="s">
-        <v>212</v>
       </c>
       <c r="W18" s="108"/>
       <c r="X18" s="150"/>
       <c r="Z18" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="AA18" s="104" t="s">
         <v>211</v>
-      </c>
-      <c r="AA18" s="104" t="s">
-        <v>212</v>
       </c>
       <c r="AB18" s="108"/>
       <c r="AC18" s="150"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="B19" s="104" t="s">
         <v>211</v>
-      </c>
-      <c r="B19" s="104" t="s">
-        <v>212</v>
       </c>
       <c r="C19" s="108"/>
       <c r="D19" s="150"/>
       <c r="E19" s="106"/>
       <c r="F19" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="G19" s="104" t="s">
         <v>211</v>
-      </c>
-      <c r="G19" s="104" t="s">
-        <v>212</v>
       </c>
       <c r="H19" s="108"/>
       <c r="I19" s="150"/>
       <c r="K19" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="L19" s="104" t="s">
         <v>213</v>
-      </c>
-      <c r="L19" s="104" t="s">
-        <v>214</v>
       </c>
       <c r="M19" s="108"/>
       <c r="N19" s="150"/>
       <c r="P19" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q19" s="104" t="s">
         <v>213</v>
-      </c>
-      <c r="Q19" s="104" t="s">
-        <v>214</v>
       </c>
       <c r="R19" s="108"/>
       <c r="S19" s="150"/>
       <c r="U19" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="V19" s="104" t="s">
         <v>213</v>
-      </c>
-      <c r="V19" s="104" t="s">
-        <v>214</v>
       </c>
       <c r="W19" s="108"/>
       <c r="X19" s="150"/>
       <c r="Z19" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="AA19" s="104" t="s">
         <v>213</v>
-      </c>
-      <c r="AA19" s="104" t="s">
-        <v>214</v>
       </c>
       <c r="AB19" s="108"/>
       <c r="AC19" s="150"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="B20" s="104" t="s">
         <v>213</v>
-      </c>
-      <c r="B20" s="104" t="s">
-        <v>214</v>
       </c>
       <c r="C20" s="108"/>
       <c r="D20" s="150"/>
       <c r="E20" s="106"/>
       <c r="F20" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="G20" s="104" t="s">
         <v>213</v>
-      </c>
-      <c r="G20" s="104" t="s">
-        <v>214</v>
       </c>
       <c r="H20" s="108"/>
       <c r="I20" s="150"/>
       <c r="K20" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="L20" s="115" t="s">
         <v>215</v>
       </c>
-      <c r="L20" s="115" t="s">
-        <v>216</v>
-      </c>
       <c r="M20" s="116" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N20" s="151"/>
       <c r="P20" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q20" s="115" t="s">
         <v>215</v>
       </c>
-      <c r="Q20" s="115" t="s">
-        <v>216</v>
-      </c>
       <c r="R20" s="116" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S20" s="151"/>
       <c r="U20" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="V20" s="115" t="s">
         <v>215</v>
       </c>
-      <c r="V20" s="115" t="s">
-        <v>216</v>
-      </c>
       <c r="W20" s="116" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="X20" s="151"/>
       <c r="Z20" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="AA20" s="115" t="s">
         <v>215</v>
       </c>
-      <c r="AA20" s="115" t="s">
-        <v>216</v>
-      </c>
       <c r="AB20" s="116" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC20" s="151"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="B21" s="115" t="s">
         <v>215</v>
       </c>
-      <c r="B21" s="115" t="s">
-        <v>216</v>
-      </c>
       <c r="C21" s="116" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D21" s="151"/>
       <c r="E21" s="106"/>
       <c r="F21" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="G21" s="115" t="s">
         <v>215</v>
       </c>
-      <c r="G21" s="115" t="s">
-        <v>216</v>
-      </c>
       <c r="H21" s="116" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I21" s="151"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K24" s="97" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="L24" s="97"/>
       <c r="M24" s="97"/>
       <c r="N24" s="97"/>
       <c r="P24" s="97" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="Q24" s="97"/>
       <c r="R24" s="97"/>
       <c r="S24" s="97"/>
       <c r="U24" s="97" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="V24" s="97"/>
       <c r="W24" s="97"/>
       <c r="X24" s="97"/>
       <c r="Z24" s="97" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AA24" s="97"/>
       <c r="AB24" s="97"/>
@@ -8392,897 +8389,897 @@
     </row>
     <row r="25" customFormat="false" ht="23.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="97" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B25" s="97"/>
       <c r="C25" s="97"/>
       <c r="D25" s="97"/>
       <c r="F25" s="97" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G25" s="97"/>
       <c r="H25" s="97"/>
       <c r="I25" s="97"/>
       <c r="K25" s="99" t="s">
+        <v>172</v>
+      </c>
+      <c r="L25" s="100" t="s">
         <v>173</v>
       </c>
-      <c r="L25" s="100" t="s">
+      <c r="M25" s="100" t="s">
         <v>174</v>
       </c>
-      <c r="M25" s="100" t="s">
+      <c r="N25" s="103" t="s">
         <v>175</v>
       </c>
-      <c r="N25" s="103" t="s">
-        <v>176</v>
-      </c>
       <c r="P25" s="99" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q25" s="100" t="s">
         <v>173</v>
       </c>
-      <c r="Q25" s="100" t="s">
+      <c r="R25" s="100" t="s">
         <v>174</v>
       </c>
-      <c r="R25" s="100" t="s">
+      <c r="S25" s="103" t="s">
         <v>175</v>
       </c>
-      <c r="S25" s="103" t="s">
-        <v>176</v>
-      </c>
       <c r="U25" s="99" t="s">
+        <v>172</v>
+      </c>
+      <c r="V25" s="100" t="s">
         <v>173</v>
       </c>
-      <c r="V25" s="100" t="s">
+      <c r="W25" s="100" t="s">
         <v>174</v>
       </c>
-      <c r="W25" s="100" t="s">
+      <c r="X25" s="103" t="s">
         <v>175</v>
       </c>
-      <c r="X25" s="103" t="s">
-        <v>176</v>
-      </c>
       <c r="Z25" s="99" t="s">
+        <v>172</v>
+      </c>
+      <c r="AA25" s="100" t="s">
         <v>173</v>
       </c>
-      <c r="AA25" s="100" t="s">
+      <c r="AB25" s="100" t="s">
         <v>174</v>
       </c>
-      <c r="AB25" s="100" t="s">
+      <c r="AC25" s="103" t="s">
         <v>175</v>
-      </c>
-      <c r="AC25" s="103" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="99" t="s">
+        <v>172</v>
+      </c>
+      <c r="B26" s="100" t="s">
         <v>173</v>
       </c>
-      <c r="B26" s="100" t="s">
+      <c r="C26" s="100" t="s">
         <v>174</v>
       </c>
-      <c r="C26" s="100" t="s">
+      <c r="D26" s="101" t="s">
         <v>175</v>
       </c>
-      <c r="D26" s="101" t="s">
+      <c r="F26" s="99" t="s">
+        <v>172</v>
+      </c>
+      <c r="G26" s="100" t="s">
+        <v>173</v>
+      </c>
+      <c r="H26" s="100" t="s">
+        <v>174</v>
+      </c>
+      <c r="I26" s="103" t="s">
+        <v>175</v>
+      </c>
+      <c r="K26" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="F26" s="99" t="s">
-        <v>173</v>
-      </c>
-      <c r="G26" s="100" t="s">
-        <v>174</v>
-      </c>
-      <c r="H26" s="100" t="s">
-        <v>175</v>
-      </c>
-      <c r="I26" s="103" t="s">
-        <v>176</v>
-      </c>
-      <c r="K26" s="19" t="s">
+      <c r="L26" s="104" t="s">
         <v>177</v>
-      </c>
-      <c r="L26" s="104" t="s">
-        <v>178</v>
       </c>
       <c r="M26" s="22"/>
       <c r="N26" s="150"/>
       <c r="P26" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q26" s="104" t="s">
         <v>177</v>
-      </c>
-      <c r="Q26" s="104" t="s">
-        <v>178</v>
       </c>
       <c r="R26" s="104"/>
       <c r="S26" s="148"/>
       <c r="U26" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="V26" s="104" t="s">
         <v>177</v>
-      </c>
-      <c r="V26" s="104" t="s">
-        <v>178</v>
       </c>
       <c r="W26" s="22"/>
       <c r="X26" s="149"/>
       <c r="Z26" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="AA26" s="104" t="s">
         <v>177</v>
-      </c>
-      <c r="AA26" s="104" t="s">
-        <v>178</v>
       </c>
       <c r="AB26" s="22"/>
       <c r="AC26" s="149"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="B27" s="104" t="s">
         <v>177</v>
-      </c>
-      <c r="B27" s="104" t="s">
-        <v>178</v>
       </c>
       <c r="C27" s="22"/>
       <c r="D27" s="150"/>
       <c r="F27" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="G27" s="104" t="s">
         <v>177</v>
-      </c>
-      <c r="G27" s="104" t="s">
-        <v>178</v>
       </c>
       <c r="H27" s="22"/>
       <c r="I27" s="150"/>
       <c r="K27" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="L27" s="104" t="s">
         <v>182</v>
       </c>
-      <c r="L27" s="104" t="s">
-        <v>183</v>
-      </c>
       <c r="M27" s="108" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N27" s="150"/>
       <c r="P27" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q27" s="104" t="s">
         <v>182</v>
       </c>
-      <c r="Q27" s="104" t="s">
-        <v>183</v>
-      </c>
       <c r="R27" s="108" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S27" s="150"/>
       <c r="U27" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="V27" s="104" t="s">
         <v>182</v>
       </c>
-      <c r="V27" s="104" t="s">
-        <v>183</v>
-      </c>
       <c r="W27" s="108" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="X27" s="152"/>
       <c r="Z27" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="AA27" s="104" t="s">
         <v>182</v>
       </c>
-      <c r="AA27" s="104" t="s">
-        <v>183</v>
-      </c>
       <c r="AB27" s="108" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC27" s="152"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="B28" s="104" t="s">
         <v>182</v>
       </c>
-      <c r="B28" s="104" t="s">
-        <v>183</v>
-      </c>
       <c r="C28" s="108" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D28" s="150"/>
       <c r="F28" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="G28" s="104" t="s">
         <v>182</v>
       </c>
-      <c r="G28" s="104" t="s">
-        <v>183</v>
-      </c>
       <c r="H28" s="108" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I28" s="150"/>
       <c r="K28" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="L28" s="104" t="s">
         <v>185</v>
-      </c>
-      <c r="L28" s="104" t="s">
-        <v>186</v>
       </c>
       <c r="M28" s="108"/>
       <c r="N28" s="150"/>
       <c r="P28" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q28" s="104" t="s">
         <v>185</v>
-      </c>
-      <c r="Q28" s="104" t="s">
-        <v>186</v>
       </c>
       <c r="R28" s="108"/>
       <c r="S28" s="150"/>
       <c r="U28" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="V28" s="104" t="s">
         <v>185</v>
-      </c>
-      <c r="V28" s="104" t="s">
-        <v>186</v>
       </c>
       <c r="W28" s="108"/>
       <c r="X28" s="152"/>
       <c r="Z28" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="AA28" s="104" t="s">
         <v>185</v>
-      </c>
-      <c r="AA28" s="104" t="s">
-        <v>186</v>
       </c>
       <c r="AB28" s="108"/>
       <c r="AC28" s="152"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="B29" s="104" t="s">
         <v>185</v>
-      </c>
-      <c r="B29" s="104" t="s">
-        <v>186</v>
       </c>
       <c r="C29" s="108"/>
       <c r="D29" s="150"/>
       <c r="F29" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="G29" s="104" t="s">
         <v>185</v>
-      </c>
-      <c r="G29" s="104" t="s">
-        <v>186</v>
       </c>
       <c r="H29" s="108"/>
       <c r="I29" s="150"/>
       <c r="K29" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="L29" s="104" t="s">
         <v>188</v>
       </c>
-      <c r="L29" s="104" t="s">
-        <v>189</v>
-      </c>
       <c r="M29" s="108" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N29" s="150"/>
       <c r="P29" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q29" s="104" t="s">
         <v>188</v>
       </c>
-      <c r="Q29" s="104" t="s">
-        <v>189</v>
-      </c>
       <c r="R29" s="108" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S29" s="150"/>
       <c r="U29" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="V29" s="104" t="s">
         <v>188</v>
       </c>
-      <c r="V29" s="104" t="s">
-        <v>189</v>
-      </c>
       <c r="W29" s="108" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="X29" s="152"/>
       <c r="Z29" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="AA29" s="104" t="s">
         <v>188</v>
       </c>
-      <c r="AA29" s="104" t="s">
-        <v>189</v>
-      </c>
       <c r="AB29" s="108" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC29" s="152"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="B30" s="104" t="s">
         <v>188</v>
       </c>
-      <c r="B30" s="104" t="s">
-        <v>189</v>
-      </c>
       <c r="C30" s="108" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D30" s="150"/>
       <c r="F30" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="G30" s="104" t="s">
         <v>188</v>
       </c>
-      <c r="G30" s="104" t="s">
-        <v>189</v>
-      </c>
       <c r="H30" s="108" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I30" s="150"/>
       <c r="K30" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="L30" s="104" t="s">
         <v>190</v>
       </c>
-      <c r="L30" s="104" t="s">
-        <v>191</v>
-      </c>
       <c r="M30" s="108" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N30" s="150"/>
       <c r="P30" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q30" s="104" t="s">
         <v>190</v>
       </c>
-      <c r="Q30" s="104" t="s">
-        <v>191</v>
-      </c>
       <c r="R30" s="108" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S30" s="150"/>
       <c r="U30" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="V30" s="104" t="s">
         <v>190</v>
       </c>
-      <c r="V30" s="104" t="s">
-        <v>191</v>
-      </c>
       <c r="W30" s="108" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="X30" s="152"/>
       <c r="Z30" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="AA30" s="104" t="s">
         <v>190</v>
       </c>
-      <c r="AA30" s="104" t="s">
-        <v>191</v>
-      </c>
       <c r="AB30" s="108" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC30" s="152"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="B31" s="104" t="s">
         <v>190</v>
       </c>
-      <c r="B31" s="104" t="s">
-        <v>191</v>
-      </c>
       <c r="C31" s="108" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D31" s="150"/>
       <c r="F31" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="G31" s="104" t="s">
         <v>190</v>
       </c>
-      <c r="G31" s="104" t="s">
-        <v>191</v>
-      </c>
       <c r="H31" s="108" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I31" s="150"/>
       <c r="K31" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="L31" s="104" t="s">
         <v>194</v>
-      </c>
-      <c r="L31" s="104" t="s">
-        <v>195</v>
       </c>
       <c r="M31" s="108"/>
       <c r="N31" s="150"/>
       <c r="P31" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q31" s="104" t="s">
         <v>194</v>
-      </c>
-      <c r="Q31" s="104" t="s">
-        <v>195</v>
       </c>
       <c r="R31" s="119"/>
       <c r="S31" s="148"/>
       <c r="U31" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="V31" s="104" t="s">
         <v>194</v>
-      </c>
-      <c r="V31" s="104" t="s">
-        <v>195</v>
       </c>
       <c r="W31" s="108"/>
       <c r="X31" s="149"/>
       <c r="Z31" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="AA31" s="104" t="s">
         <v>194</v>
-      </c>
-      <c r="AA31" s="104" t="s">
-        <v>195</v>
       </c>
       <c r="AB31" s="108"/>
       <c r="AC31" s="149"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="B32" s="104" t="s">
         <v>194</v>
-      </c>
-      <c r="B32" s="104" t="s">
-        <v>195</v>
       </c>
       <c r="C32" s="108"/>
       <c r="D32" s="150"/>
       <c r="F32" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="G32" s="104" t="s">
         <v>194</v>
-      </c>
-      <c r="G32" s="104" t="s">
-        <v>195</v>
       </c>
       <c r="H32" s="108"/>
       <c r="I32" s="150"/>
       <c r="K32" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="L32" s="104" t="s">
         <v>196</v>
       </c>
-      <c r="L32" s="104" t="s">
-        <v>197</v>
-      </c>
       <c r="M32" s="108" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N32" s="150"/>
       <c r="P32" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q32" s="104" t="s">
         <v>196</v>
       </c>
-      <c r="Q32" s="104" t="s">
-        <v>197</v>
-      </c>
       <c r="R32" s="119" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S32" s="150"/>
       <c r="U32" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="V32" s="104" t="s">
         <v>196</v>
       </c>
-      <c r="V32" s="104" t="s">
-        <v>197</v>
-      </c>
       <c r="W32" s="108" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X32" s="150"/>
       <c r="Z32" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="AA32" s="104" t="s">
         <v>196</v>
       </c>
-      <c r="AA32" s="104" t="s">
-        <v>197</v>
-      </c>
       <c r="AB32" s="108" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC32" s="150"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="B33" s="104" t="s">
         <v>196</v>
       </c>
-      <c r="B33" s="104" t="s">
-        <v>197</v>
-      </c>
       <c r="C33" s="108" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D33" s="150"/>
       <c r="F33" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="G33" s="104" t="s">
         <v>196</v>
       </c>
-      <c r="G33" s="104" t="s">
-        <v>197</v>
-      </c>
       <c r="H33" s="108" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I33" s="150"/>
       <c r="K33" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="L33" s="104" t="s">
         <v>198</v>
-      </c>
-      <c r="L33" s="104" t="s">
-        <v>199</v>
       </c>
       <c r="M33" s="108"/>
       <c r="N33" s="150"/>
       <c r="P33" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q33" s="104" t="s">
         <v>198</v>
-      </c>
-      <c r="Q33" s="104" t="s">
-        <v>199</v>
       </c>
       <c r="R33" s="119"/>
       <c r="S33" s="150"/>
       <c r="U33" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="V33" s="104" t="s">
         <v>198</v>
-      </c>
-      <c r="V33" s="104" t="s">
-        <v>199</v>
       </c>
       <c r="W33" s="108"/>
       <c r="X33" s="152"/>
       <c r="Z33" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA33" s="104" t="s">
         <v>198</v>
-      </c>
-      <c r="AA33" s="104" t="s">
-        <v>199</v>
       </c>
       <c r="AB33" s="108"/>
       <c r="AC33" s="152"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="B34" s="104" t="s">
         <v>198</v>
-      </c>
-      <c r="B34" s="104" t="s">
-        <v>199</v>
       </c>
       <c r="C34" s="108"/>
       <c r="D34" s="150"/>
       <c r="F34" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="G34" s="104" t="s">
         <v>198</v>
-      </c>
-      <c r="G34" s="104" t="s">
-        <v>199</v>
       </c>
       <c r="H34" s="108"/>
       <c r="I34" s="150"/>
       <c r="K34" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="L34" s="104" t="s">
         <v>200</v>
-      </c>
-      <c r="L34" s="104" t="s">
-        <v>201</v>
       </c>
       <c r="M34" s="108"/>
       <c r="N34" s="150"/>
       <c r="P34" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q34" s="104" t="s">
         <v>200</v>
-      </c>
-      <c r="Q34" s="104" t="s">
-        <v>201</v>
       </c>
       <c r="R34" s="119"/>
       <c r="S34" s="150"/>
       <c r="U34" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="V34" s="104" t="s">
         <v>200</v>
-      </c>
-      <c r="V34" s="104" t="s">
-        <v>201</v>
       </c>
       <c r="W34" s="108"/>
       <c r="X34" s="152"/>
       <c r="Z34" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="AA34" s="104" t="s">
         <v>200</v>
-      </c>
-      <c r="AA34" s="104" t="s">
-        <v>201</v>
       </c>
       <c r="AB34" s="108"/>
       <c r="AC34" s="152"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="B35" s="104" t="s">
         <v>200</v>
-      </c>
-      <c r="B35" s="104" t="s">
-        <v>201</v>
       </c>
       <c r="C35" s="108"/>
       <c r="D35" s="150"/>
       <c r="F35" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="G35" s="104" t="s">
         <v>200</v>
-      </c>
-      <c r="G35" s="104" t="s">
-        <v>201</v>
       </c>
       <c r="H35" s="108"/>
       <c r="I35" s="150"/>
       <c r="K35" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="L35" s="104" t="s">
         <v>202</v>
-      </c>
-      <c r="L35" s="104" t="s">
-        <v>203</v>
       </c>
       <c r="M35" s="108"/>
       <c r="N35" s="150"/>
       <c r="P35" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q35" s="104" t="s">
         <v>202</v>
-      </c>
-      <c r="Q35" s="104" t="s">
-        <v>203</v>
       </c>
       <c r="R35" s="119"/>
       <c r="S35" s="150"/>
       <c r="U35" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="V35" s="104" t="s">
         <v>202</v>
-      </c>
-      <c r="V35" s="104" t="s">
-        <v>203</v>
       </c>
       <c r="W35" s="108"/>
       <c r="X35" s="152"/>
       <c r="Z35" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="AA35" s="104" t="s">
         <v>202</v>
-      </c>
-      <c r="AA35" s="104" t="s">
-        <v>203</v>
       </c>
       <c r="AB35" s="108"/>
       <c r="AC35" s="152"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="B36" s="104" t="s">
         <v>202</v>
-      </c>
-      <c r="B36" s="104" t="s">
-        <v>203</v>
       </c>
       <c r="C36" s="108"/>
       <c r="D36" s="150"/>
       <c r="F36" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="G36" s="104" t="s">
         <v>202</v>
-      </c>
-      <c r="G36" s="104" t="s">
-        <v>203</v>
       </c>
       <c r="H36" s="108"/>
       <c r="I36" s="150"/>
       <c r="K36" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="L36" s="104" t="s">
         <v>204</v>
-      </c>
-      <c r="L36" s="104" t="s">
-        <v>205</v>
       </c>
       <c r="M36" s="108"/>
       <c r="N36" s="150"/>
       <c r="P36" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q36" s="104" t="s">
         <v>204</v>
-      </c>
-      <c r="Q36" s="104" t="s">
-        <v>205</v>
       </c>
       <c r="R36" s="119"/>
       <c r="S36" s="150"/>
       <c r="U36" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="V36" s="104" t="s">
         <v>204</v>
-      </c>
-      <c r="V36" s="104" t="s">
-        <v>205</v>
       </c>
       <c r="W36" s="108"/>
       <c r="X36" s="152"/>
       <c r="Z36" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="AA36" s="104" t="s">
         <v>204</v>
-      </c>
-      <c r="AA36" s="104" t="s">
-        <v>205</v>
       </c>
       <c r="AB36" s="108"/>
       <c r="AC36" s="152"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="B37" s="104" t="s">
         <v>204</v>
-      </c>
-      <c r="B37" s="104" t="s">
-        <v>205</v>
       </c>
       <c r="C37" s="108"/>
       <c r="D37" s="150"/>
       <c r="F37" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="G37" s="104" t="s">
         <v>204</v>
-      </c>
-      <c r="G37" s="104" t="s">
-        <v>205</v>
       </c>
       <c r="H37" s="108"/>
       <c r="I37" s="150"/>
       <c r="K37" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="L37" s="104" t="s">
         <v>207</v>
-      </c>
-      <c r="L37" s="104" t="s">
-        <v>208</v>
       </c>
       <c r="M37" s="108"/>
       <c r="N37" s="150"/>
       <c r="P37" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q37" s="104" t="s">
         <v>207</v>
-      </c>
-      <c r="Q37" s="104" t="s">
-        <v>208</v>
       </c>
       <c r="R37" s="119"/>
       <c r="S37" s="150"/>
       <c r="U37" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="V37" s="104" t="s">
         <v>207</v>
-      </c>
-      <c r="V37" s="104" t="s">
-        <v>208</v>
       </c>
       <c r="W37" s="108"/>
       <c r="X37" s="150"/>
       <c r="Z37" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="AA37" s="104" t="s">
         <v>207</v>
-      </c>
-      <c r="AA37" s="104" t="s">
-        <v>208</v>
       </c>
       <c r="AB37" s="108"/>
       <c r="AC37" s="150"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="B38" s="104" t="s">
         <v>207</v>
-      </c>
-      <c r="B38" s="104" t="s">
-        <v>208</v>
       </c>
       <c r="C38" s="108"/>
       <c r="D38" s="150"/>
       <c r="F38" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="G38" s="104" t="s">
         <v>207</v>
-      </c>
-      <c r="G38" s="104" t="s">
-        <v>208</v>
       </c>
       <c r="H38" s="108"/>
       <c r="I38" s="150"/>
       <c r="K38" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="L38" s="104" t="s">
         <v>209</v>
-      </c>
-      <c r="L38" s="104" t="s">
-        <v>210</v>
       </c>
       <c r="M38" s="108"/>
       <c r="N38" s="150"/>
       <c r="P38" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q38" s="104" t="s">
         <v>209</v>
-      </c>
-      <c r="Q38" s="104" t="s">
-        <v>210</v>
       </c>
       <c r="R38" s="119"/>
       <c r="S38" s="150"/>
       <c r="U38" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="V38" s="104" t="s">
         <v>209</v>
-      </c>
-      <c r="V38" s="104" t="s">
-        <v>210</v>
       </c>
       <c r="W38" s="108"/>
       <c r="X38" s="152"/>
       <c r="Z38" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="AA38" s="104" t="s">
         <v>209</v>
-      </c>
-      <c r="AA38" s="104" t="s">
-        <v>210</v>
       </c>
       <c r="AB38" s="108"/>
       <c r="AC38" s="152"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="B39" s="104" t="s">
         <v>209</v>
-      </c>
-      <c r="B39" s="104" t="s">
-        <v>210</v>
       </c>
       <c r="C39" s="108"/>
       <c r="D39" s="150"/>
       <c r="F39" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="G39" s="104" t="s">
         <v>209</v>
-      </c>
-      <c r="G39" s="104" t="s">
-        <v>210</v>
       </c>
       <c r="H39" s="108"/>
       <c r="I39" s="150"/>
       <c r="K39" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="L39" s="104" t="s">
         <v>211</v>
-      </c>
-      <c r="L39" s="104" t="s">
-        <v>212</v>
       </c>
       <c r="M39" s="108"/>
       <c r="N39" s="150"/>
       <c r="P39" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q39" s="104" t="s">
         <v>211</v>
-      </c>
-      <c r="Q39" s="104" t="s">
-        <v>212</v>
       </c>
       <c r="R39" s="119"/>
       <c r="S39" s="150"/>
       <c r="U39" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="V39" s="104" t="s">
         <v>211</v>
-      </c>
-      <c r="V39" s="104" t="s">
-        <v>212</v>
       </c>
       <c r="W39" s="108"/>
       <c r="X39" s="152"/>
       <c r="Z39" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="AA39" s="104" t="s">
         <v>211</v>
-      </c>
-      <c r="AA39" s="104" t="s">
-        <v>212</v>
       </c>
       <c r="AB39" s="108"/>
       <c r="AC39" s="152"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="B40" s="104" t="s">
         <v>211</v>
-      </c>
-      <c r="B40" s="104" t="s">
-        <v>212</v>
       </c>
       <c r="C40" s="108"/>
       <c r="D40" s="150"/>
       <c r="F40" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="G40" s="104" t="s">
         <v>211</v>
-      </c>
-      <c r="G40" s="104" t="s">
-        <v>212</v>
       </c>
       <c r="H40" s="108"/>
       <c r="I40" s="150"/>
       <c r="K40" s="19" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L40" s="104" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M40" s="108"/>
       <c r="N40" s="150"/>
       <c r="P40" s="120" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q40" s="121" t="s">
         <v>213</v>
-      </c>
-      <c r="Q40" s="121" t="s">
-        <v>214</v>
       </c>
       <c r="R40" s="121"/>
       <c r="S40" s="150"/>
       <c r="U40" s="120" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="V40" s="123" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="W40" s="123"/>
       <c r="X40" s="152"/>
       <c r="Z40" s="120" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AA40" s="123" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AB40" s="123"/>
       <c r="AC40" s="152"/>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="19" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B41" s="104" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C41" s="108"/>
       <c r="D41" s="150"/>
       <c r="F41" s="19" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G41" s="104" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H41" s="108"/>
       <c r="I41" s="150"/>
       <c r="K41" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="L41" s="115" t="s">
         <v>215</v>
       </c>
-      <c r="L41" s="115" t="s">
-        <v>216</v>
-      </c>
       <c r="M41" s="116" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N41" s="151"/>
       <c r="P41" s="120"/>
@@ -9300,23 +9297,23 @@
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="B42" s="115" t="s">
         <v>215</v>
       </c>
-      <c r="B42" s="115" t="s">
-        <v>216</v>
-      </c>
       <c r="C42" s="116" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D42" s="151"/>
       <c r="F42" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="G42" s="115" t="s">
         <v>215</v>
       </c>
-      <c r="G42" s="115" t="s">
-        <v>216</v>
-      </c>
       <c r="H42" s="116" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I42" s="151"/>
       <c r="K42" s="106"/>
@@ -9350,33 +9347,33 @@
       <c r="M43" s="126"/>
       <c r="N43" s="127"/>
       <c r="P43" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q43" s="115" t="s">
         <v>215</v>
       </c>
-      <c r="Q43" s="115" t="s">
-        <v>216</v>
-      </c>
       <c r="R43" s="116" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S43" s="151"/>
       <c r="U43" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="V43" s="115" t="s">
         <v>215</v>
       </c>
-      <c r="V43" s="115" t="s">
-        <v>216</v>
-      </c>
       <c r="W43" s="116" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="X43" s="151"/>
       <c r="Z43" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="AA43" s="115" t="s">
         <v>215</v>
       </c>
-      <c r="AA43" s="115" t="s">
-        <v>216</v>
-      </c>
       <c r="AB43" s="116" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC43" s="151"/>
     </row>
@@ -9417,91 +9414,91 @@
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="128" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="129"/>
       <c r="B51" s="106" t="s">
+        <v>227</v>
+      </c>
+      <c r="C51" s="125" t="s">
         <v>228</v>
-      </c>
-      <c r="C51" s="125" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="130"/>
       <c r="B52" s="106" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C52" s="125" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="131"/>
       <c r="B53" s="106" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C53" s="125" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="132"/>
       <c r="B54" s="106" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C54" s="125" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="133"/>
       <c r="B55" s="106" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C55" s="125" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="134"/>
       <c r="B56" s="106" t="s">
+        <v>233</v>
+      </c>
+      <c r="C56" s="125" t="s">
         <v>234</v>
-      </c>
-      <c r="C56" s="125" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="135"/>
       <c r="B57" s="106" t="s">
+        <v>235</v>
+      </c>
+      <c r="C57" s="125" t="s">
         <v>236</v>
-      </c>
-      <c r="C57" s="125" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="136"/>
       <c r="B58" s="106" t="s">
+        <v>237</v>
+      </c>
+      <c r="C58" s="125" t="s">
         <v>238</v>
-      </c>
-      <c r="C58" s="125" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="137"/>
       <c r="B59" s="106" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C59" s="125" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/var/plan.xlsx
+++ b/var/plan.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1499" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1501" uniqueCount="283">
   <si>
     <t xml:space="preserve">PLAN COMPTABLE DGB CONSTRUCTION 2020</t>
   </si>
@@ -556,6 +556,9 @@
   </si>
   <si>
     <t xml:space="preserve">FACTURATION CLIENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">706000 / 706010 / 706020</t>
   </si>
   <si>
     <t xml:space="preserve">REMBOURSEMENT SINISTRE ASSURANCE</t>
@@ -2378,9 +2381,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1159560</xdr:colOff>
+      <xdr:colOff>1159200</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>64080</xdr:rowOff>
+      <xdr:rowOff>63720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2389,8 +2392,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5318640" y="536400"/>
-          <a:ext cx="792360" cy="365760"/>
+          <a:off x="4881960" y="536400"/>
+          <a:ext cx="792000" cy="365400"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -2429,9 +2432,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1169280</xdr:colOff>
+      <xdr:colOff>1168920</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>64080</xdr:rowOff>
+      <xdr:rowOff>63720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2440,8 +2443,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5328360" y="917280"/>
-          <a:ext cx="792360" cy="365760"/>
+          <a:off x="4891680" y="917280"/>
+          <a:ext cx="792000" cy="365400"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -2480,9 +2483,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1189080</xdr:colOff>
+      <xdr:colOff>1188720</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
+      <xdr:rowOff>73440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2491,8 +2494,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5348160" y="1308240"/>
-          <a:ext cx="792360" cy="365760"/>
+          <a:off x="4911480" y="1308240"/>
+          <a:ext cx="792000" cy="365400"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -2531,9 +2534,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1179360</xdr:colOff>
+      <xdr:colOff>1179000</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>74160</xdr:rowOff>
+      <xdr:rowOff>73800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2542,8 +2545,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5338440" y="1689480"/>
-          <a:ext cx="792360" cy="365760"/>
+          <a:off x="4901760" y="1689480"/>
+          <a:ext cx="792000" cy="365400"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -2582,9 +2585,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1179360</xdr:colOff>
+      <xdr:colOff>1179000</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>64080</xdr:rowOff>
+      <xdr:rowOff>63720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2593,8 +2596,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5338440" y="2060280"/>
-          <a:ext cx="792360" cy="365760"/>
+          <a:off x="4901760" y="2060280"/>
+          <a:ext cx="792000" cy="365400"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -2633,9 +2636,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1179360</xdr:colOff>
+      <xdr:colOff>1179000</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
+      <xdr:rowOff>73440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2644,8 +2647,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5338440" y="2451240"/>
-          <a:ext cx="792360" cy="365760"/>
+          <a:off x="4901760" y="2451240"/>
+          <a:ext cx="792000" cy="365400"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -2684,9 +2687,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1189080</xdr:colOff>
+      <xdr:colOff>1188720</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>64080</xdr:rowOff>
+      <xdr:rowOff>63720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2695,8 +2698,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5348160" y="2822400"/>
-          <a:ext cx="792360" cy="365760"/>
+          <a:off x="4911480" y="2822400"/>
+          <a:ext cx="792000" cy="365400"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -2735,9 +2738,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1189080</xdr:colOff>
+      <xdr:colOff>1188720</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>2160</xdr:rowOff>
+      <xdr:rowOff>1800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2746,8 +2749,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5348160" y="3213360"/>
-          <a:ext cx="792360" cy="293760"/>
+          <a:off x="4911480" y="3213360"/>
+          <a:ext cx="792000" cy="293400"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -2786,9 +2789,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1189080</xdr:colOff>
+      <xdr:colOff>1188720</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>54000</xdr:rowOff>
+      <xdr:rowOff>53640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2797,8 +2800,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5348160" y="3574440"/>
-          <a:ext cx="792360" cy="365760"/>
+          <a:off x="4911480" y="3574440"/>
+          <a:ext cx="792000" cy="365400"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -2837,9 +2840,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1161720</xdr:colOff>
+      <xdr:colOff>1161360</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>375120</xdr:rowOff>
+      <xdr:rowOff>374760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2848,8 +2851,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5368320" y="4346280"/>
-          <a:ext cx="744840" cy="295920"/>
+          <a:off x="4931640" y="4346280"/>
+          <a:ext cx="744480" cy="295560"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -2888,9 +2891,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1209240</xdr:colOff>
+      <xdr:colOff>1208880</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>64080</xdr:rowOff>
+      <xdr:rowOff>63720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2899,8 +2902,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5368320" y="3965400"/>
-          <a:ext cx="792360" cy="365760"/>
+          <a:off x="4931640" y="3965400"/>
+          <a:ext cx="792000" cy="365400"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -2939,9 +2942,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1188000</xdr:colOff>
+      <xdr:colOff>1187640</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>7920</xdr:rowOff>
+      <xdr:rowOff>7560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2950,8 +2953,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5394600" y="4736520"/>
-          <a:ext cx="744840" cy="300600"/>
+          <a:off x="4957920" y="4736520"/>
+          <a:ext cx="744480" cy="300240"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -2990,9 +2993,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1188000</xdr:colOff>
+      <xdr:colOff>1187640</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>340200</xdr:rowOff>
+      <xdr:rowOff>339840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3001,8 +3004,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5394600" y="5073480"/>
-          <a:ext cx="744840" cy="295920"/>
+          <a:off x="4957920" y="5073480"/>
+          <a:ext cx="744480" cy="295560"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -3042,19 +3045,19 @@
   </sheetPr>
   <dimension ref="A1:L96"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="B46" colorId="64" zoomScale="100" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D66" activeCellId="0" sqref="D66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="55.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="2" width="38.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="18.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="18.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="42" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4127,32 +4130,30 @@
       <c r="A65" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="B65" s="12"/>
+      <c r="B65" s="12" t="s">
+        <v>162</v>
+      </c>
       <c r="C65" s="83"/>
-      <c r="D65" s="56" t="n">
-        <v>706000</v>
+      <c r="D65" s="56" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="11"/>
       <c r="B66" s="19"/>
       <c r="C66" s="20"/>
-      <c r="D66" s="58" t="n">
-        <v>706010</v>
-      </c>
+      <c r="D66" s="58"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="11"/>
       <c r="B67" s="19"/>
       <c r="C67" s="20"/>
-      <c r="D67" s="58" t="n">
-        <v>706020</v>
-      </c>
+      <c r="D67" s="58"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="11"/>
       <c r="B68" s="57" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C68" s="84"/>
       <c r="D68" s="58" t="n">
@@ -4167,7 +4168,7 @@
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="66" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B70" s="67"/>
       <c r="C70" s="67"/>
@@ -4268,22 +4269,22 @@
       <selection pane="topLeft" activeCell="J47" activeCellId="0" sqref="J47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="95" width="12.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="95" width="12.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="95" width="12.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="95" width="21.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="11.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="11.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="11.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="12.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="55.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="96" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B1" s="96"/>
       <c r="C1" s="96"/>
@@ -4317,38 +4318,38 @@
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="3" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="97" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B3" s="97"/>
       <c r="C3" s="97"/>
       <c r="D3" s="97"/>
       <c r="E3" s="98"/>
       <c r="F3" s="97" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G3" s="97"/>
       <c r="H3" s="97"/>
       <c r="I3" s="97"/>
       <c r="K3" s="97" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L3" s="97"/>
       <c r="M3" s="97"/>
       <c r="N3" s="97"/>
       <c r="P3" s="97" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q3" s="97"/>
       <c r="R3" s="97"/>
       <c r="S3" s="97"/>
       <c r="U3" s="97" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="V3" s="97"/>
       <c r="W3" s="97"/>
       <c r="X3" s="97"/>
       <c r="Z3" s="97" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AA3" s="97"/>
       <c r="AB3" s="97"/>
@@ -4356,1216 +4357,1216 @@
     </row>
     <row r="4" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="99" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B4" s="100" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C4" s="100" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D4" s="101" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E4" s="102"/>
       <c r="F4" s="99" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G4" s="100" t="s">
+        <v>174</v>
+      </c>
+      <c r="H4" s="100" t="s">
+        <v>175</v>
+      </c>
+      <c r="I4" s="103" t="s">
+        <v>176</v>
+      </c>
+      <c r="K4" s="99" t="s">
         <v>173</v>
       </c>
-      <c r="H4" s="100" t="s">
+      <c r="L4" s="100" t="s">
         <v>174</v>
       </c>
-      <c r="I4" s="103" t="s">
+      <c r="M4" s="100" t="s">
         <v>175</v>
       </c>
-      <c r="K4" s="99" t="s">
-        <v>172</v>
-      </c>
-      <c r="L4" s="100" t="s">
+      <c r="N4" s="103" t="s">
+        <v>176</v>
+      </c>
+      <c r="P4" s="99" t="s">
         <v>173</v>
       </c>
-      <c r="M4" s="100" t="s">
+      <c r="Q4" s="100" t="s">
         <v>174</v>
       </c>
-      <c r="N4" s="103" t="s">
+      <c r="R4" s="100" t="s">
         <v>175</v>
       </c>
-      <c r="P4" s="99" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q4" s="100" t="s">
+      <c r="S4" s="103" t="s">
+        <v>176</v>
+      </c>
+      <c r="U4" s="99" t="s">
         <v>173</v>
       </c>
-      <c r="R4" s="100" t="s">
+      <c r="V4" s="100" t="s">
         <v>174</v>
       </c>
-      <c r="S4" s="103" t="s">
+      <c r="W4" s="100" t="s">
         <v>175</v>
       </c>
-      <c r="U4" s="99" t="s">
-        <v>172</v>
-      </c>
-      <c r="V4" s="100" t="s">
+      <c r="X4" s="103" t="s">
+        <v>176</v>
+      </c>
+      <c r="Z4" s="99" t="s">
         <v>173</v>
       </c>
-      <c r="W4" s="100" t="s">
+      <c r="AA4" s="100" t="s">
         <v>174</v>
       </c>
-      <c r="X4" s="103" t="s">
+      <c r="AB4" s="100" t="s">
         <v>175</v>
       </c>
-      <c r="Z4" s="99" t="s">
-        <v>172</v>
-      </c>
-      <c r="AA4" s="100" t="s">
-        <v>173</v>
-      </c>
-      <c r="AB4" s="100" t="s">
-        <v>174</v>
-      </c>
       <c r="AC4" s="103" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="19" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B5" s="104" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C5" s="22"/>
       <c r="D5" s="105" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E5" s="106"/>
       <c r="F5" s="19" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G5" s="104" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H5" s="22"/>
       <c r="I5" s="105" t="s">
+        <v>179</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="L5" s="104" t="s">
         <v>178</v>
-      </c>
-      <c r="K5" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="L5" s="104" t="s">
-        <v>177</v>
       </c>
       <c r="M5" s="22"/>
       <c r="N5" s="105" t="s">
+        <v>179</v>
+      </c>
+      <c r="P5" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q5" s="104" t="s">
         <v>178</v>
-      </c>
-      <c r="P5" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q5" s="104" t="s">
-        <v>177</v>
       </c>
       <c r="R5" s="22"/>
       <c r="S5" s="105" t="s">
+        <v>179</v>
+      </c>
+      <c r="U5" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="V5" s="104" t="s">
         <v>178</v>
-      </c>
-      <c r="U5" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="V5" s="104" t="s">
-        <v>177</v>
       </c>
       <c r="W5" s="22"/>
       <c r="X5" s="28"/>
       <c r="Z5" s="19" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AA5" s="104" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AB5" s="22"/>
       <c r="AC5" s="28"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="19" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B6" s="104" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C6" s="22"/>
       <c r="D6" s="107"/>
       <c r="E6" s="106"/>
       <c r="F6" s="19" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G6" s="104" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H6" s="22"/>
       <c r="I6" s="107"/>
       <c r="K6" s="19" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L6" s="104" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M6" s="22"/>
       <c r="N6" s="107"/>
       <c r="P6" s="19" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q6" s="104" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="R6" s="22"/>
       <c r="S6" s="107"/>
       <c r="U6" s="19" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="V6" s="104" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="W6" s="22"/>
       <c r="X6" s="28"/>
       <c r="Z6" s="19" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AA6" s="104" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AB6" s="22"/>
       <c r="AC6" s="28"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="19" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B7" s="104" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C7" s="108" t="s">
         <v>28</v>
       </c>
       <c r="D7" s="109" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E7" s="106"/>
       <c r="F7" s="19" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G7" s="104" t="s">
+        <v>183</v>
+      </c>
+      <c r="H7" s="108" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="K7" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="H7" s="108" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" s="109" t="s">
-        <v>178</v>
-      </c>
-      <c r="K7" s="19" t="s">
-        <v>181</v>
-      </c>
       <c r="L7" s="104" t="s">
+        <v>183</v>
+      </c>
+      <c r="M7" s="108" t="s">
+        <v>28</v>
+      </c>
+      <c r="N7" s="109" t="s">
+        <v>179</v>
+      </c>
+      <c r="P7" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="M7" s="108" t="s">
-        <v>28</v>
-      </c>
-      <c r="N7" s="109" t="s">
-        <v>178</v>
-      </c>
-      <c r="P7" s="19" t="s">
-        <v>181</v>
-      </c>
       <c r="Q7" s="104" t="s">
+        <v>183</v>
+      </c>
+      <c r="R7" s="108" t="s">
+        <v>28</v>
+      </c>
+      <c r="S7" s="110" t="s">
+        <v>184</v>
+      </c>
+      <c r="U7" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="R7" s="108" t="s">
-        <v>28</v>
-      </c>
-      <c r="S7" s="110" t="s">
+      <c r="V7" s="104" t="s">
         <v>183</v>
       </c>
-      <c r="U7" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="V7" s="104" t="s">
+      <c r="W7" s="108" t="s">
+        <v>28</v>
+      </c>
+      <c r="X7" s="110" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z7" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="W7" s="108" t="s">
-        <v>28</v>
-      </c>
-      <c r="X7" s="110" t="s">
+      <c r="AA7" s="104" t="s">
         <v>183</v>
       </c>
-      <c r="Z7" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="AA7" s="104" t="s">
-        <v>182</v>
-      </c>
       <c r="AB7" s="108" t="s">
         <v>28</v>
       </c>
       <c r="AC7" s="110" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="19" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B8" s="104" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C8" s="108"/>
       <c r="D8" s="111" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E8" s="106"/>
       <c r="F8" s="19" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G8" s="104" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H8" s="108"/>
       <c r="I8" s="111" t="s">
+        <v>187</v>
+      </c>
+      <c r="K8" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="L8" s="104" t="s">
         <v>186</v>
-      </c>
-      <c r="K8" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="L8" s="104" t="s">
-        <v>185</v>
       </c>
       <c r="M8" s="108"/>
       <c r="N8" s="111" t="s">
+        <v>187</v>
+      </c>
+      <c r="P8" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q8" s="104" t="s">
         <v>186</v>
-      </c>
-      <c r="P8" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q8" s="104" t="s">
-        <v>185</v>
       </c>
       <c r="R8" s="108"/>
       <c r="S8" s="111" t="s">
+        <v>187</v>
+      </c>
+      <c r="U8" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="V8" s="104" t="s">
         <v>186</v>
-      </c>
-      <c r="U8" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="V8" s="104" t="s">
-        <v>185</v>
       </c>
       <c r="W8" s="108"/>
       <c r="X8" s="111" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z8" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="AA8" s="104" t="s">
         <v>186</v>
-      </c>
-      <c r="Z8" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="AA8" s="104" t="s">
-        <v>185</v>
       </c>
       <c r="AB8" s="108"/>
       <c r="AC8" s="111" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="B9" s="104" t="s">
+        <v>189</v>
+      </c>
+      <c r="C9" s="108" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="111" t="s">
         <v>187</v>
-      </c>
-      <c r="B9" s="104" t="s">
-        <v>188</v>
-      </c>
-      <c r="C9" s="108" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="111" t="s">
-        <v>186</v>
       </c>
       <c r="E9" s="106"/>
       <c r="F9" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="G9" s="104" t="s">
+        <v>189</v>
+      </c>
+      <c r="H9" s="108" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="111" t="s">
         <v>187</v>
       </c>
-      <c r="G9" s="104" t="s">
+      <c r="K9" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="H9" s="108" t="s">
-        <v>28</v>
-      </c>
-      <c r="I9" s="111" t="s">
-        <v>186</v>
-      </c>
-      <c r="K9" s="19" t="s">
+      <c r="L9" s="104" t="s">
+        <v>189</v>
+      </c>
+      <c r="M9" s="108" t="s">
+        <v>28</v>
+      </c>
+      <c r="N9" s="111" t="s">
         <v>187</v>
       </c>
-      <c r="L9" s="104" t="s">
+      <c r="P9" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="M9" s="108" t="s">
-        <v>28</v>
-      </c>
-      <c r="N9" s="111" t="s">
-        <v>186</v>
-      </c>
-      <c r="P9" s="19" t="s">
+      <c r="Q9" s="104" t="s">
+        <v>189</v>
+      </c>
+      <c r="R9" s="108" t="s">
+        <v>28</v>
+      </c>
+      <c r="S9" s="111" t="s">
         <v>187</v>
       </c>
-      <c r="Q9" s="104" t="s">
+      <c r="U9" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="R9" s="108" t="s">
-        <v>28</v>
-      </c>
-      <c r="S9" s="111" t="s">
-        <v>186</v>
-      </c>
-      <c r="U9" s="19" t="s">
+      <c r="V9" s="104" t="s">
+        <v>189</v>
+      </c>
+      <c r="W9" s="108" t="s">
+        <v>28</v>
+      </c>
+      <c r="X9" s="111" t="s">
         <v>187</v>
       </c>
-      <c r="V9" s="104" t="s">
+      <c r="Z9" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="W9" s="108" t="s">
-        <v>28</v>
-      </c>
-      <c r="X9" s="111" t="s">
-        <v>186</v>
-      </c>
-      <c r="Z9" s="19" t="s">
+      <c r="AA9" s="104" t="s">
+        <v>189</v>
+      </c>
+      <c r="AB9" s="108" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC9" s="111" t="s">
         <v>187</v>
-      </c>
-      <c r="AA9" s="104" t="s">
-        <v>188</v>
-      </c>
-      <c r="AB9" s="108" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC9" s="111" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="19" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B10" s="104" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C10" s="108" t="s">
         <v>28</v>
       </c>
       <c r="D10" s="112" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E10" s="106"/>
       <c r="F10" s="19" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G10" s="104" t="s">
+        <v>191</v>
+      </c>
+      <c r="H10" s="108" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="112" t="s">
+        <v>192</v>
+      </c>
+      <c r="K10" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="H10" s="108" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" s="112" t="s">
+      <c r="L10" s="104" t="s">
         <v>191</v>
       </c>
-      <c r="K10" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="L10" s="104" t="s">
+      <c r="M10" s="108" t="s">
+        <v>28</v>
+      </c>
+      <c r="N10" s="112" t="s">
+        <v>192</v>
+      </c>
+      <c r="P10" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="M10" s="108" t="s">
-        <v>28</v>
-      </c>
-      <c r="N10" s="112" t="s">
+      <c r="Q10" s="104" t="s">
         <v>191</v>
       </c>
-      <c r="P10" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q10" s="104" t="s">
+      <c r="R10" s="108" t="s">
+        <v>28</v>
+      </c>
+      <c r="S10" s="112" t="s">
+        <v>192</v>
+      </c>
+      <c r="U10" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="R10" s="108" t="s">
-        <v>28</v>
-      </c>
-      <c r="S10" s="112" t="s">
+      <c r="V10" s="104" t="s">
         <v>191</v>
       </c>
-      <c r="U10" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="V10" s="104" t="s">
+      <c r="W10" s="108" t="s">
+        <v>28</v>
+      </c>
+      <c r="X10" s="112" t="s">
+        <v>192</v>
+      </c>
+      <c r="Z10" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="W10" s="108" t="s">
-        <v>28</v>
-      </c>
-      <c r="X10" s="112" t="s">
+      <c r="AA10" s="104" t="s">
         <v>191</v>
       </c>
-      <c r="Z10" s="19" t="s">
-        <v>189</v>
-      </c>
-      <c r="AA10" s="104" t="s">
-        <v>190</v>
-      </c>
       <c r="AB10" s="108" t="s">
         <v>28</v>
       </c>
       <c r="AC10" s="113" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="19" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B11" s="104" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C11" s="108"/>
       <c r="D11" s="107"/>
       <c r="E11" s="106"/>
       <c r="F11" s="19" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G11" s="104" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H11" s="108"/>
       <c r="I11" s="107"/>
       <c r="K11" s="19" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L11" s="104" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M11" s="108"/>
       <c r="N11" s="107"/>
       <c r="P11" s="19" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q11" s="104" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="R11" s="108"/>
       <c r="S11" s="107"/>
       <c r="U11" s="19" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="V11" s="104" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="W11" s="108"/>
       <c r="X11" s="28"/>
       <c r="Z11" s="19" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AA11" s="104" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AB11" s="108"/>
       <c r="AC11" s="28"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="19" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B12" s="104" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C12" s="108" t="s">
         <v>22</v>
       </c>
       <c r="D12" s="109" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E12" s="106"/>
       <c r="F12" s="19" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G12" s="104" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H12" s="108" t="s">
         <v>22</v>
       </c>
       <c r="I12" s="109" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K12" s="19" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L12" s="104" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M12" s="108" t="s">
         <v>22</v>
       </c>
       <c r="N12" s="109" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P12" s="19" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q12" s="104" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="R12" s="108" t="s">
         <v>22</v>
       </c>
       <c r="S12" s="109" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="U12" s="19" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="V12" s="104" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="W12" s="108" t="s">
         <v>22</v>
       </c>
       <c r="X12" s="109" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Z12" s="19" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AA12" s="104" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AB12" s="108" t="s">
         <v>22</v>
       </c>
       <c r="AC12" s="109" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="19" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B13" s="104" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C13" s="108"/>
       <c r="D13" s="112" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E13" s="106"/>
       <c r="F13" s="19" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G13" s="104" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H13" s="108"/>
       <c r="I13" s="112" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K13" s="19" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L13" s="104" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M13" s="108"/>
       <c r="N13" s="112" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P13" s="19" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q13" s="104" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="R13" s="108"/>
       <c r="S13" s="112" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="U13" s="19" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="V13" s="104" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="W13" s="108"/>
       <c r="X13" s="112" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Z13" s="19" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AA13" s="104" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AB13" s="108"/>
       <c r="AC13" s="112" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="19" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B14" s="104" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C14" s="108"/>
       <c r="D14" s="109" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E14" s="106"/>
       <c r="F14" s="19" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G14" s="104" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H14" s="108"/>
       <c r="I14" s="109" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K14" s="19" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L14" s="104" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M14" s="108"/>
       <c r="N14" s="109" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P14" s="19" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q14" s="104" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="R14" s="108"/>
       <c r="S14" s="110" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="U14" s="19" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="V14" s="104" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="W14" s="108"/>
       <c r="X14" s="110" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Z14" s="19" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AA14" s="104" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AB14" s="108"/>
       <c r="AC14" s="110" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="19" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B15" s="104" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C15" s="108"/>
       <c r="D15" s="109" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E15" s="106"/>
       <c r="F15" s="19" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G15" s="104" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H15" s="108"/>
       <c r="I15" s="109" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K15" s="19" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L15" s="104" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M15" s="108"/>
       <c r="N15" s="109" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P15" s="19" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q15" s="104" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="R15" s="108"/>
       <c r="S15" s="109" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="U15" s="19" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="V15" s="104" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="W15" s="108"/>
       <c r="X15" s="109" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Z15" s="19" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AA15" s="104" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AB15" s="108"/>
       <c r="AC15" s="110" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B16" s="104" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C16" s="108"/>
       <c r="D16" s="114" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E16" s="106"/>
       <c r="F16" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G16" s="104" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H16" s="108"/>
       <c r="I16" s="114" t="s">
+        <v>206</v>
+      </c>
+      <c r="K16" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="L16" s="104" t="s">
         <v>205</v>
-      </c>
-      <c r="K16" s="19" t="s">
-        <v>203</v>
-      </c>
-      <c r="L16" s="104" t="s">
-        <v>204</v>
       </c>
       <c r="M16" s="108"/>
       <c r="N16" s="114" t="s">
+        <v>206</v>
+      </c>
+      <c r="P16" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q16" s="104" t="s">
         <v>205</v>
-      </c>
-      <c r="P16" s="19" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q16" s="104" t="s">
-        <v>204</v>
       </c>
       <c r="R16" s="108"/>
       <c r="S16" s="114" t="s">
+        <v>206</v>
+      </c>
+      <c r="U16" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="V16" s="104" t="s">
         <v>205</v>
-      </c>
-      <c r="U16" s="19" t="s">
-        <v>203</v>
-      </c>
-      <c r="V16" s="104" t="s">
-        <v>204</v>
       </c>
       <c r="W16" s="108"/>
       <c r="X16" s="114" t="s">
+        <v>206</v>
+      </c>
+      <c r="Z16" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="AA16" s="104" t="s">
         <v>205</v>
-      </c>
-      <c r="Z16" s="19" t="s">
-        <v>203</v>
-      </c>
-      <c r="AA16" s="104" t="s">
-        <v>204</v>
       </c>
       <c r="AB16" s="108"/>
       <c r="AC16" s="114" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="19" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B17" s="104" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C17" s="108"/>
       <c r="D17" s="109" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E17" s="106"/>
       <c r="F17" s="19" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G17" s="104" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H17" s="108"/>
       <c r="I17" s="109" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K17" s="19" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L17" s="104" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M17" s="108"/>
       <c r="N17" s="109" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P17" s="19" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q17" s="104" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="R17" s="108"/>
       <c r="S17" s="109" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="U17" s="19" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="V17" s="104" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="W17" s="108"/>
       <c r="X17" s="109" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Z17" s="19" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AA17" s="104" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AB17" s="108"/>
       <c r="AC17" s="109" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="19" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B18" s="104" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C18" s="108"/>
       <c r="D18" s="109" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E18" s="106"/>
       <c r="F18" s="19" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G18" s="104" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H18" s="108"/>
       <c r="I18" s="109" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K18" s="19" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L18" s="104" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M18" s="108"/>
       <c r="N18" s="109" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P18" s="19" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q18" s="104" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="R18" s="108"/>
       <c r="S18" s="109" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="U18" s="19" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="V18" s="104" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="W18" s="108"/>
       <c r="X18" s="109" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Z18" s="19" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AA18" s="104" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AB18" s="108"/>
       <c r="AC18" s="109" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="19" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B19" s="104" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C19" s="108"/>
       <c r="D19" s="114" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E19" s="106"/>
       <c r="F19" s="19" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G19" s="104" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H19" s="108"/>
       <c r="I19" s="114" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K19" s="19" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L19" s="104" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M19" s="108"/>
       <c r="N19" s="114" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P19" s="19" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q19" s="104" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="R19" s="108"/>
       <c r="S19" s="114" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="U19" s="19" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="V19" s="104" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="W19" s="108"/>
       <c r="X19" s="114" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Z19" s="19" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AA19" s="104" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AB19" s="108"/>
       <c r="AC19" s="114" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="19" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B20" s="104" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C20" s="108"/>
       <c r="D20" s="109" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E20" s="106"/>
       <c r="F20" s="19" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G20" s="104" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H20" s="108"/>
       <c r="I20" s="109" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K20" s="19" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L20" s="104" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M20" s="108"/>
       <c r="N20" s="109" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P20" s="19" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q20" s="104" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="R20" s="108"/>
       <c r="S20" s="109" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="U20" s="19" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="V20" s="104" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="W20" s="108"/>
       <c r="X20" s="109" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Z20" s="19" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AA20" s="104" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AB20" s="108"/>
       <c r="AC20" s="109" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="33" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B21" s="115" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C21" s="116" t="s">
         <v>28</v>
       </c>
       <c r="D21" s="117" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E21" s="106"/>
       <c r="F21" s="33" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G21" s="115" t="s">
+        <v>216</v>
+      </c>
+      <c r="H21" s="116" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" s="117" t="s">
+        <v>179</v>
+      </c>
+      <c r="K21" s="33" t="s">
         <v>215</v>
       </c>
-      <c r="H21" s="116" t="s">
-        <v>28</v>
-      </c>
-      <c r="I21" s="117" t="s">
-        <v>178</v>
-      </c>
-      <c r="K21" s="33" t="s">
-        <v>214</v>
-      </c>
       <c r="L21" s="115" t="s">
+        <v>216</v>
+      </c>
+      <c r="M21" s="116" t="s">
+        <v>28</v>
+      </c>
+      <c r="N21" s="117" t="s">
+        <v>179</v>
+      </c>
+      <c r="P21" s="33" t="s">
         <v>215</v>
       </c>
-      <c r="M21" s="116" t="s">
-        <v>28</v>
-      </c>
-      <c r="N21" s="117" t="s">
-        <v>178</v>
-      </c>
-      <c r="P21" s="33" t="s">
-        <v>214</v>
-      </c>
       <c r="Q21" s="115" t="s">
+        <v>216</v>
+      </c>
+      <c r="R21" s="116" t="s">
+        <v>28</v>
+      </c>
+      <c r="S21" s="117" t="s">
+        <v>179</v>
+      </c>
+      <c r="U21" s="33" t="s">
         <v>215</v>
       </c>
-      <c r="R21" s="116" t="s">
-        <v>28</v>
-      </c>
-      <c r="S21" s="117" t="s">
-        <v>178</v>
-      </c>
-      <c r="U21" s="33" t="s">
-        <v>214</v>
-      </c>
       <c r="V21" s="115" t="s">
+        <v>216</v>
+      </c>
+      <c r="W21" s="116" t="s">
+        <v>28</v>
+      </c>
+      <c r="X21" s="117" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z21" s="33" t="s">
         <v>215</v>
       </c>
-      <c r="W21" s="116" t="s">
-        <v>28</v>
-      </c>
-      <c r="X21" s="117" t="s">
-        <v>178</v>
-      </c>
-      <c r="Z21" s="33" t="s">
-        <v>214</v>
-      </c>
       <c r="AA21" s="115" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AB21" s="116" t="s">
         <v>28</v>
       </c>
       <c r="AC21" s="117" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="25" customFormat="false" ht="23.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="97" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B25" s="97"/>
       <c r="C25" s="97"/>
       <c r="D25" s="97"/>
       <c r="F25" s="97" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G25" s="97"/>
       <c r="H25" s="97"/>
       <c r="I25" s="97"/>
       <c r="K25" s="97" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L25" s="97"/>
       <c r="M25" s="97"/>
       <c r="N25" s="97"/>
       <c r="P25" s="97" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q25" s="97"/>
       <c r="R25" s="97"/>
       <c r="S25" s="97"/>
       <c r="U25" s="97" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="V25" s="97"/>
       <c r="W25" s="97"/>
       <c r="X25" s="97"/>
       <c r="Z25" s="97" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AA25" s="97"/>
       <c r="AB25" s="97"/>
@@ -5573,242 +5574,242 @@
     </row>
     <row r="26" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="99" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B26" s="100" t="s">
+        <v>174</v>
+      </c>
+      <c r="C26" s="100" t="s">
+        <v>175</v>
+      </c>
+      <c r="D26" s="101" t="s">
+        <v>176</v>
+      </c>
+      <c r="F26" s="99" t="s">
         <v>173</v>
       </c>
-      <c r="C26" s="100" t="s">
+      <c r="G26" s="100" t="s">
         <v>174</v>
       </c>
-      <c r="D26" s="101" t="s">
+      <c r="H26" s="100" t="s">
         <v>175</v>
       </c>
-      <c r="F26" s="99" t="s">
-        <v>172</v>
-      </c>
-      <c r="G26" s="100" t="s">
+      <c r="I26" s="103" t="s">
+        <v>176</v>
+      </c>
+      <c r="K26" s="99" t="s">
         <v>173</v>
       </c>
-      <c r="H26" s="100" t="s">
+      <c r="L26" s="100" t="s">
         <v>174</v>
       </c>
-      <c r="I26" s="103" t="s">
+      <c r="M26" s="100" t="s">
         <v>175</v>
       </c>
-      <c r="K26" s="99" t="s">
-        <v>172</v>
-      </c>
-      <c r="L26" s="100" t="s">
+      <c r="N26" s="103" t="s">
+        <v>176</v>
+      </c>
+      <c r="P26" s="99" t="s">
         <v>173</v>
       </c>
-      <c r="M26" s="100" t="s">
+      <c r="Q26" s="100" t="s">
         <v>174</v>
       </c>
-      <c r="N26" s="103" t="s">
+      <c r="R26" s="100" t="s">
         <v>175</v>
       </c>
-      <c r="P26" s="99" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q26" s="100" t="s">
+      <c r="S26" s="103" t="s">
+        <v>176</v>
+      </c>
+      <c r="U26" s="99" t="s">
         <v>173</v>
       </c>
-      <c r="R26" s="100" t="s">
+      <c r="V26" s="100" t="s">
         <v>174</v>
       </c>
-      <c r="S26" s="103" t="s">
+      <c r="W26" s="100" t="s">
         <v>175</v>
       </c>
-      <c r="U26" s="99" t="s">
-        <v>172</v>
-      </c>
-      <c r="V26" s="100" t="s">
+      <c r="X26" s="103" t="s">
+        <v>176</v>
+      </c>
+      <c r="Z26" s="99" t="s">
         <v>173</v>
       </c>
-      <c r="W26" s="100" t="s">
+      <c r="AA26" s="100" t="s">
         <v>174</v>
       </c>
-      <c r="X26" s="103" t="s">
+      <c r="AB26" s="100" t="s">
         <v>175</v>
       </c>
-      <c r="Z26" s="99" t="s">
-        <v>172</v>
-      </c>
-      <c r="AA26" s="100" t="s">
-        <v>173</v>
-      </c>
-      <c r="AB26" s="100" t="s">
-        <v>174</v>
-      </c>
       <c r="AC26" s="103" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="19" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B27" s="104" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C27" s="22"/>
       <c r="D27" s="118"/>
       <c r="F27" s="19" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G27" s="104" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H27" s="22"/>
       <c r="I27" s="118"/>
       <c r="K27" s="19" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L27" s="104" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M27" s="22"/>
       <c r="N27" s="118"/>
       <c r="P27" s="19" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q27" s="104" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="R27" s="104"/>
       <c r="S27" s="107"/>
       <c r="U27" s="19" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="V27" s="104" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="W27" s="22"/>
       <c r="X27" s="28"/>
       <c r="Z27" s="19" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AA27" s="104" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AB27" s="22"/>
       <c r="AC27" s="28"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="19" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B28" s="104" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C28" s="22"/>
       <c r="D28" s="118"/>
       <c r="F28" s="19" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G28" s="104" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H28" s="22"/>
       <c r="I28" s="118"/>
       <c r="K28" s="19" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L28" s="104" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M28" s="22"/>
       <c r="N28" s="118"/>
       <c r="P28" s="19" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q28" s="104" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="R28" s="104"/>
       <c r="S28" s="107"/>
       <c r="U28" s="19" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="V28" s="104" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="W28" s="22"/>
       <c r="X28" s="28"/>
       <c r="Z28" s="19" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AA28" s="104" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AB28" s="22"/>
       <c r="AC28" s="28"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="19" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B29" s="104" t="s">
+        <v>183</v>
+      </c>
+      <c r="C29" s="108" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="110" t="s">
+        <v>184</v>
+      </c>
+      <c r="F29" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="C29" s="108" t="s">
-        <v>28</v>
-      </c>
-      <c r="D29" s="110" t="s">
+      <c r="G29" s="104" t="s">
         <v>183</v>
       </c>
-      <c r="F29" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="G29" s="104" t="s">
+      <c r="H29" s="108" t="s">
+        <v>28</v>
+      </c>
+      <c r="I29" s="110" t="s">
+        <v>184</v>
+      </c>
+      <c r="K29" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="H29" s="108" t="s">
-        <v>28</v>
-      </c>
-      <c r="I29" s="110" t="s">
+      <c r="L29" s="104" t="s">
         <v>183</v>
       </c>
-      <c r="K29" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="L29" s="104" t="s">
+      <c r="M29" s="108" t="s">
+        <v>28</v>
+      </c>
+      <c r="N29" s="110" t="s">
+        <v>184</v>
+      </c>
+      <c r="P29" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="M29" s="108" t="s">
-        <v>28</v>
-      </c>
-      <c r="N29" s="110" t="s">
+      <c r="Q29" s="104" t="s">
         <v>183</v>
       </c>
-      <c r="P29" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q29" s="104" t="s">
+      <c r="R29" s="108" t="s">
+        <v>28</v>
+      </c>
+      <c r="S29" s="110" t="s">
+        <v>184</v>
+      </c>
+      <c r="U29" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="R29" s="108" t="s">
-        <v>28</v>
-      </c>
-      <c r="S29" s="110" t="s">
+      <c r="V29" s="104" t="s">
         <v>183</v>
-      </c>
-      <c r="U29" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="V29" s="104" t="s">
-        <v>182</v>
       </c>
       <c r="W29" s="108" t="s">
         <v>28</v>
       </c>
       <c r="X29" s="50"/>
       <c r="Z29" s="19" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AA29" s="104" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AB29" s="108" t="s">
         <v>28</v>
@@ -5817,126 +5818,126 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="19" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B30" s="104" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C30" s="108"/>
       <c r="D30" s="111" t="s">
+        <v>187</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="G30" s="104" t="s">
         <v>186</v>
-      </c>
-      <c r="F30" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="G30" s="104" t="s">
-        <v>185</v>
       </c>
       <c r="H30" s="108"/>
       <c r="I30" s="111" t="s">
+        <v>187</v>
+      </c>
+      <c r="K30" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="L30" s="104" t="s">
         <v>186</v>
-      </c>
-      <c r="K30" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="L30" s="104" t="s">
-        <v>185</v>
       </c>
       <c r="M30" s="108"/>
       <c r="N30" s="111" t="s">
+        <v>187</v>
+      </c>
+      <c r="P30" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q30" s="104" t="s">
         <v>186</v>
-      </c>
-      <c r="P30" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q30" s="104" t="s">
-        <v>185</v>
       </c>
       <c r="R30" s="108"/>
       <c r="S30" s="111" t="s">
+        <v>187</v>
+      </c>
+      <c r="U30" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="V30" s="104" t="s">
         <v>186</v>
-      </c>
-      <c r="U30" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="V30" s="104" t="s">
-        <v>185</v>
       </c>
       <c r="W30" s="108"/>
       <c r="X30" s="50"/>
       <c r="Z30" s="19" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AA30" s="104" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AB30" s="108"/>
       <c r="AC30" s="50"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="B31" s="104" t="s">
+        <v>189</v>
+      </c>
+      <c r="C31" s="108" t="s">
+        <v>28</v>
+      </c>
+      <c r="D31" s="111" t="s">
         <v>187</v>
       </c>
-      <c r="B31" s="104" t="s">
+      <c r="F31" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="C31" s="108" t="s">
-        <v>28</v>
-      </c>
-      <c r="D31" s="111" t="s">
-        <v>186</v>
-      </c>
-      <c r="F31" s="19" t="s">
+      <c r="G31" s="104" t="s">
+        <v>189</v>
+      </c>
+      <c r="H31" s="108" t="s">
+        <v>28</v>
+      </c>
+      <c r="I31" s="111" t="s">
         <v>187</v>
       </c>
-      <c r="G31" s="104" t="s">
+      <c r="K31" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="H31" s="108" t="s">
-        <v>28</v>
-      </c>
-      <c r="I31" s="111" t="s">
-        <v>186</v>
-      </c>
-      <c r="K31" s="19" t="s">
+      <c r="L31" s="104" t="s">
+        <v>189</v>
+      </c>
+      <c r="M31" s="108" t="s">
+        <v>28</v>
+      </c>
+      <c r="N31" s="111" t="s">
         <v>187</v>
       </c>
-      <c r="L31" s="104" t="s">
+      <c r="P31" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="M31" s="108" t="s">
-        <v>28</v>
-      </c>
-      <c r="N31" s="111" t="s">
-        <v>186</v>
-      </c>
-      <c r="P31" s="19" t="s">
+      <c r="Q31" s="104" t="s">
+        <v>189</v>
+      </c>
+      <c r="R31" s="108" t="s">
+        <v>28</v>
+      </c>
+      <c r="S31" s="111" t="s">
         <v>187</v>
       </c>
-      <c r="Q31" s="104" t="s">
+      <c r="U31" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="R31" s="108" t="s">
-        <v>28</v>
-      </c>
-      <c r="S31" s="111" t="s">
-        <v>186</v>
-      </c>
-      <c r="U31" s="19" t="s">
-        <v>187</v>
-      </c>
       <c r="V31" s="104" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="W31" s="108" t="s">
         <v>28</v>
       </c>
       <c r="X31" s="50"/>
       <c r="Z31" s="19" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AA31" s="104" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AB31" s="108" t="s">
         <v>28</v>
@@ -5945,68 +5946,68 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="19" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B32" s="104" t="s">
+        <v>191</v>
+      </c>
+      <c r="C32" s="108" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" s="113" t="s">
+        <v>193</v>
+      </c>
+      <c r="F32" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="C32" s="108" t="s">
-        <v>28</v>
-      </c>
-      <c r="D32" s="113" t="s">
-        <v>192</v>
-      </c>
-      <c r="F32" s="19" t="s">
-        <v>189</v>
-      </c>
       <c r="G32" s="104" t="s">
+        <v>191</v>
+      </c>
+      <c r="H32" s="108" t="s">
+        <v>28</v>
+      </c>
+      <c r="I32" s="113" t="s">
+        <v>193</v>
+      </c>
+      <c r="K32" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="H32" s="108" t="s">
-        <v>28</v>
-      </c>
-      <c r="I32" s="113" t="s">
-        <v>192</v>
-      </c>
-      <c r="K32" s="19" t="s">
-        <v>189</v>
-      </c>
       <c r="L32" s="104" t="s">
+        <v>191</v>
+      </c>
+      <c r="M32" s="108" t="s">
+        <v>28</v>
+      </c>
+      <c r="N32" s="113" t="s">
+        <v>193</v>
+      </c>
+      <c r="P32" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="M32" s="108" t="s">
-        <v>28</v>
-      </c>
-      <c r="N32" s="113" t="s">
-        <v>192</v>
-      </c>
-      <c r="P32" s="19" t="s">
-        <v>189</v>
-      </c>
       <c r="Q32" s="104" t="s">
+        <v>191</v>
+      </c>
+      <c r="R32" s="108" t="s">
+        <v>28</v>
+      </c>
+      <c r="S32" s="113" t="s">
+        <v>193</v>
+      </c>
+      <c r="U32" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="R32" s="108" t="s">
-        <v>28</v>
-      </c>
-      <c r="S32" s="113" t="s">
-        <v>192</v>
-      </c>
-      <c r="U32" s="19" t="s">
-        <v>189</v>
-      </c>
       <c r="V32" s="104" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="W32" s="108" t="s">
         <v>28</v>
       </c>
       <c r="X32" s="50"/>
       <c r="Z32" s="19" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AA32" s="104" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AB32" s="108" t="s">
         <v>28</v>
@@ -6015,638 +6016,638 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="19" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B33" s="104" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C33" s="108"/>
       <c r="D33" s="118"/>
       <c r="F33" s="19" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G33" s="104" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H33" s="108"/>
       <c r="I33" s="118"/>
       <c r="K33" s="19" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L33" s="104" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M33" s="108"/>
       <c r="N33" s="118"/>
       <c r="P33" s="19" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q33" s="104" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="R33" s="119"/>
       <c r="S33" s="107"/>
       <c r="U33" s="19" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="V33" s="104" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="W33" s="108"/>
       <c r="X33" s="28"/>
       <c r="Z33" s="19" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AA33" s="104" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AB33" s="108"/>
       <c r="AC33" s="28"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="19" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B34" s="104" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C34" s="108" t="s">
         <v>22</v>
       </c>
       <c r="D34" s="109" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F34" s="19" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G34" s="104" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H34" s="108" t="s">
         <v>22</v>
       </c>
       <c r="I34" s="113" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K34" s="19" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L34" s="104" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M34" s="108" t="s">
         <v>22</v>
       </c>
       <c r="N34" s="113" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P34" s="19" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q34" s="104" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="R34" s="119" t="s">
         <v>22</v>
       </c>
       <c r="S34" s="113" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="U34" s="19" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="V34" s="104" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="W34" s="108" t="s">
         <v>22</v>
       </c>
       <c r="X34" s="109" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Z34" s="19" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AA34" s="104" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AB34" s="108" t="s">
         <v>22</v>
       </c>
       <c r="AC34" s="109" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="19" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B35" s="104" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C35" s="108"/>
       <c r="D35" s="112" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F35" s="19" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G35" s="104" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H35" s="108"/>
       <c r="I35" s="112" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K35" s="19" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L35" s="104" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M35" s="108"/>
       <c r="N35" s="112" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P35" s="19" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q35" s="104" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="R35" s="119"/>
       <c r="S35" s="113" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="U35" s="19" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="V35" s="104" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="W35" s="108"/>
       <c r="X35" s="50"/>
       <c r="Z35" s="19" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AA35" s="104" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AB35" s="108"/>
       <c r="AC35" s="50"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="19" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B36" s="104" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C36" s="108"/>
       <c r="D36" s="110" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F36" s="19" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G36" s="104" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H36" s="108"/>
       <c r="I36" s="110" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K36" s="19" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L36" s="104" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M36" s="108"/>
       <c r="N36" s="110" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P36" s="19" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q36" s="104" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="R36" s="119"/>
       <c r="S36" s="110" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="U36" s="19" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="V36" s="104" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="W36" s="108"/>
       <c r="X36" s="50"/>
       <c r="Z36" s="19" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AA36" s="104" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AB36" s="108"/>
       <c r="AC36" s="50"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="19" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B37" s="104" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C37" s="108"/>
       <c r="D37" s="110" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F37" s="19" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G37" s="104" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H37" s="108"/>
       <c r="I37" s="110" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K37" s="19" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L37" s="104" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M37" s="108"/>
       <c r="N37" s="110" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P37" s="19" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q37" s="104" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="R37" s="119"/>
       <c r="S37" s="110" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="U37" s="19" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="V37" s="104" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="W37" s="108"/>
       <c r="X37" s="50"/>
       <c r="Z37" s="19" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AA37" s="104" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AB37" s="108"/>
       <c r="AC37" s="50"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B38" s="104" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C38" s="108"/>
       <c r="D38" s="114" t="s">
+        <v>206</v>
+      </c>
+      <c r="F38" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="G38" s="104" t="s">
         <v>205</v>
-      </c>
-      <c r="F38" s="19" t="s">
-        <v>203</v>
-      </c>
-      <c r="G38" s="104" t="s">
-        <v>204</v>
       </c>
       <c r="H38" s="108"/>
       <c r="I38" s="114" t="s">
+        <v>206</v>
+      </c>
+      <c r="K38" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="L38" s="104" t="s">
         <v>205</v>
-      </c>
-      <c r="K38" s="19" t="s">
-        <v>203</v>
-      </c>
-      <c r="L38" s="104" t="s">
-        <v>204</v>
       </c>
       <c r="M38" s="108"/>
       <c r="N38" s="112" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P38" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q38" s="104" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="R38" s="119"/>
       <c r="S38" s="112" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="U38" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="V38" s="104" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="W38" s="108"/>
       <c r="X38" s="50"/>
       <c r="Z38" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AA38" s="104" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AB38" s="108"/>
       <c r="AC38" s="50"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="19" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B39" s="104" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C39" s="108"/>
       <c r="D39" s="111" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F39" s="19" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G39" s="104" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H39" s="108"/>
       <c r="I39" s="111" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K39" s="19" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L39" s="104" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M39" s="108"/>
       <c r="N39" s="111" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P39" s="19" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q39" s="104" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="R39" s="119"/>
       <c r="S39" s="111" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="U39" s="19" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="V39" s="104" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="W39" s="108"/>
       <c r="X39" s="109" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Z39" s="19" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AA39" s="104" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AB39" s="108"/>
       <c r="AC39" s="109" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="19" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B40" s="104" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C40" s="108"/>
       <c r="D40" s="109" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F40" s="19" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G40" s="104" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H40" s="108"/>
       <c r="I40" s="109" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K40" s="19" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L40" s="104" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M40" s="108"/>
       <c r="N40" s="110" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P40" s="19" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q40" s="104" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="R40" s="119"/>
       <c r="S40" s="110" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="U40" s="19" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="V40" s="104" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="W40" s="108"/>
       <c r="X40" s="50"/>
       <c r="Z40" s="19" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AA40" s="104" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AB40" s="108"/>
       <c r="AC40" s="50"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="19" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B41" s="104" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C41" s="108"/>
       <c r="D41" s="114" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F41" s="19" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G41" s="104" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H41" s="108"/>
       <c r="I41" s="114" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K41" s="19" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L41" s="104" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M41" s="108"/>
       <c r="N41" s="114" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P41" s="19" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q41" s="104" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="R41" s="119"/>
       <c r="S41" s="114" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="U41" s="19" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="V41" s="104" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="W41" s="108"/>
       <c r="X41" s="50"/>
       <c r="Z41" s="19" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AA41" s="104" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AB41" s="108"/>
       <c r="AC41" s="50"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="19" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B42" s="104" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C42" s="108"/>
       <c r="D42" s="109" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F42" s="19" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G42" s="104" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H42" s="108"/>
       <c r="I42" s="109" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K42" s="19" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L42" s="104" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M42" s="108"/>
       <c r="N42" s="109" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P42" s="120" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q42" s="121" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="R42" s="121"/>
       <c r="S42" s="122" t="s">
+        <v>224</v>
+      </c>
+      <c r="U42" s="120" t="s">
+        <v>213</v>
+      </c>
+      <c r="V42" s="123" t="s">
         <v>223</v>
-      </c>
-      <c r="U42" s="120" t="s">
-        <v>212</v>
-      </c>
-      <c r="V42" s="123" t="s">
-        <v>222</v>
       </c>
       <c r="W42" s="123"/>
       <c r="X42" s="50"/>
       <c r="Z42" s="120" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AA42" s="123" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AB42" s="123"/>
       <c r="AC42" s="50"/>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="33" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B43" s="115" t="s">
+        <v>216</v>
+      </c>
+      <c r="C43" s="116" t="s">
+        <v>28</v>
+      </c>
+      <c r="D43" s="117" t="s">
+        <v>179</v>
+      </c>
+      <c r="F43" s="33" t="s">
         <v>215</v>
       </c>
-      <c r="C43" s="116" t="s">
-        <v>28</v>
-      </c>
-      <c r="D43" s="117" t="s">
-        <v>178</v>
-      </c>
-      <c r="F43" s="33" t="s">
-        <v>214</v>
-      </c>
       <c r="G43" s="115" t="s">
+        <v>216</v>
+      </c>
+      <c r="H43" s="116" t="s">
+        <v>28</v>
+      </c>
+      <c r="I43" s="117" t="s">
+        <v>179</v>
+      </c>
+      <c r="K43" s="33" t="s">
         <v>215</v>
       </c>
-      <c r="H43" s="116" t="s">
-        <v>28</v>
-      </c>
-      <c r="I43" s="117" t="s">
-        <v>178</v>
-      </c>
-      <c r="K43" s="33" t="s">
-        <v>214</v>
-      </c>
       <c r="L43" s="115" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M43" s="116" t="s">
         <v>28</v>
       </c>
       <c r="N43" s="117" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P43" s="120"/>
       <c r="Q43" s="121"/>
       <c r="R43" s="121"/>
       <c r="S43" s="124" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="U43" s="120"/>
       <c r="V43" s="123"/>
@@ -6674,7 +6675,7 @@
       <c r="Q44" s="121"/>
       <c r="R44" s="121"/>
       <c r="S44" s="110" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="U44" s="120"/>
       <c r="V44" s="123"/>
@@ -6699,40 +6700,40 @@
       <c r="M45" s="126"/>
       <c r="N45" s="127"/>
       <c r="P45" s="33" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q45" s="115" t="s">
+        <v>216</v>
+      </c>
+      <c r="R45" s="116" t="s">
+        <v>28</v>
+      </c>
+      <c r="S45" s="117" t="s">
+        <v>179</v>
+      </c>
+      <c r="U45" s="33" t="s">
         <v>215</v>
       </c>
-      <c r="R45" s="116" t="s">
-        <v>28</v>
-      </c>
-      <c r="S45" s="117" t="s">
-        <v>178</v>
-      </c>
-      <c r="U45" s="33" t="s">
-        <v>214</v>
-      </c>
       <c r="V45" s="115" t="s">
+        <v>216</v>
+      </c>
+      <c r="W45" s="116" t="s">
+        <v>28</v>
+      </c>
+      <c r="X45" s="117" t="s">
+        <v>179</v>
+      </c>
+      <c r="Z45" s="33" t="s">
         <v>215</v>
       </c>
-      <c r="W45" s="116" t="s">
-        <v>28</v>
-      </c>
-      <c r="X45" s="117" t="s">
-        <v>178</v>
-      </c>
-      <c r="Z45" s="33" t="s">
-        <v>214</v>
-      </c>
       <c r="AA45" s="115" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AB45" s="116" t="s">
         <v>28</v>
       </c>
       <c r="AC45" s="117" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6764,91 +6765,91 @@
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="128" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="129"/>
       <c r="B52" s="106" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C52" s="125" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="130"/>
       <c r="B53" s="106" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C53" s="125" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="131"/>
       <c r="B54" s="106" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C54" s="125" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="132"/>
       <c r="B55" s="106" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C55" s="125" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="133"/>
       <c r="B56" s="106" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C56" s="125" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="134"/>
       <c r="B57" s="106" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C57" s="125" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="135"/>
       <c r="B58" s="106" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C58" s="125" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="136"/>
       <c r="B59" s="106" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C59" s="125" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="137"/>
       <c r="B60" s="106" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C60" s="125" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -6894,36 +6895,36 @@
       <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="40.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="138" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B1" s="138" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C1" s="138"/>
       <c r="D1" s="139" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="22" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B2" s="140" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C2" s="22"/>
       <c r="D2" s="104" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6935,75 +6936,75 @@
       </c>
       <c r="C3" s="22"/>
       <c r="D3" s="104" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="22" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B4" s="140" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C4" s="22"/>
       <c r="D4" s="104" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="22" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B5" s="140" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C5" s="22"/>
       <c r="D5" s="104" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="22" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B6" s="140" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C6" s="22"/>
       <c r="D6" s="104" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="22" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B7" s="140" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C7" s="22"/>
       <c r="D7" s="104" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="22" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B8" s="140" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C8" s="22"/>
       <c r="D8" s="104" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="22" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B9" s="140" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C9" s="22"/>
       <c r="D9" s="104" t="s">
@@ -7012,62 +7013,62 @@
     </row>
     <row r="10" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="22" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B10" s="140" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C10" s="22"/>
       <c r="D10" s="104" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="22" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B11" s="140" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C11" s="22"/>
       <c r="D11" s="104" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="22" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B12" s="140" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C12" s="22"/>
       <c r="D12" s="104" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="41" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B13" s="140" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C13" s="22"/>
       <c r="D13" s="104" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="41" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B14" s="140" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C14" s="22"/>
       <c r="D14" s="104" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -7093,25 +7094,25 @@
       <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="32.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="18.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="141" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C2" s="142" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D2" s="143"/>
       <c r="E2" s="144" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7122,14 +7123,14 @@
     </row>
     <row r="4" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="145" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C4" s="146" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D4" s="145"/>
       <c r="E4" s="147" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7141,75 +7142,75 @@
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="104" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="22" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C6" s="140" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="104" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="22" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C7" s="140" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="104" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="22" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C8" s="140" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D8" s="22"/>
       <c r="E8" s="104" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="22" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C9" s="140" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="104" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="22" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C10" s="140" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="104" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="22" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C11" s="140" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="104" t="s">
@@ -7218,62 +7219,62 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="22" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C12" s="140" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="104" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="22" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C13" s="140" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D13" s="22"/>
       <c r="E13" s="104" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="22" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C14" s="140" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="104" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="41" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C15" s="140" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="104" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="41" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C16" s="140" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D16" s="22"/>
       <c r="E16" s="104" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -7304,22 +7305,22 @@
       <selection pane="topLeft" activeCell="AC44" activeCellId="0" sqref="AC44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="95" width="12.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="95" width="12.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="95" width="12.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="95" width="21.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="11.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="11.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="11.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="12.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="55.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="96" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B1" s="96"/>
       <c r="C1" s="96"/>
@@ -7353,38 +7354,38 @@
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="3" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="97" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B3" s="97"/>
       <c r="C3" s="97"/>
       <c r="D3" s="97"/>
       <c r="E3" s="98"/>
       <c r="F3" s="97" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G3" s="97"/>
       <c r="H3" s="97"/>
       <c r="I3" s="97"/>
       <c r="K3" s="97" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L3" s="97"/>
       <c r="M3" s="97"/>
       <c r="N3" s="97"/>
       <c r="P3" s="97" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q3" s="97"/>
       <c r="R3" s="97"/>
       <c r="S3" s="97"/>
       <c r="U3" s="97" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="V3" s="97"/>
       <c r="W3" s="97"/>
       <c r="X3" s="97"/>
       <c r="Z3" s="97" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AA3" s="97"/>
       <c r="AB3" s="97"/>
@@ -7392,183 +7393,183 @@
     </row>
     <row r="4" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="99" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B4" s="100" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C4" s="100" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D4" s="101" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E4" s="102"/>
       <c r="F4" s="99" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G4" s="100" t="s">
+        <v>174</v>
+      </c>
+      <c r="H4" s="100" t="s">
+        <v>175</v>
+      </c>
+      <c r="I4" s="103" t="s">
+        <v>176</v>
+      </c>
+      <c r="K4" s="99" t="s">
         <v>173</v>
       </c>
-      <c r="H4" s="100" t="s">
+      <c r="L4" s="100" t="s">
         <v>174</v>
       </c>
-      <c r="I4" s="103" t="s">
+      <c r="M4" s="100" t="s">
         <v>175</v>
       </c>
-      <c r="K4" s="99" t="s">
-        <v>172</v>
-      </c>
-      <c r="L4" s="100" t="s">
+      <c r="N4" s="103" t="s">
+        <v>176</v>
+      </c>
+      <c r="P4" s="99" t="s">
         <v>173</v>
       </c>
-      <c r="M4" s="100" t="s">
+      <c r="Q4" s="100" t="s">
         <v>174</v>
       </c>
-      <c r="N4" s="103" t="s">
+      <c r="R4" s="100" t="s">
         <v>175</v>
       </c>
-      <c r="P4" s="99" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q4" s="100" t="s">
+      <c r="S4" s="103" t="s">
+        <v>176</v>
+      </c>
+      <c r="U4" s="99" t="s">
         <v>173</v>
       </c>
-      <c r="R4" s="100" t="s">
+      <c r="V4" s="100" t="s">
         <v>174</v>
       </c>
-      <c r="S4" s="103" t="s">
+      <c r="W4" s="100" t="s">
         <v>175</v>
       </c>
-      <c r="U4" s="99" t="s">
-        <v>172</v>
-      </c>
-      <c r="V4" s="100" t="s">
+      <c r="X4" s="103" t="s">
+        <v>176</v>
+      </c>
+      <c r="Z4" s="99" t="s">
         <v>173</v>
       </c>
-      <c r="W4" s="100" t="s">
+      <c r="AA4" s="100" t="s">
         <v>174</v>
       </c>
-      <c r="X4" s="103" t="s">
+      <c r="AB4" s="100" t="s">
         <v>175</v>
       </c>
-      <c r="Z4" s="99" t="s">
-        <v>172</v>
-      </c>
-      <c r="AA4" s="100" t="s">
-        <v>173</v>
-      </c>
-      <c r="AB4" s="100" t="s">
-        <v>174</v>
-      </c>
       <c r="AC4" s="103" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="19" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B5" s="104" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C5" s="22"/>
       <c r="D5" s="148"/>
       <c r="E5" s="106"/>
       <c r="F5" s="19" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G5" s="104" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H5" s="22"/>
       <c r="I5" s="148"/>
       <c r="K5" s="19" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L5" s="104" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M5" s="22"/>
       <c r="N5" s="148"/>
       <c r="P5" s="19" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q5" s="104" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="R5" s="22"/>
       <c r="S5" s="148"/>
       <c r="U5" s="19" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="V5" s="104" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="W5" s="22"/>
       <c r="X5" s="149"/>
       <c r="Z5" s="19" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AA5" s="104" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AB5" s="22"/>
       <c r="AC5" s="149"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="19" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B6" s="104" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C6" s="22"/>
       <c r="D6" s="148"/>
       <c r="E6" s="106"/>
       <c r="F6" s="19" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G6" s="104" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H6" s="22"/>
       <c r="I6" s="148"/>
       <c r="K6" s="19" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L6" s="104" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M6" s="108" t="s">
         <v>28</v>
       </c>
       <c r="N6" s="150"/>
       <c r="P6" s="19" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q6" s="104" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="R6" s="108" t="s">
         <v>28</v>
       </c>
       <c r="S6" s="150"/>
       <c r="U6" s="19" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="V6" s="104" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="W6" s="108" t="s">
         <v>28</v>
       </c>
       <c r="X6" s="150"/>
       <c r="Z6" s="19" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AA6" s="104" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AB6" s="108" t="s">
         <v>28</v>
@@ -7577,10 +7578,10 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="19" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B7" s="104" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C7" s="108" t="s">
         <v>28</v>
@@ -7588,101 +7589,101 @@
       <c r="D7" s="150"/>
       <c r="E7" s="106"/>
       <c r="F7" s="19" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G7" s="104" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H7" s="108" t="s">
         <v>28</v>
       </c>
       <c r="I7" s="150"/>
       <c r="K7" s="19" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L7" s="104" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M7" s="108"/>
       <c r="N7" s="150"/>
       <c r="P7" s="19" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q7" s="104" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="R7" s="108"/>
       <c r="S7" s="150"/>
       <c r="U7" s="19" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="V7" s="104" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="W7" s="108"/>
       <c r="X7" s="150"/>
       <c r="Z7" s="19" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AA7" s="104" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AB7" s="108"/>
       <c r="AC7" s="150"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="19" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B8" s="104" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C8" s="108"/>
       <c r="D8" s="150"/>
       <c r="E8" s="106"/>
       <c r="F8" s="19" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G8" s="104" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H8" s="108"/>
       <c r="I8" s="150"/>
       <c r="K8" s="19" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L8" s="104" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M8" s="108" t="s">
         <v>28</v>
       </c>
       <c r="N8" s="150"/>
       <c r="P8" s="19" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q8" s="104" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="R8" s="108" t="s">
         <v>28</v>
       </c>
       <c r="S8" s="150"/>
       <c r="U8" s="19" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="V8" s="104" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="W8" s="108" t="s">
         <v>28</v>
       </c>
       <c r="X8" s="150"/>
       <c r="Z8" s="19" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AA8" s="104" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AB8" s="108" t="s">
         <v>28</v>
@@ -7691,10 +7692,10 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="19" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B9" s="104" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C9" s="108" t="s">
         <v>28</v>
@@ -7702,50 +7703,50 @@
       <c r="D9" s="150"/>
       <c r="E9" s="106"/>
       <c r="F9" s="19" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G9" s="104" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H9" s="108" t="s">
         <v>28</v>
       </c>
       <c r="I9" s="150"/>
       <c r="K9" s="19" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L9" s="104" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M9" s="108" t="s">
         <v>28</v>
       </c>
       <c r="N9" s="150"/>
       <c r="P9" s="19" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q9" s="104" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="R9" s="108" t="s">
         <v>28</v>
       </c>
       <c r="S9" s="150"/>
       <c r="U9" s="19" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="V9" s="104" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="W9" s="108" t="s">
         <v>28</v>
       </c>
       <c r="X9" s="150"/>
       <c r="Z9" s="19" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AA9" s="104" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AB9" s="108" t="s">
         <v>28</v>
@@ -7754,10 +7755,10 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="19" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B10" s="104" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C10" s="108" t="s">
         <v>28</v>
@@ -7765,101 +7766,101 @@
       <c r="D10" s="150"/>
       <c r="E10" s="106"/>
       <c r="F10" s="19" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G10" s="104" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H10" s="108" t="s">
         <v>28</v>
       </c>
       <c r="I10" s="150"/>
       <c r="K10" s="19" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L10" s="104" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M10" s="108"/>
       <c r="N10" s="148"/>
       <c r="P10" s="19" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q10" s="104" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="R10" s="108"/>
       <c r="S10" s="148"/>
       <c r="U10" s="19" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="V10" s="104" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="W10" s="108"/>
       <c r="X10" s="149"/>
       <c r="Z10" s="19" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AA10" s="104" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AB10" s="108"/>
       <c r="AC10" s="149"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="19" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B11" s="104" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C11" s="108"/>
       <c r="D11" s="148"/>
       <c r="E11" s="106"/>
       <c r="F11" s="19" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G11" s="104" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H11" s="108"/>
       <c r="I11" s="148"/>
       <c r="K11" s="19" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L11" s="104" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M11" s="108" t="s">
         <v>22</v>
       </c>
       <c r="N11" s="150"/>
       <c r="P11" s="19" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q11" s="104" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="R11" s="108" t="s">
         <v>22</v>
       </c>
       <c r="S11" s="150"/>
       <c r="U11" s="19" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="V11" s="104" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="W11" s="108" t="s">
         <v>22</v>
       </c>
       <c r="X11" s="150"/>
       <c r="Z11" s="19" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AA11" s="104" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AB11" s="108" t="s">
         <v>22</v>
@@ -7868,10 +7869,10 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="19" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B12" s="104" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C12" s="108" t="s">
         <v>22</v>
@@ -7879,458 +7880,458 @@
       <c r="D12" s="150"/>
       <c r="E12" s="106"/>
       <c r="F12" s="19" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G12" s="104" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H12" s="108" t="s">
         <v>22</v>
       </c>
       <c r="I12" s="150"/>
       <c r="K12" s="19" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L12" s="104" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M12" s="108"/>
       <c r="N12" s="150"/>
       <c r="P12" s="19" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q12" s="104" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="R12" s="108"/>
       <c r="S12" s="150"/>
       <c r="U12" s="19" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="V12" s="104" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="W12" s="108"/>
       <c r="X12" s="150"/>
       <c r="Z12" s="19" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AA12" s="104" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AB12" s="108"/>
       <c r="AC12" s="150"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="19" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B13" s="104" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C13" s="108"/>
       <c r="D13" s="150"/>
       <c r="E13" s="106"/>
       <c r="F13" s="19" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G13" s="104" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H13" s="108"/>
       <c r="I13" s="150"/>
       <c r="K13" s="19" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L13" s="104" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M13" s="108"/>
       <c r="N13" s="150"/>
       <c r="P13" s="19" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q13" s="104" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="R13" s="108"/>
       <c r="S13" s="150"/>
       <c r="U13" s="19" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="V13" s="104" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="W13" s="108"/>
       <c r="X13" s="150"/>
       <c r="Z13" s="19" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AA13" s="104" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AB13" s="108"/>
       <c r="AC13" s="150"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="19" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B14" s="104" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C14" s="108"/>
       <c r="D14" s="150"/>
       <c r="E14" s="106"/>
       <c r="F14" s="19" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G14" s="104" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H14" s="108"/>
       <c r="I14" s="150"/>
       <c r="K14" s="19" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L14" s="104" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M14" s="108"/>
       <c r="N14" s="150"/>
       <c r="P14" s="19" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q14" s="104" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="R14" s="108"/>
       <c r="S14" s="150"/>
       <c r="U14" s="19" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="V14" s="104" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="W14" s="108"/>
       <c r="X14" s="150"/>
       <c r="Z14" s="19" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AA14" s="104" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AB14" s="108"/>
       <c r="AC14" s="150"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="19" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B15" s="104" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C15" s="108"/>
       <c r="D15" s="150"/>
       <c r="E15" s="106"/>
       <c r="F15" s="19" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G15" s="104" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H15" s="108"/>
       <c r="I15" s="150"/>
       <c r="K15" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L15" s="104" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M15" s="108"/>
       <c r="N15" s="150"/>
       <c r="P15" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q15" s="104" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="R15" s="108"/>
       <c r="S15" s="150"/>
       <c r="U15" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="V15" s="104" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="W15" s="108"/>
       <c r="X15" s="150"/>
       <c r="Z15" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AA15" s="104" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AB15" s="108"/>
       <c r="AC15" s="150"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B16" s="104" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C16" s="108"/>
       <c r="D16" s="150"/>
       <c r="E16" s="106"/>
       <c r="F16" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G16" s="104" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H16" s="108"/>
       <c r="I16" s="150"/>
       <c r="K16" s="19" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L16" s="104" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M16" s="108"/>
       <c r="N16" s="150"/>
       <c r="P16" s="19" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q16" s="104" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="R16" s="108"/>
       <c r="S16" s="150"/>
       <c r="U16" s="19" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="V16" s="104" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="W16" s="108"/>
       <c r="X16" s="150"/>
       <c r="Z16" s="19" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AA16" s="104" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AB16" s="108"/>
       <c r="AC16" s="150"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="19" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B17" s="104" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C17" s="108"/>
       <c r="D17" s="150"/>
       <c r="E17" s="106"/>
       <c r="F17" s="19" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G17" s="104" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H17" s="108"/>
       <c r="I17" s="150"/>
       <c r="K17" s="19" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L17" s="104" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M17" s="108"/>
       <c r="N17" s="150"/>
       <c r="P17" s="19" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q17" s="104" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="R17" s="108"/>
       <c r="S17" s="150"/>
       <c r="U17" s="19" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="V17" s="104" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="W17" s="108"/>
       <c r="X17" s="150"/>
       <c r="Z17" s="19" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AA17" s="104" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AB17" s="108"/>
       <c r="AC17" s="150"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="19" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B18" s="104" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C18" s="108"/>
       <c r="D18" s="150"/>
       <c r="E18" s="106"/>
       <c r="F18" s="19" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G18" s="104" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H18" s="108"/>
       <c r="I18" s="150"/>
       <c r="K18" s="19" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L18" s="104" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M18" s="108"/>
       <c r="N18" s="150"/>
       <c r="P18" s="19" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q18" s="104" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="R18" s="108"/>
       <c r="S18" s="150"/>
       <c r="U18" s="19" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="V18" s="104" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="W18" s="108"/>
       <c r="X18" s="150"/>
       <c r="Z18" s="19" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AA18" s="104" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AB18" s="108"/>
       <c r="AC18" s="150"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="19" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B19" s="104" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C19" s="108"/>
       <c r="D19" s="150"/>
       <c r="E19" s="106"/>
       <c r="F19" s="19" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G19" s="104" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H19" s="108"/>
       <c r="I19" s="150"/>
       <c r="K19" s="19" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L19" s="104" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M19" s="108"/>
       <c r="N19" s="150"/>
       <c r="P19" s="19" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q19" s="104" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="R19" s="108"/>
       <c r="S19" s="150"/>
       <c r="U19" s="19" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="V19" s="104" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="W19" s="108"/>
       <c r="X19" s="150"/>
       <c r="Z19" s="19" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AA19" s="104" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AB19" s="108"/>
       <c r="AC19" s="150"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="19" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B20" s="104" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C20" s="108"/>
       <c r="D20" s="150"/>
       <c r="E20" s="106"/>
       <c r="F20" s="19" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G20" s="104" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H20" s="108"/>
       <c r="I20" s="150"/>
       <c r="K20" s="33" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L20" s="115" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M20" s="116" t="s">
         <v>28</v>
       </c>
       <c r="N20" s="151"/>
       <c r="P20" s="33" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q20" s="115" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="R20" s="116" t="s">
         <v>28</v>
       </c>
       <c r="S20" s="151"/>
       <c r="U20" s="33" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="V20" s="115" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="W20" s="116" t="s">
         <v>28</v>
       </c>
       <c r="X20" s="151"/>
       <c r="Z20" s="33" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AA20" s="115" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AB20" s="116" t="s">
         <v>28</v>
@@ -8339,10 +8340,10 @@
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="33" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B21" s="115" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C21" s="116" t="s">
         <v>28</v>
@@ -8350,10 +8351,10 @@
       <c r="D21" s="151"/>
       <c r="E21" s="106"/>
       <c r="F21" s="33" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G21" s="115" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H21" s="116" t="s">
         <v>28</v>
@@ -8363,25 +8364,25 @@
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K24" s="97" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L24" s="97"/>
       <c r="M24" s="97"/>
       <c r="N24" s="97"/>
       <c r="P24" s="97" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q24" s="97"/>
       <c r="R24" s="97"/>
       <c r="S24" s="97"/>
       <c r="U24" s="97" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="V24" s="97"/>
       <c r="W24" s="97"/>
       <c r="X24" s="97"/>
       <c r="Z24" s="97" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AA24" s="97"/>
       <c r="AB24" s="97"/>
@@ -8389,176 +8390,176 @@
     </row>
     <row r="25" customFormat="false" ht="23.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="97" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B25" s="97"/>
       <c r="C25" s="97"/>
       <c r="D25" s="97"/>
       <c r="F25" s="97" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G25" s="97"/>
       <c r="H25" s="97"/>
       <c r="I25" s="97"/>
       <c r="K25" s="99" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L25" s="100" t="s">
+        <v>174</v>
+      </c>
+      <c r="M25" s="100" t="s">
+        <v>175</v>
+      </c>
+      <c r="N25" s="103" t="s">
+        <v>176</v>
+      </c>
+      <c r="P25" s="99" t="s">
         <v>173</v>
       </c>
-      <c r="M25" s="100" t="s">
+      <c r="Q25" s="100" t="s">
         <v>174</v>
       </c>
-      <c r="N25" s="103" t="s">
+      <c r="R25" s="100" t="s">
         <v>175</v>
       </c>
-      <c r="P25" s="99" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q25" s="100" t="s">
+      <c r="S25" s="103" t="s">
+        <v>176</v>
+      </c>
+      <c r="U25" s="99" t="s">
         <v>173</v>
       </c>
-      <c r="R25" s="100" t="s">
+      <c r="V25" s="100" t="s">
         <v>174</v>
       </c>
-      <c r="S25" s="103" t="s">
+      <c r="W25" s="100" t="s">
         <v>175</v>
       </c>
-      <c r="U25" s="99" t="s">
-        <v>172</v>
-      </c>
-      <c r="V25" s="100" t="s">
+      <c r="X25" s="103" t="s">
+        <v>176</v>
+      </c>
+      <c r="Z25" s="99" t="s">
         <v>173</v>
       </c>
-      <c r="W25" s="100" t="s">
+      <c r="AA25" s="100" t="s">
         <v>174</v>
       </c>
-      <c r="X25" s="103" t="s">
+      <c r="AB25" s="100" t="s">
         <v>175</v>
       </c>
-      <c r="Z25" s="99" t="s">
-        <v>172</v>
-      </c>
-      <c r="AA25" s="100" t="s">
-        <v>173</v>
-      </c>
-      <c r="AB25" s="100" t="s">
-        <v>174</v>
-      </c>
       <c r="AC25" s="103" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="99" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B26" s="100" t="s">
+        <v>174</v>
+      </c>
+      <c r="C26" s="100" t="s">
+        <v>175</v>
+      </c>
+      <c r="D26" s="101" t="s">
+        <v>176</v>
+      </c>
+      <c r="F26" s="99" t="s">
         <v>173</v>
       </c>
-      <c r="C26" s="100" t="s">
+      <c r="G26" s="100" t="s">
         <v>174</v>
       </c>
-      <c r="D26" s="101" t="s">
+      <c r="H26" s="100" t="s">
         <v>175</v>
       </c>
-      <c r="F26" s="99" t="s">
-        <v>172</v>
-      </c>
-      <c r="G26" s="100" t="s">
-        <v>173</v>
-      </c>
-      <c r="H26" s="100" t="s">
-        <v>174</v>
-      </c>
       <c r="I26" s="103" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K26" s="19" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L26" s="104" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M26" s="22"/>
       <c r="N26" s="150"/>
       <c r="P26" s="19" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q26" s="104" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="R26" s="104"/>
       <c r="S26" s="148"/>
       <c r="U26" s="19" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="V26" s="104" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="W26" s="22"/>
       <c r="X26" s="149"/>
       <c r="Z26" s="19" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AA26" s="104" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AB26" s="22"/>
       <c r="AC26" s="149"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="19" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B27" s="104" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C27" s="22"/>
       <c r="D27" s="150"/>
       <c r="F27" s="19" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G27" s="104" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H27" s="22"/>
       <c r="I27" s="150"/>
       <c r="K27" s="19" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L27" s="104" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M27" s="108" t="s">
         <v>28</v>
       </c>
       <c r="N27" s="150"/>
       <c r="P27" s="19" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q27" s="104" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="R27" s="108" t="s">
         <v>28</v>
       </c>
       <c r="S27" s="150"/>
       <c r="U27" s="19" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="V27" s="104" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="W27" s="108" t="s">
         <v>28</v>
       </c>
       <c r="X27" s="152"/>
       <c r="Z27" s="19" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AA27" s="104" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AB27" s="108" t="s">
         <v>28</v>
@@ -8567,110 +8568,110 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="19" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B28" s="104" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C28" s="108" t="s">
         <v>28</v>
       </c>
       <c r="D28" s="150"/>
       <c r="F28" s="19" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G28" s="104" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H28" s="108" t="s">
         <v>28</v>
       </c>
       <c r="I28" s="150"/>
       <c r="K28" s="19" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L28" s="104" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M28" s="108"/>
       <c r="N28" s="150"/>
       <c r="P28" s="19" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q28" s="104" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="R28" s="108"/>
       <c r="S28" s="150"/>
       <c r="U28" s="19" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="V28" s="104" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="W28" s="108"/>
       <c r="X28" s="152"/>
       <c r="Z28" s="19" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AA28" s="104" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AB28" s="108"/>
       <c r="AC28" s="152"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="19" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B29" s="104" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C29" s="108"/>
       <c r="D29" s="150"/>
       <c r="F29" s="19" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G29" s="104" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H29" s="108"/>
       <c r="I29" s="150"/>
       <c r="K29" s="19" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L29" s="104" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M29" s="108" t="s">
         <v>28</v>
       </c>
       <c r="N29" s="150"/>
       <c r="P29" s="19" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q29" s="104" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="R29" s="108" t="s">
         <v>28</v>
       </c>
       <c r="S29" s="150"/>
       <c r="U29" s="19" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="V29" s="104" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="W29" s="108" t="s">
         <v>28</v>
       </c>
       <c r="X29" s="152"/>
       <c r="Z29" s="19" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AA29" s="104" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AB29" s="108" t="s">
         <v>28</v>
@@ -8679,60 +8680,60 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="19" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B30" s="104" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C30" s="108" t="s">
         <v>28</v>
       </c>
       <c r="D30" s="150"/>
       <c r="F30" s="19" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G30" s="104" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H30" s="108" t="s">
         <v>28</v>
       </c>
       <c r="I30" s="150"/>
       <c r="K30" s="19" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L30" s="104" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M30" s="108" t="s">
         <v>28</v>
       </c>
       <c r="N30" s="150"/>
       <c r="P30" s="19" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q30" s="104" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="R30" s="108" t="s">
         <v>28</v>
       </c>
       <c r="S30" s="150"/>
       <c r="U30" s="19" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="V30" s="104" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="W30" s="108" t="s">
         <v>28</v>
       </c>
       <c r="X30" s="152"/>
       <c r="Z30" s="19" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AA30" s="104" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AB30" s="108" t="s">
         <v>28</v>
@@ -8741,110 +8742,110 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="19" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B31" s="104" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C31" s="108" t="s">
         <v>28</v>
       </c>
       <c r="D31" s="150"/>
       <c r="F31" s="19" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G31" s="104" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H31" s="108" t="s">
         <v>28</v>
       </c>
       <c r="I31" s="150"/>
       <c r="K31" s="19" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L31" s="104" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M31" s="108"/>
       <c r="N31" s="150"/>
       <c r="P31" s="19" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q31" s="104" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="R31" s="119"/>
       <c r="S31" s="148"/>
       <c r="U31" s="19" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="V31" s="104" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="W31" s="108"/>
       <c r="X31" s="149"/>
       <c r="Z31" s="19" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AA31" s="104" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AB31" s="108"/>
       <c r="AC31" s="149"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="19" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B32" s="104" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C32" s="108"/>
       <c r="D32" s="150"/>
       <c r="F32" s="19" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G32" s="104" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H32" s="108"/>
       <c r="I32" s="150"/>
       <c r="K32" s="19" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L32" s="104" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M32" s="108" t="s">
         <v>22</v>
       </c>
       <c r="N32" s="150"/>
       <c r="P32" s="19" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q32" s="104" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="R32" s="119" t="s">
         <v>22</v>
       </c>
       <c r="S32" s="150"/>
       <c r="U32" s="19" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="V32" s="104" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="W32" s="108" t="s">
         <v>22</v>
       </c>
       <c r="X32" s="150"/>
       <c r="Z32" s="19" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AA32" s="104" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AB32" s="108" t="s">
         <v>22</v>
@@ -8853,430 +8854,430 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="19" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B33" s="104" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C33" s="108" t="s">
         <v>22</v>
       </c>
       <c r="D33" s="150"/>
       <c r="F33" s="19" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G33" s="104" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H33" s="108" t="s">
         <v>22</v>
       </c>
       <c r="I33" s="150"/>
       <c r="K33" s="19" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L33" s="104" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M33" s="108"/>
       <c r="N33" s="150"/>
       <c r="P33" s="19" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q33" s="104" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="R33" s="119"/>
       <c r="S33" s="150"/>
       <c r="U33" s="19" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="V33" s="104" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="W33" s="108"/>
       <c r="X33" s="152"/>
       <c r="Z33" s="19" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AA33" s="104" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AB33" s="108"/>
       <c r="AC33" s="152"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="19" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B34" s="104" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C34" s="108"/>
       <c r="D34" s="150"/>
       <c r="F34" s="19" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G34" s="104" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H34" s="108"/>
       <c r="I34" s="150"/>
       <c r="K34" s="19" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L34" s="104" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M34" s="108"/>
       <c r="N34" s="150"/>
       <c r="P34" s="19" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q34" s="104" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="R34" s="119"/>
       <c r="S34" s="150"/>
       <c r="U34" s="19" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="V34" s="104" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="W34" s="108"/>
       <c r="X34" s="152"/>
       <c r="Z34" s="19" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AA34" s="104" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AB34" s="108"/>
       <c r="AC34" s="152"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="19" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B35" s="104" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C35" s="108"/>
       <c r="D35" s="150"/>
       <c r="F35" s="19" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G35" s="104" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H35" s="108"/>
       <c r="I35" s="150"/>
       <c r="K35" s="19" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L35" s="104" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M35" s="108"/>
       <c r="N35" s="150"/>
       <c r="P35" s="19" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q35" s="104" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="R35" s="119"/>
       <c r="S35" s="150"/>
       <c r="U35" s="19" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="V35" s="104" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="W35" s="108"/>
       <c r="X35" s="152"/>
       <c r="Z35" s="19" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AA35" s="104" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AB35" s="108"/>
       <c r="AC35" s="152"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="19" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B36" s="104" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C36" s="108"/>
       <c r="D36" s="150"/>
       <c r="F36" s="19" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G36" s="104" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H36" s="108"/>
       <c r="I36" s="150"/>
       <c r="K36" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L36" s="104" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M36" s="108"/>
       <c r="N36" s="150"/>
       <c r="P36" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q36" s="104" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="R36" s="119"/>
       <c r="S36" s="150"/>
       <c r="U36" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="V36" s="104" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="W36" s="108"/>
       <c r="X36" s="152"/>
       <c r="Z36" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AA36" s="104" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AB36" s="108"/>
       <c r="AC36" s="152"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B37" s="104" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C37" s="108"/>
       <c r="D37" s="150"/>
       <c r="F37" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G37" s="104" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H37" s="108"/>
       <c r="I37" s="150"/>
       <c r="K37" s="19" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L37" s="104" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M37" s="108"/>
       <c r="N37" s="150"/>
       <c r="P37" s="19" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q37" s="104" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="R37" s="119"/>
       <c r="S37" s="150"/>
       <c r="U37" s="19" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="V37" s="104" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="W37" s="108"/>
       <c r="X37" s="150"/>
       <c r="Z37" s="19" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AA37" s="104" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AB37" s="108"/>
       <c r="AC37" s="150"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="19" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B38" s="104" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C38" s="108"/>
       <c r="D38" s="150"/>
       <c r="F38" s="19" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G38" s="104" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H38" s="108"/>
       <c r="I38" s="150"/>
       <c r="K38" s="19" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L38" s="104" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M38" s="108"/>
       <c r="N38" s="150"/>
       <c r="P38" s="19" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q38" s="104" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="R38" s="119"/>
       <c r="S38" s="150"/>
       <c r="U38" s="19" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="V38" s="104" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="W38" s="108"/>
       <c r="X38" s="152"/>
       <c r="Z38" s="19" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AA38" s="104" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AB38" s="108"/>
       <c r="AC38" s="152"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="19" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B39" s="104" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C39" s="108"/>
       <c r="D39" s="150"/>
       <c r="F39" s="19" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G39" s="104" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H39" s="108"/>
       <c r="I39" s="150"/>
       <c r="K39" s="19" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L39" s="104" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M39" s="108"/>
       <c r="N39" s="150"/>
       <c r="P39" s="19" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q39" s="104" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="R39" s="119"/>
       <c r="S39" s="150"/>
       <c r="U39" s="19" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="V39" s="104" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="W39" s="108"/>
       <c r="X39" s="152"/>
       <c r="Z39" s="19" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AA39" s="104" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AB39" s="108"/>
       <c r="AC39" s="152"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="19" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B40" s="104" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C40" s="108"/>
       <c r="D40" s="150"/>
       <c r="F40" s="19" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G40" s="104" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H40" s="108"/>
       <c r="I40" s="150"/>
       <c r="K40" s="19" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L40" s="104" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M40" s="108"/>
       <c r="N40" s="150"/>
       <c r="P40" s="120" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q40" s="121" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="R40" s="121"/>
       <c r="S40" s="150"/>
       <c r="U40" s="120" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="V40" s="123" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="W40" s="123"/>
       <c r="X40" s="152"/>
       <c r="Z40" s="120" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AA40" s="123" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AB40" s="123"/>
       <c r="AC40" s="152"/>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="19" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B41" s="104" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C41" s="108"/>
       <c r="D41" s="150"/>
       <c r="F41" s="19" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G41" s="104" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H41" s="108"/>
       <c r="I41" s="150"/>
       <c r="K41" s="33" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L41" s="115" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M41" s="116" t="s">
         <v>28</v>
@@ -9297,20 +9298,20 @@
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="33" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B42" s="115" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C42" s="116" t="s">
         <v>28</v>
       </c>
       <c r="D42" s="151"/>
       <c r="F42" s="33" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G42" s="115" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H42" s="116" t="s">
         <v>28</v>
@@ -9347,30 +9348,30 @@
       <c r="M43" s="126"/>
       <c r="N43" s="127"/>
       <c r="P43" s="33" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q43" s="115" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="R43" s="116" t="s">
         <v>28</v>
       </c>
       <c r="S43" s="151"/>
       <c r="U43" s="33" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="V43" s="115" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="W43" s="116" t="s">
         <v>28</v>
       </c>
       <c r="X43" s="151"/>
       <c r="Z43" s="33" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AA43" s="115" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AB43" s="116" t="s">
         <v>28</v>
@@ -9414,91 +9415,91 @@
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="128" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="129"/>
       <c r="B51" s="106" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C51" s="125" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="130"/>
       <c r="B52" s="106" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C52" s="125" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="131"/>
       <c r="B53" s="106" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C53" s="125" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="132"/>
       <c r="B54" s="106" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C54" s="125" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="133"/>
       <c r="B55" s="106" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C55" s="125" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="134"/>
       <c r="B56" s="106" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C56" s="125" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="135"/>
       <c r="B57" s="106" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C57" s="125" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="136"/>
       <c r="B58" s="106" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C58" s="125" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="137"/>
       <c r="B59" s="106" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C59" s="125" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
